--- a/funds/Interval/var_data_INTERVALMASTERFUND_20240221.xlsx
+++ b/funds/Interval/var_data_INTERVALMASTERFUND_20240221.xlsx
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4258,7 +4258,7 @@
         <v>19</v>
       </c>
       <c r="F142">
-        <v>4.368856456118858E-05</v>
+        <v>4.368856456118859E-05</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4378,7 +4378,7 @@
         <v>25</v>
       </c>
       <c r="F148">
-        <v>-4.701252973357574E-06</v>
+        <v>-4.701252973357575E-06</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4398,7 +4398,7 @@
         <v>26</v>
       </c>
       <c r="F149">
-        <v>-5.21535459602449E-06</v>
+        <v>-5.215354596024492E-06</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4418,7 +4418,7 @@
         <v>27</v>
       </c>
       <c r="F150">
-        <v>-5.584497387036011E-05</v>
+        <v>-5.584497387036012E-05</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4438,7 +4438,7 @@
         <v>28</v>
       </c>
       <c r="F151">
-        <v>4.294358549198268E-06</v>
+        <v>4.294358549198269E-06</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4458,7 +4458,7 @@
         <v>29</v>
       </c>
       <c r="F152">
-        <v>-0.0002242553467809499</v>
+        <v>-0.00022425534678095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4478,7 +4478,7 @@
         <v>30</v>
       </c>
       <c r="F153">
-        <v>4.788914365695607E-05</v>
+        <v>4.788914365695608E-05</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4498,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="F154">
-        <v>-9.593731354083129E-05</v>
+        <v>-9.593731354083131E-05</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4518,7 +4518,7 @@
         <v>32</v>
       </c>
       <c r="F155">
-        <v>5.755836709606951E-05</v>
+        <v>5.755836709606952E-05</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4558,7 +4558,7 @@
         <v>34</v>
       </c>
       <c r="F157">
-        <v>-3.129904768848662E-05</v>
+        <v>-3.129904768848663E-05</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4578,7 +4578,7 @@
         <v>35</v>
       </c>
       <c r="F158">
-        <v>7.309163782549755E-05</v>
+        <v>7.309163782549756E-05</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4598,7 +4598,7 @@
         <v>36</v>
       </c>
       <c r="F159">
-        <v>-5.115490216226073E-07</v>
+        <v>-5.115490216226074E-07</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4638,7 +4638,7 @@
         <v>38</v>
       </c>
       <c r="F161">
-        <v>6.670436050028788E-07</v>
+        <v>6.670436050028789E-07</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4698,7 +4698,7 @@
         <v>41</v>
       </c>
       <c r="F164">
-        <v>1.94632284349394E-06</v>
+        <v>1.946322843493941E-06</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4718,7 +4718,7 @@
         <v>42</v>
       </c>
       <c r="F165">
-        <v>-2.237117554343036E-06</v>
+        <v>-2.237117554343037E-06</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4738,7 +4738,7 @@
         <v>43</v>
       </c>
       <c r="F166">
-        <v>-9.970564418144637E-05</v>
+        <v>-9.970564418144638E-05</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4778,7 +4778,7 @@
         <v>45</v>
       </c>
       <c r="F168">
-        <v>-4.506900273818823E-05</v>
+        <v>-4.506900273818825E-05</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4798,7 +4798,7 @@
         <v>46</v>
       </c>
       <c r="F169">
-        <v>6.499990342358695E-05</v>
+        <v>6.499990342358696E-05</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4838,7 +4838,7 @@
         <v>48</v>
       </c>
       <c r="F171">
-        <v>-5.536157368402501E-06</v>
+        <v>-5.536157368402502E-06</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4898,7 +4898,7 @@
         <v>51</v>
       </c>
       <c r="F174">
-        <v>-1.941858382447372E-05</v>
+        <v>-1.941858382447373E-05</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4938,7 +4938,7 @@
         <v>53</v>
       </c>
       <c r="F176">
-        <v>-7.66798981100719E-05</v>
+        <v>-7.667989811007191E-05</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4958,7 +4958,7 @@
         <v>54</v>
       </c>
       <c r="F177">
-        <v>-3.922983732198804E-05</v>
+        <v>-3.922983732198805E-05</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4998,7 +4998,7 @@
         <v>56</v>
       </c>
       <c r="F179">
-        <v>-6.879681975356856E-05</v>
+        <v>-6.879681975356857E-05</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5038,7 +5038,7 @@
         <v>58</v>
       </c>
       <c r="F181">
-        <v>-2.147137003962182E-06</v>
+        <v>-2.147137003962183E-06</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5118,7 +5118,7 @@
         <v>62</v>
       </c>
       <c r="F185">
-        <v>6.367348628883453E-05</v>
+        <v>6.367348628883454E-05</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5158,7 +5158,7 @@
         <v>64</v>
       </c>
       <c r="F187">
-        <v>-7.201261641134968E-05</v>
+        <v>-7.20126164113497E-05</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5198,7 +5198,7 @@
         <v>66</v>
       </c>
       <c r="F189">
-        <v>-5.547067556156631E-05</v>
+        <v>-5.547067556156632E-05</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5218,7 +5218,7 @@
         <v>67</v>
       </c>
       <c r="F190">
-        <v>8.743424629788144E-05</v>
+        <v>8.743424629788147E-05</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5238,7 +5238,7 @@
         <v>68</v>
       </c>
       <c r="F191">
-        <v>-1.684795639885742E-05</v>
+        <v>-1.684795639885743E-05</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5278,7 +5278,7 @@
         <v>70</v>
       </c>
       <c r="F193">
-        <v>-4.862827710614222E-06</v>
+        <v>-4.862827710614223E-06</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5298,7 +5298,7 @@
         <v>71</v>
       </c>
       <c r="F194">
-        <v>-8.645354297636093E-05</v>
+        <v>-8.645354297636094E-05</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5358,7 +5358,7 @@
         <v>74</v>
       </c>
       <c r="F197">
-        <v>2.903826539529529E-05</v>
+        <v>2.90382653952953E-05</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5398,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="F199">
-        <v>-2.155829755915961E-06</v>
+        <v>-2.155829755915962E-06</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5418,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="F200">
-        <v>-0.0001977557500730229</v>
+        <v>-0.000197755750073023</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5438,7 +5438,7 @@
         <v>78</v>
       </c>
       <c r="F201">
-        <v>0.0001127102491040819</v>
+        <v>0.000112710249104082</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5458,7 +5458,7 @@
         <v>79</v>
       </c>
       <c r="F202">
-        <v>5.79624137065103E-05</v>
+        <v>5.796241370651032E-05</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5498,7 +5498,7 @@
         <v>81</v>
       </c>
       <c r="F204">
-        <v>1.324707219309279E-06</v>
+        <v>1.32470721930928E-06</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5518,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="F205">
-        <v>-9.671167206628754E-07</v>
+        <v>-9.671167206628756E-07</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5538,7 +5538,7 @@
         <v>83</v>
       </c>
       <c r="F206">
-        <v>-2.592864712326112E-05</v>
+        <v>-2.592864712326113E-05</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5578,7 +5578,7 @@
         <v>85</v>
       </c>
       <c r="F208">
-        <v>9.980670083251319E-07</v>
+        <v>9.980670083251321E-07</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5678,7 +5678,7 @@
         <v>90</v>
       </c>
       <c r="F213">
-        <v>-3.437090941852485E-06</v>
+        <v>-3.437090941852486E-06</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5698,7 +5698,7 @@
         <v>91</v>
       </c>
       <c r="F214">
-        <v>-3.666151978214581E-05</v>
+        <v>-3.666151978214582E-05</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5718,7 +5718,7 @@
         <v>92</v>
       </c>
       <c r="F215">
-        <v>-2.129298795168559E-05</v>
+        <v>-2.12929879516856E-05</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5738,7 +5738,7 @@
         <v>93</v>
       </c>
       <c r="F216">
-        <v>-3.007383736714807E-05</v>
+        <v>-3.007383736714808E-05</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5778,7 +5778,7 @@
         <v>95</v>
       </c>
       <c r="F218">
-        <v>-1.833808089267915E-05</v>
+        <v>-1.833808089267916E-05</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5798,7 +5798,7 @@
         <v>96</v>
       </c>
       <c r="F219">
-        <v>3.889581065808881E-05</v>
+        <v>3.889581065808882E-05</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5818,7 +5818,7 @@
         <v>97</v>
       </c>
       <c r="F220">
-        <v>1.735137391349945E-05</v>
+        <v>1.735137391349946E-05</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5838,7 +5838,7 @@
         <v>98</v>
       </c>
       <c r="F221">
-        <v>-4.410712772649995E-05</v>
+        <v>-4.410712772649996E-05</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5858,7 +5858,7 @@
         <v>99</v>
       </c>
       <c r="F222">
-        <v>3.299061087089539E-05</v>
+        <v>3.29906108708954E-05</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5898,7 +5898,7 @@
         <v>101</v>
       </c>
       <c r="F224">
-        <v>-7.984207402035632E-05</v>
+        <v>-7.984207402035633E-05</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5918,7 +5918,7 @@
         <v>102</v>
       </c>
       <c r="F225">
-        <v>1.902082872109406E-05</v>
+        <v>1.902082872109407E-05</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5978,7 +5978,7 @@
         <v>105</v>
       </c>
       <c r="F228">
-        <v>-2.383464635530064E-06</v>
+        <v>-2.383464635530065E-06</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6018,7 +6018,7 @@
         <v>107</v>
       </c>
       <c r="F230">
-        <v>-2.408602028826993E-06</v>
+        <v>-2.408602028826994E-06</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6038,7 +6038,7 @@
         <v>108</v>
       </c>
       <c r="F231">
-        <v>-9.152506491231255E-07</v>
+        <v>-9.152506491231257E-07</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6058,7 +6058,7 @@
         <v>109</v>
       </c>
       <c r="F232">
-        <v>-6.086549014676928E-07</v>
+        <v>-6.08654901467693E-07</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6158,7 +6158,7 @@
         <v>114</v>
       </c>
       <c r="F237">
-        <v>1.295020960048772E-06</v>
+        <v>1.295020960048773E-06</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6178,7 +6178,7 @@
         <v>115</v>
       </c>
       <c r="F238">
-        <v>1.669776887144755E-06</v>
+        <v>1.669776887144756E-06</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6218,7 +6218,7 @@
         <v>117</v>
       </c>
       <c r="F240">
-        <v>0.000182414282631477</v>
+        <v>0.0001824142826314771</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6238,7 +6238,7 @@
         <v>118</v>
       </c>
       <c r="F241">
-        <v>7.551348979887559E-05</v>
+        <v>7.551348979887561E-05</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6298,7 +6298,7 @@
         <v>121</v>
       </c>
       <c r="F244">
-        <v>8.783936535528877E-05</v>
+        <v>8.78393653552888E-05</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6338,7 +6338,7 @@
         <v>123</v>
       </c>
       <c r="F246">
-        <v>2.848096376118053E-06</v>
+        <v>2.848096376118054E-06</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6358,7 +6358,7 @@
         <v>124</v>
       </c>
       <c r="F247">
-        <v>0.0001226139457210131</v>
+        <v>0.0001226139457210132</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6398,7 +6398,7 @@
         <v>126</v>
       </c>
       <c r="F249">
-        <v>3.421887216417654E-05</v>
+        <v>3.421887216417655E-05</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6418,7 +6418,7 @@
         <v>127</v>
       </c>
       <c r="F250">
-        <v>9.837794850378268E-07</v>
+        <v>9.83779485037827E-07</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6438,7 +6438,7 @@
         <v>128</v>
       </c>
       <c r="F251">
-        <v>-6.524586535145749E-05</v>
+        <v>-6.52458653514575E-05</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6478,7 +6478,7 @@
         <v>130</v>
       </c>
       <c r="F253">
-        <v>-5.870548786991552E-05</v>
+        <v>-5.870548786991553E-05</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6518,7 +6518,7 @@
         <v>132</v>
       </c>
       <c r="F255">
-        <v>-3.469823414111383E-06</v>
+        <v>-3.469823414111384E-06</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6538,7 +6538,7 @@
         <v>133</v>
       </c>
       <c r="F256">
-        <v>-2.334077532312192E-06</v>
+        <v>-2.334077532312193E-06</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6558,7 +6558,7 @@
         <v>134</v>
       </c>
       <c r="F257">
-        <v>6.394996548259881E-05</v>
+        <v>6.394996548259882E-05</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6578,7 +6578,7 @@
         <v>135</v>
       </c>
       <c r="F258">
-        <v>-3.430993607007541E-05</v>
+        <v>-3.430993607007542E-05</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6618,7 +6618,7 @@
         <v>137</v>
       </c>
       <c r="F260">
-        <v>-9.720610216172917E-07</v>
+        <v>-9.720610216172919E-07</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6638,7 +6638,7 @@
         <v>138</v>
       </c>
       <c r="F261">
-        <v>-8.581321100498919E-07</v>
+        <v>-8.58132110049892E-07</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6658,7 +6658,7 @@
         <v>139</v>
       </c>
       <c r="F262">
-        <v>-4.10152153970728E-05</v>
+        <v>-4.101521539707281E-05</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6718,7 +6718,7 @@
         <v>142</v>
       </c>
       <c r="F265">
-        <v>-3.797247158326379E-05</v>
+        <v>-3.79724715832638E-05</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6738,7 +6738,7 @@
         <v>143</v>
       </c>
       <c r="F266">
-        <v>2.608011031508824E-05</v>
+        <v>2.608011031508825E-05</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6758,7 +6758,7 @@
         <v>144</v>
       </c>
       <c r="F267">
-        <v>3.171802469696945E-06</v>
+        <v>3.171802469696946E-06</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6778,7 +6778,7 @@
         <v>145</v>
       </c>
       <c r="F268">
-        <v>9.600617513556347E-05</v>
+        <v>9.60061751355635E-05</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6798,7 +6798,7 @@
         <v>146</v>
       </c>
       <c r="F269">
-        <v>1.076508325854156E-05</v>
+        <v>1.076508325854157E-05</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6818,7 +6818,7 @@
         <v>147</v>
       </c>
       <c r="F270">
-        <v>8.116633170644085E-05</v>
+        <v>8.116633170644087E-05</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6858,7 +6858,7 @@
         <v>149</v>
       </c>
       <c r="F272">
-        <v>-7.460516525293226E-06</v>
+        <v>-7.460516525293227E-06</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6878,7 +6878,7 @@
         <v>150</v>
       </c>
       <c r="F273">
-        <v>-5.426586014077249E-05</v>
+        <v>-5.42658601407725E-05</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6898,7 +6898,7 @@
         <v>151</v>
       </c>
       <c r="F274">
-        <v>1.274699010442003E-06</v>
+        <v>1.274699010442004E-06</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6918,7 +6918,7 @@
         <v>152</v>
       </c>
       <c r="F275">
-        <v>-8.30713847725806E-05</v>
+        <v>-8.307138477258061E-05</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6958,7 +6958,7 @@
         <v>154</v>
       </c>
       <c r="F277">
-        <v>6.069198872884317E-06</v>
+        <v>6.069198872884319E-06</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7018,7 +7018,7 @@
         <v>157</v>
       </c>
       <c r="F280">
-        <v>4.197096813424034E-05</v>
+        <v>4.197096813424035E-05</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7038,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="F281">
-        <v>-6.528184830194989E-06</v>
+        <v>-6.528184830194121E-06</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7058,7 +7058,7 @@
         <v>20</v>
       </c>
       <c r="F282">
-        <v>-9.715291024656181E-07</v>
+        <v>-9.715291024647507E-07</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7078,7 +7078,7 @@
         <v>21</v>
       </c>
       <c r="F283">
-        <v>3.361943057287112E-07</v>
+        <v>3.361943057295785E-07</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7098,7 +7098,7 @@
         <v>22</v>
       </c>
       <c r="F284">
-        <v>-0.0001484814867045159</v>
+        <v>-0.000148481486704515</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7118,7 +7118,7 @@
         <v>23</v>
       </c>
       <c r="F285">
-        <v>6.420827805848992E-05</v>
+        <v>6.420827805849079E-05</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7138,7 +7138,7 @@
         <v>24</v>
       </c>
       <c r="F286">
-        <v>-2.118686551885393E-07</v>
+        <v>-2.11868655187672E-07</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7158,7 +7158,7 @@
         <v>25</v>
       </c>
       <c r="F287">
-        <v>-1.144495541444482E-06</v>
+        <v>-1.144495541443614E-06</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7178,7 +7178,7 @@
         <v>26</v>
       </c>
       <c r="F288">
-        <v>-1.804426471666357E-06</v>
+        <v>-1.804426471665489E-06</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7198,7 +7198,7 @@
         <v>27</v>
       </c>
       <c r="F289">
-        <v>-4.335999762478636E-05</v>
+        <v>-4.335999762478549E-05</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7218,7 +7218,7 @@
         <v>28</v>
       </c>
       <c r="F290">
-        <v>-2.912663403060664E-07</v>
+        <v>-2.91266340305199E-07</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7238,7 +7238,7 @@
         <v>29</v>
       </c>
       <c r="F291">
-        <v>-3.120322229537703E-05</v>
+        <v>-3.120322229537616E-05</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7258,7 +7258,7 @@
         <v>30</v>
       </c>
       <c r="F292">
-        <v>7.803859894812103E-05</v>
+        <v>7.803859894812189E-05</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7278,7 +7278,7 @@
         <v>31</v>
       </c>
       <c r="F293">
-        <v>-0.0001510134650713861</v>
+        <v>-0.0001510134650713852</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7298,7 +7298,7 @@
         <v>32</v>
       </c>
       <c r="F294">
-        <v>6.12525172381112E-06</v>
+        <v>6.125251723811988E-06</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7318,7 +7318,7 @@
         <v>33</v>
       </c>
       <c r="F295">
-        <v>-1.685372171327491E-05</v>
+        <v>-1.685372171327405E-05</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7338,7 +7338,7 @@
         <v>34</v>
       </c>
       <c r="F296">
-        <v>-1.027103166796953E-05</v>
+        <v>-1.027103166796866E-05</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7358,7 +7358,7 @@
         <v>35</v>
       </c>
       <c r="F297">
-        <v>-3.41347672484088E-06</v>
+        <v>-3.413476724840013E-06</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7378,7 +7378,7 @@
         <v>36</v>
       </c>
       <c r="F298">
-        <v>-1.998226848397289E-07</v>
+        <v>-1.998226848379941E-07</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7398,7 +7398,7 @@
         <v>37</v>
       </c>
       <c r="F299">
-        <v>3.56365263524689E-06</v>
+        <v>3.563652635247758E-06</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7418,7 +7418,7 @@
         <v>38</v>
       </c>
       <c r="F300">
-        <v>6.320127093097094E-07</v>
+        <v>6.320127093105768E-07</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7438,7 +7438,7 @@
         <v>39</v>
       </c>
       <c r="F301">
-        <v>-3.884808941399115E-06</v>
+        <v>-3.884808941398248E-06</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7458,7 +7458,7 @@
         <v>40</v>
       </c>
       <c r="F302">
-        <v>-7.041760252459069E-05</v>
+        <v>-7.041760252458982E-05</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7478,7 +7478,7 @@
         <v>41</v>
       </c>
       <c r="F303">
-        <v>-1.146666631351295E-08</v>
+        <v>-1.146666631177823E-08</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7498,7 +7498,7 @@
         <v>42</v>
       </c>
       <c r="F304">
-        <v>7.679452395286182E-07</v>
+        <v>7.679452395294856E-07</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7518,7 +7518,7 @@
         <v>43</v>
       </c>
       <c r="F305">
-        <v>7.231037874870679E-06</v>
+        <v>7.231037874871546E-06</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7538,7 +7538,7 @@
         <v>44</v>
       </c>
       <c r="F306">
-        <v>1.998291998856969E-05</v>
+        <v>1.998291998857142E-05</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7558,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="F307">
-        <v>-0.0001475851771676135</v>
+        <v>-0.0001475851771676126</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7578,7 +7578,7 @@
         <v>46</v>
       </c>
       <c r="F308">
-        <v>-2.686512197658947E-05</v>
+        <v>-2.68651219765886E-05</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7598,7 +7598,7 @@
         <v>47</v>
       </c>
       <c r="F309">
-        <v>6.382549146992725E-05</v>
+        <v>6.382549146992898E-05</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7618,7 +7618,7 @@
         <v>48</v>
       </c>
       <c r="F310">
-        <v>-2.41523784250304E-06</v>
+        <v>-2.415237842501305E-06</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7638,7 +7638,7 @@
         <v>49</v>
       </c>
       <c r="F311">
-        <v>-1.995518292727001E-05</v>
+        <v>-1.995518292726827E-05</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7658,7 +7658,7 @@
         <v>50</v>
       </c>
       <c r="F312">
-        <v>-4.299149072501448E-05</v>
+        <v>-4.299149072501361E-05</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7678,7 +7678,7 @@
         <v>51</v>
       </c>
       <c r="F313">
-        <v>-3.222312277958821E-05</v>
+        <v>-3.222312277958734E-05</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7698,7 +7698,7 @@
         <v>52</v>
       </c>
       <c r="F314">
-        <v>-4.282665671004847E-06</v>
+        <v>-4.282665671003112E-06</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7718,7 +7718,7 @@
         <v>53</v>
       </c>
       <c r="F315">
-        <v>-0.0001447925139426171</v>
+        <v>-0.0001447925139426163</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7738,7 +7738,7 @@
         <v>54</v>
       </c>
       <c r="F316">
-        <v>2.01139690948959E-05</v>
+        <v>2.011396909489677E-05</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7758,7 +7758,7 @@
         <v>55</v>
       </c>
       <c r="F317">
-        <v>-2.123953552444872E-05</v>
+        <v>-2.123953552444786E-05</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7778,7 +7778,7 @@
         <v>56</v>
       </c>
       <c r="F318">
-        <v>4.945815143313562E-05</v>
+        <v>4.945815143313648E-05</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7798,7 +7798,7 @@
         <v>57</v>
       </c>
       <c r="F319">
-        <v>-8.204206452949725E-07</v>
+        <v>-8.204206452941051E-07</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7818,7 +7818,7 @@
         <v>58</v>
       </c>
       <c r="F320">
-        <v>3.638985094540914E-06</v>
+        <v>3.638985094542649E-06</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7838,7 +7838,7 @@
         <v>59</v>
       </c>
       <c r="F321">
-        <v>6.700483344782709E-07</v>
+        <v>6.700483344791383E-07</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7858,7 +7858,7 @@
         <v>60</v>
       </c>
       <c r="F322">
-        <v>-1.748388744155123E-05</v>
+        <v>-1.748388744154949E-05</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7878,7 +7878,7 @@
         <v>61</v>
       </c>
       <c r="F323">
-        <v>-7.310893377788282E-05</v>
+        <v>-7.310893377788195E-05</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7898,7 +7898,7 @@
         <v>62</v>
       </c>
       <c r="F324">
-        <v>9.662422813568137E-05</v>
+        <v>9.662422813568224E-05</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7918,7 +7918,7 @@
         <v>63</v>
       </c>
       <c r="F325">
-        <v>0.0002987496576806444</v>
+        <v>0.0002987496576806453</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7938,7 +7938,7 @@
         <v>64</v>
       </c>
       <c r="F326">
-        <v>-0.0001026754296266355</v>
+        <v>-0.0001026754296266346</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7958,7 +7958,7 @@
         <v>65</v>
       </c>
       <c r="F327">
-        <v>8.040291425061991E-07</v>
+        <v>8.040291425079338E-07</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7978,7 +7978,7 @@
         <v>66</v>
       </c>
       <c r="F328">
-        <v>5.896196167671022E-05</v>
+        <v>5.896196167671109E-05</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7998,7 +7998,7 @@
         <v>67</v>
       </c>
       <c r="F329">
-        <v>5.157415117175001E-05</v>
+        <v>5.157415117175088E-05</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8018,7 +8018,7 @@
         <v>68</v>
       </c>
       <c r="F330">
-        <v>-1.290964740625726E-05</v>
+        <v>-1.290964740625639E-05</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8038,7 +8038,7 @@
         <v>69</v>
       </c>
       <c r="F331">
-        <v>3.91670436707646E-07</v>
+        <v>3.916704367085133E-07</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8058,7 +8058,7 @@
         <v>70</v>
       </c>
       <c r="F332">
-        <v>-4.049944440275878E-06</v>
+        <v>-4.049944440275011E-06</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8078,7 +8078,7 @@
         <v>71</v>
       </c>
       <c r="F333">
-        <v>-0.0003185687072734368</v>
+        <v>-0.000318568707273436</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8098,7 +8098,7 @@
         <v>72</v>
       </c>
       <c r="F334">
-        <v>2.923440833588545E-07</v>
+        <v>2.923440833597218E-07</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8118,7 +8118,7 @@
         <v>73</v>
       </c>
       <c r="F335">
-        <v>-3.627699322785501E-05</v>
+        <v>-3.627699322785328E-05</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8138,7 +8138,7 @@
         <v>74</v>
       </c>
       <c r="F336">
-        <v>9.704792840665652E-06</v>
+        <v>9.704792840666519E-06</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8158,7 +8158,7 @@
         <v>75</v>
       </c>
       <c r="F337">
-        <v>9.294424638192546E-05</v>
+        <v>9.294424638192633E-05</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8178,7 +8178,7 @@
         <v>76</v>
       </c>
       <c r="F338">
-        <v>-2.82006123693973E-06</v>
+        <v>-2.820061236938863E-06</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8198,7 +8198,7 @@
         <v>77</v>
       </c>
       <c r="F339">
-        <v>4.737045875572669E-05</v>
+        <v>4.737045875572755E-05</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8238,7 +8238,7 @@
         <v>79</v>
       </c>
       <c r="F341">
-        <v>5.488201531116555E-05</v>
+        <v>5.488201531116642E-05</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8258,7 +8258,7 @@
         <v>80</v>
       </c>
       <c r="F342">
-        <v>2.628339406444101E-06</v>
+        <v>2.628339406444968E-06</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8278,7 +8278,7 @@
         <v>81</v>
       </c>
       <c r="F343">
-        <v>5.070205671472289E-07</v>
+        <v>5.070205671480962E-07</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8298,7 +8298,7 @@
         <v>82</v>
       </c>
       <c r="F344">
-        <v>-2.17907508531269E-07</v>
+        <v>-2.179075085304016E-07</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8318,7 +8318,7 @@
         <v>83</v>
       </c>
       <c r="F345">
-        <v>-4.044399146441949E-05</v>
+        <v>-4.044399146441863E-05</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8338,7 +8338,7 @@
         <v>84</v>
       </c>
       <c r="F346">
-        <v>4.554533849169227E-06</v>
+        <v>4.554533849170095E-06</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8358,7 +8358,7 @@
         <v>85</v>
       </c>
       <c r="F347">
-        <v>1.408898409726439E-06</v>
+        <v>1.408898409727306E-06</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8378,7 +8378,7 @@
         <v>86</v>
       </c>
       <c r="F348">
-        <v>-0.0001979716852191513</v>
+        <v>-0.0001979716852191504</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8398,7 +8398,7 @@
         <v>87</v>
       </c>
       <c r="F349">
-        <v>2.213495364222773E-06</v>
+        <v>2.21349536422364E-06</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8418,7 +8418,7 @@
         <v>88</v>
       </c>
       <c r="F350">
-        <v>-2.788465093056178E-07</v>
+        <v>-2.788465093047504E-07</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8438,7 +8438,7 @@
         <v>89</v>
       </c>
       <c r="F351">
-        <v>0.0001427635257905532</v>
+        <v>0.0001427635257905541</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8458,7 +8458,7 @@
         <v>90</v>
       </c>
       <c r="F352">
-        <v>-7.736374184998465E-07</v>
+        <v>-7.736374184981118E-07</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8478,7 +8478,7 @@
         <v>91</v>
       </c>
       <c r="F353">
-        <v>-0.0001405457268230303</v>
+        <v>-0.0001405457268230294</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8498,7 +8498,7 @@
         <v>92</v>
       </c>
       <c r="F354">
-        <v>-2.488066827051848E-05</v>
+        <v>-2.488066827051761E-05</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8518,7 +8518,7 @@
         <v>93</v>
       </c>
       <c r="F355">
-        <v>-3.31232524313314E-05</v>
+        <v>-3.312325243133053E-05</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8538,7 +8538,7 @@
         <v>94</v>
       </c>
       <c r="F356">
-        <v>0.0005444836647749431</v>
+        <v>0.000544483664774944</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8558,7 +8558,7 @@
         <v>95</v>
       </c>
       <c r="F357">
-        <v>-2.254547348981041E-05</v>
+        <v>-2.254547348980868E-05</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8578,7 +8578,7 @@
         <v>96</v>
       </c>
       <c r="F358">
-        <v>5.086669251469327E-05</v>
+        <v>5.086669251469413E-05</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8598,7 +8598,7 @@
         <v>97</v>
       </c>
       <c r="F359">
-        <v>7.634232997114077E-06</v>
+        <v>7.634232997114944E-06</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8618,7 +8618,7 @@
         <v>98</v>
       </c>
       <c r="F360">
-        <v>5.297294579302472E-05</v>
+        <v>5.297294579302558E-05</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8638,7 +8638,7 @@
         <v>99</v>
       </c>
       <c r="F361">
-        <v>3.627060289265911E-05</v>
+        <v>3.627060289265998E-05</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8678,7 +8678,7 @@
         <v>101</v>
       </c>
       <c r="F363">
-        <v>-3.082931352062224E-05</v>
+        <v>-3.082931352062137E-05</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8698,7 +8698,7 @@
         <v>102</v>
       </c>
       <c r="F364">
-        <v>2.872275813564727E-05</v>
+        <v>2.872275813564813E-05</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8718,7 +8718,7 @@
         <v>103</v>
       </c>
       <c r="F365">
-        <v>5.354186770700937E-05</v>
+        <v>5.354186770701024E-05</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8738,7 +8738,7 @@
         <v>104</v>
       </c>
       <c r="F366">
-        <v>3.634789283072076E-05</v>
+        <v>3.634789283072162E-05</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8778,7 +8778,7 @@
         <v>106</v>
       </c>
       <c r="F368">
-        <v>1.371241921409999E-06</v>
+        <v>1.371241921410866E-06</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8798,7 +8798,7 @@
         <v>107</v>
       </c>
       <c r="F369">
-        <v>2.390128423393999E-06</v>
+        <v>2.390128423395733E-06</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8818,7 +8818,7 @@
         <v>108</v>
       </c>
       <c r="F370">
-        <v>-2.184022619542217E-06</v>
+        <v>-2.18402261954135E-06</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8838,7 +8838,7 @@
         <v>109</v>
       </c>
       <c r="F371">
-        <v>8.036067982416031E-07</v>
+        <v>8.036067982424705E-07</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8858,7 +8858,7 @@
         <v>110</v>
       </c>
       <c r="F372">
-        <v>-9.857753159418781E-08</v>
+        <v>-9.857753159332044E-08</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8878,7 +8878,7 @@
         <v>111</v>
       </c>
       <c r="F373">
-        <v>6.988872521699295E-06</v>
+        <v>6.988872521700162E-06</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8898,7 +8898,7 @@
         <v>112</v>
       </c>
       <c r="F374">
-        <v>1.563682553638174E-06</v>
+        <v>1.563682553639041E-06</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8918,7 +8918,7 @@
         <v>113</v>
       </c>
       <c r="F375">
-        <v>0.0003336446787467577</v>
+        <v>0.0003336446787467586</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8938,7 +8938,7 @@
         <v>114</v>
       </c>
       <c r="F376">
-        <v>2.334514355170104E-06</v>
+        <v>2.334514355170972E-06</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8958,7 +8958,7 @@
         <v>115</v>
       </c>
       <c r="F377">
-        <v>-2.293778150232184E-08</v>
+        <v>-2.293778150145448E-08</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8978,7 +8978,7 @@
         <v>116</v>
       </c>
       <c r="F378">
-        <v>-3.154063966242897E-06</v>
+        <v>-3.154063966242029E-06</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8998,7 +8998,7 @@
         <v>117</v>
       </c>
       <c r="F379">
-        <v>0.0003836578106473608</v>
+        <v>0.0003836578106473617</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -9018,7 +9018,7 @@
         <v>118</v>
       </c>
       <c r="F380">
-        <v>0.0001207920394527481</v>
+        <v>0.000120792039452749</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -9038,7 +9038,7 @@
         <v>119</v>
       </c>
       <c r="F381">
-        <v>0.000490371374536851</v>
+        <v>0.0004903713745368519</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -9078,7 +9078,7 @@
         <v>121</v>
       </c>
       <c r="F383">
-        <v>0.0002291770121563216</v>
+        <v>0.0002291770121563225</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -9098,7 +9098,7 @@
         <v>122</v>
       </c>
       <c r="F384">
-        <v>-8.750767106404517E-07</v>
+        <v>-8.750767106395843E-07</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9138,7 +9138,7 @@
         <v>124</v>
       </c>
       <c r="F386">
-        <v>0.0004463647638524065</v>
+        <v>0.0004463647638524074</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9178,7 +9178,7 @@
         <v>126</v>
       </c>
       <c r="F388">
-        <v>-2.748028723032186E-05</v>
+        <v>-2.748028723032099E-05</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9198,7 +9198,7 @@
         <v>127</v>
       </c>
       <c r="F389">
-        <v>2.300335349517471E-06</v>
+        <v>2.300335349518338E-06</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9218,7 +9218,7 @@
         <v>128</v>
       </c>
       <c r="F390">
-        <v>3.656754235948929E-05</v>
+        <v>3.656754235949015E-05</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9238,7 +9238,7 @@
         <v>129</v>
       </c>
       <c r="F391">
-        <v>2.052336205473227E-05</v>
+        <v>2.052336205473314E-05</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9258,7 +9258,7 @@
         <v>130</v>
       </c>
       <c r="F392">
-        <v>-0.0001287150470321019</v>
+        <v>-0.000128715047032101</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9278,7 +9278,7 @@
         <v>131</v>
       </c>
       <c r="F393">
-        <v>9.805427274650093E-05</v>
+        <v>9.80542727465018E-05</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9298,7 +9298,7 @@
         <v>132</v>
       </c>
       <c r="F394">
-        <v>-2.824357655794967E-06</v>
+        <v>-2.824357655794099E-06</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9318,7 +9318,7 @@
         <v>133</v>
       </c>
       <c r="F395">
-        <v>-4.932116131610431E-06</v>
+        <v>-4.932116131608696E-06</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9338,7 +9338,7 @@
         <v>134</v>
       </c>
       <c r="F396">
-        <v>0.0002335739793368112</v>
+        <v>0.0002335739793368121</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9358,7 +9358,7 @@
         <v>135</v>
       </c>
       <c r="F397">
-        <v>-5.131175688932472E-05</v>
+        <v>-5.131175688932385E-05</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9378,7 +9378,7 @@
         <v>136</v>
       </c>
       <c r="F398">
-        <v>2.171715395922653E-06</v>
+        <v>2.171715395923521E-06</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9398,7 +9398,7 @@
         <v>137</v>
       </c>
       <c r="F399">
-        <v>8.460246726533366E-07</v>
+        <v>8.460246726542039E-07</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -9418,7 +9418,7 @@
         <v>138</v>
       </c>
       <c r="F400">
-        <v>-9.856018230785732E-07</v>
+        <v>-9.856018230777058E-07</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9438,7 +9438,7 @@
         <v>139</v>
       </c>
       <c r="F401">
-        <v>-5.004845635257684E-05</v>
+        <v>-5.004845635257511E-05</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9458,7 +9458,7 @@
         <v>140</v>
       </c>
       <c r="F402">
-        <v>-7.465522707400703E-06</v>
+        <v>-7.465522707399835E-06</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9478,7 +9478,7 @@
         <v>141</v>
       </c>
       <c r="F403">
-        <v>-2.619796814606543E-05</v>
+        <v>-2.619796814606456E-05</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9498,7 +9498,7 @@
         <v>142</v>
       </c>
       <c r="F404">
-        <v>-9.366901965261569E-05</v>
+        <v>-9.366901965261482E-05</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9518,7 +9518,7 @@
         <v>143</v>
       </c>
       <c r="F405">
-        <v>4.584236944470913E-05</v>
+        <v>4.584236944471087E-05</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -9538,7 +9538,7 @@
         <v>144</v>
       </c>
       <c r="F406">
-        <v>6.394051223367406E-06</v>
+        <v>6.394051223368273E-06</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9578,7 +9578,7 @@
         <v>146</v>
       </c>
       <c r="F408">
-        <v>7.700425762896101E-05</v>
+        <v>7.700425762896188E-05</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9598,7 +9598,7 @@
         <v>147</v>
       </c>
       <c r="F409">
-        <v>-7.121156395283827E-05</v>
+        <v>-7.12115639528374E-05</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -9638,7 +9638,7 @@
         <v>149</v>
       </c>
       <c r="F411">
-        <v>-5.014764205892377E-06</v>
+        <v>-5.01476420589151E-06</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9658,7 +9658,7 @@
         <v>150</v>
       </c>
       <c r="F412">
-        <v>-8.23235268947748E-05</v>
+        <v>-8.232352689477394E-05</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9678,7 +9678,7 @@
         <v>151</v>
       </c>
       <c r="F413">
-        <v>-7.722685289573289E-07</v>
+        <v>-7.722685289555942E-07</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -9698,7 +9698,7 @@
         <v>152</v>
       </c>
       <c r="F414">
-        <v>-0.0002867040915051165</v>
+        <v>-0.0002867040915051156</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -9718,7 +9718,7 @@
         <v>153</v>
       </c>
       <c r="F415">
-        <v>9.906986592964073E-07</v>
+        <v>9.906986592972747E-07</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -9758,7 +9758,7 @@
         <v>155</v>
       </c>
       <c r="F417">
-        <v>4.462642733129522E-05</v>
+        <v>4.462642733129608E-05</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -9798,7 +9798,7 @@
         <v>157</v>
       </c>
       <c r="F419">
-        <v>0.0001412553727610181</v>
+        <v>0.000141255372761019</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12618,7 +12618,7 @@
         <v>19</v>
       </c>
       <c r="F560">
-        <v>6.178955991826139E-05</v>
+        <v>6.17895599182614E-05</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -12718,7 +12718,7 @@
         <v>24</v>
       </c>
       <c r="F565">
-        <v>4.475929033527195E-06</v>
+        <v>4.475929033527196E-06</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -12738,7 +12738,7 @@
         <v>25</v>
       </c>
       <c r="F566">
-        <v>-6.649070648254766E-06</v>
+        <v>-6.649070648254767E-06</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -12758,7 +12758,7 @@
         <v>26</v>
       </c>
       <c r="F567">
-        <v>-7.376174258476668E-06</v>
+        <v>-7.376174258476669E-06</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -12778,7 +12778,7 @@
         <v>27</v>
       </c>
       <c r="F568">
-        <v>-7.898259862174059E-05</v>
+        <v>-7.898259862174061E-05</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -12898,7 +12898,7 @@
         <v>33</v>
       </c>
       <c r="F574">
-        <v>-3.386688381370031E-05</v>
+        <v>-3.386688381370032E-05</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -12918,7 +12918,7 @@
         <v>34</v>
       </c>
       <c r="F575">
-        <v>-4.426683279611168E-05</v>
+        <v>-4.426683279611169E-05</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -12958,7 +12958,7 @@
         <v>36</v>
       </c>
       <c r="F577">
-        <v>-7.234934184758703E-07</v>
+        <v>-7.234934184758704E-07</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -12998,7 +12998,7 @@
         <v>38</v>
       </c>
       <c r="F579">
-        <v>9.434123371504322E-07</v>
+        <v>9.434123371504323E-07</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -13018,7 +13018,7 @@
         <v>39</v>
       </c>
       <c r="F580">
-        <v>5.556362804200911E-06</v>
+        <v>5.556362804200912E-06</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -13058,7 +13058,7 @@
         <v>41</v>
       </c>
       <c r="F582">
-        <v>2.752721064797508E-06</v>
+        <v>2.752721064797509E-06</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -13078,7 +13078,7 @@
         <v>42</v>
       </c>
       <c r="F583">
-        <v>-3.163997502702862E-06</v>
+        <v>-3.163997502702863E-06</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -13218,7 +13218,7 @@
         <v>49</v>
       </c>
       <c r="F590">
-        <v>-2.579738303011705E-05</v>
+        <v>-2.579738303011706E-05</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -13238,7 +13238,7 @@
         <v>50</v>
       </c>
       <c r="F591">
-        <v>-4.437350894805172E-05</v>
+        <v>-4.437350894805173E-05</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13258,7 +13258,7 @@
         <v>51</v>
       </c>
       <c r="F592">
-        <v>-2.746406893432292E-05</v>
+        <v>-2.746406893432293E-05</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -13278,7 +13278,7 @@
         <v>52</v>
       </c>
       <c r="F593">
-        <v>8.195829531136514E-06</v>
+        <v>8.195829531136515E-06</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -13298,7 +13298,7 @@
         <v>53</v>
       </c>
       <c r="F594">
-        <v>-0.0001084498244881123</v>
+        <v>-0.0001084498244881124</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -13338,7 +13338,7 @@
         <v>55</v>
       </c>
       <c r="F596">
-        <v>-0.0001552912755562172</v>
+        <v>-0.0001552912755562173</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -13358,7 +13358,7 @@
         <v>56</v>
       </c>
       <c r="F597">
-        <v>-9.730063825730106E-05</v>
+        <v>-9.730063825730108E-05</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -13438,7 +13438,7 @@
         <v>60</v>
       </c>
       <c r="F601">
-        <v>3.150190640647644E-05</v>
+        <v>3.150190640647645E-05</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13478,7 +13478,7 @@
         <v>62</v>
       </c>
       <c r="F603">
-        <v>9.005461121841672E-05</v>
+        <v>9.005461121841673E-05</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -13618,7 +13618,7 @@
         <v>69</v>
       </c>
       <c r="F610">
-        <v>8.837376225428411E-06</v>
+        <v>8.837376225428412E-06</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -13678,7 +13678,7 @@
         <v>72</v>
       </c>
       <c r="F613">
-        <v>2.602370271076014E-05</v>
+        <v>2.602370271076015E-05</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -13698,7 +13698,7 @@
         <v>73</v>
       </c>
       <c r="F614">
-        <v>-2.713090724891385E-05</v>
+        <v>-2.713090724891386E-05</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -13718,7 +13718,7 @@
         <v>74</v>
       </c>
       <c r="F615">
-        <v>4.106936580742997E-05</v>
+        <v>4.106936580742998E-05</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -13738,7 +13738,7 @@
         <v>75</v>
       </c>
       <c r="F616">
-        <v>4.978707392515224E-05</v>
+        <v>4.978707392515225E-05</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -13758,7 +13758,7 @@
         <v>76</v>
       </c>
       <c r="F617">
-        <v>-3.04903063798707E-06</v>
+        <v>-3.049030637987071E-06</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -13818,7 +13818,7 @@
         <v>79</v>
       </c>
       <c r="F620">
-        <v>8.197733367296601E-05</v>
+        <v>8.197733367296603E-05</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -13918,7 +13918,7 @@
         <v>84</v>
       </c>
       <c r="F625">
-        <v>3.305740920462342E-06</v>
+        <v>3.305740920462343E-06</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -14038,7 +14038,7 @@
         <v>90</v>
       </c>
       <c r="F631">
-        <v>-4.861142471244648E-06</v>
+        <v>-4.861142471244649E-06</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -14098,7 +14098,7 @@
         <v>93</v>
       </c>
       <c r="F634">
-        <v>-4.253399475661072E-05</v>
+        <v>-4.253399475661073E-05</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -14138,7 +14138,7 @@
         <v>95</v>
       </c>
       <c r="F636">
-        <v>-2.593589328203133E-05</v>
+        <v>-2.593589328203134E-05</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -14158,7 +14158,7 @@
         <v>96</v>
       </c>
       <c r="F637">
-        <v>5.501107778126423E-05</v>
+        <v>5.501107778126424E-05</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -14178,7 +14178,7 @@
         <v>97</v>
       </c>
       <c r="F638">
-        <v>2.454037501256745E-05</v>
+        <v>2.454037501256746E-05</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -14198,7 +14198,7 @@
         <v>98</v>
       </c>
       <c r="F639">
-        <v>-6.238154168837338E-05</v>
+        <v>-6.238154168837339E-05</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -14298,7 +14298,7 @@
         <v>103</v>
       </c>
       <c r="F644">
-        <v>2.682494845001231E-05</v>
+        <v>2.682494845001232E-05</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -14338,7 +14338,7 @@
         <v>105</v>
       </c>
       <c r="F646">
-        <v>-3.370978936693526E-06</v>
+        <v>-3.370978936693527E-06</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14378,7 +14378,7 @@
         <v>107</v>
       </c>
       <c r="F648">
-        <v>-3.406531225602769E-06</v>
+        <v>-3.40653122560277E-06</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14418,7 +14418,7 @@
         <v>109</v>
       </c>
       <c r="F650">
-        <v>-8.608320937417937E-07</v>
+        <v>-8.608320937417938E-07</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -14458,7 +14458,7 @@
         <v>111</v>
       </c>
       <c r="F652">
-        <v>3.103785405654015E-05</v>
+        <v>3.103785405654016E-05</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14558,7 +14558,7 @@
         <v>116</v>
       </c>
       <c r="F657">
-        <v>-7.676716935770153E-06</v>
+        <v>-7.676716935770154E-06</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -14578,7 +14578,7 @@
         <v>117</v>
       </c>
       <c r="F658">
-        <v>0.0002579919564722287</v>
+        <v>0.0002579919564722288</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -14678,7 +14678,7 @@
         <v>122</v>
       </c>
       <c r="F663">
-        <v>-2.110098599031442E-06</v>
+        <v>-2.110098599031443E-06</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -14698,7 +14698,7 @@
         <v>123</v>
       </c>
       <c r="F664">
-        <v>4.028116360716197E-06</v>
+        <v>4.028116360716198E-06</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -14758,7 +14758,7 @@
         <v>126</v>
       </c>
       <c r="F667">
-        <v>4.839639555935528E-05</v>
+        <v>4.839639555935529E-05</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -14778,7 +14778,7 @@
         <v>127</v>
       </c>
       <c r="F668">
-        <v>1.39137785934726E-06</v>
+        <v>1.391377859347261E-06</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -14798,7 +14798,7 @@
         <v>128</v>
       </c>
       <c r="F669">
-        <v>-9.227845654911161E-05</v>
+        <v>-9.227845654911163E-05</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -14858,7 +14858,7 @@
         <v>131</v>
       </c>
       <c r="F672">
-        <v>4.836333888009595E-05</v>
+        <v>4.836333888009596E-05</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -14878,7 +14878,7 @@
         <v>132</v>
       </c>
       <c r="F673">
-        <v>-4.907436623415322E-06</v>
+        <v>-4.907436623415323E-06</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -14918,7 +14918,7 @@
         <v>134</v>
       </c>
       <c r="F675">
-        <v>9.044564095081557E-05</v>
+        <v>9.044564095081558E-05</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14958,7 +14958,7 @@
         <v>136</v>
       </c>
       <c r="F677">
-        <v>3.471531069461819E-06</v>
+        <v>3.47153106946182E-06</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14978,7 +14978,7 @@
         <v>137</v>
       </c>
       <c r="F678">
-        <v>-1.374804215764647E-06</v>
+        <v>-1.374804215764648E-06</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14998,7 +14998,7 @@
         <v>138</v>
       </c>
       <c r="F679">
-        <v>-1.213672409800715E-06</v>
+        <v>-1.213672409800716E-06</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -15018,7 +15018,7 @@
         <v>139</v>
       </c>
       <c r="F680">
-        <v>-5.800859183158476E-05</v>
+        <v>-5.800859183158477E-05</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -15038,7 +15038,7 @@
         <v>140</v>
       </c>
       <c r="F681">
-        <v>-1.574679759676E-05</v>
+        <v>-1.574679759676001E-05</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -15078,7 +15078,7 @@
         <v>142</v>
       </c>
       <c r="F683">
-        <v>-5.370518193273236E-05</v>
+        <v>-5.370518193273237E-05</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -15118,7 +15118,7 @@
         <v>144</v>
       </c>
       <c r="F685">
-        <v>4.485939987241754E-06</v>
+        <v>4.485939987241755E-06</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -15138,7 +15138,7 @@
         <v>145</v>
       </c>
       <c r="F686">
-        <v>0.0001357833421776448</v>
+        <v>0.0001357833421776449</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -15298,7 +15298,7 @@
         <v>153</v>
       </c>
       <c r="F694">
-        <v>6.440402722446845E-07</v>
+        <v>6.440402722446846E-07</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -15318,7 +15318,7 @@
         <v>154</v>
       </c>
       <c r="F695">
-        <v>8.583782305017154E-06</v>
+        <v>8.583782305017155E-06</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -15378,7 +15378,7 @@
         <v>157</v>
       </c>
       <c r="F698">
-        <v>5.936033093341643E-05</v>
+        <v>5.936033093341644E-05</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -15398,7 +15398,7 @@
         <v>19</v>
       </c>
       <c r="F699">
-        <v>-9.232934791388904E-06</v>
+        <v>-9.232934791387169E-06</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15418,7 +15418,7 @@
         <v>20</v>
       </c>
       <c r="F700">
-        <v>-1.374051912487496E-06</v>
+        <v>-1.374051912486629E-06</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -15438,7 +15438,7 @@
         <v>21</v>
       </c>
       <c r="F701">
-        <v>4.754859402383502E-07</v>
+        <v>4.754859402392175E-07</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -15458,7 +15458,7 @@
         <v>22</v>
       </c>
       <c r="F702">
-        <v>-0.0002100001639246257</v>
+        <v>-0.0002100001639246249</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -15478,7 +15478,7 @@
         <v>23</v>
       </c>
       <c r="F703">
-        <v>9.081097729331071E-05</v>
+        <v>9.081097729331158E-05</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -15498,7 +15498,7 @@
         <v>24</v>
       </c>
       <c r="F704">
-        <v>-2.996498304772346E-07</v>
+        <v>-2.996498304763673E-07</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -15518,7 +15518,7 @@
         <v>25</v>
       </c>
       <c r="F705">
-        <v>-1.618681605692132E-06</v>
+        <v>-1.618681605691265E-06</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -15538,7 +15538,7 @@
         <v>26</v>
       </c>
       <c r="F706">
-        <v>-2.552034352901016E-06</v>
+        <v>-2.552034352900148E-06</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -15558,7 +15558,7 @@
         <v>27</v>
       </c>
       <c r="F707">
-        <v>-6.13248615101555E-05</v>
+        <v>-6.132486151015464E-05</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -15578,7 +15578,7 @@
         <v>28</v>
       </c>
       <c r="F708">
-        <v>-4.119434723311513E-07</v>
+        <v>-4.119434723302839E-07</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -15598,7 +15598,7 @@
         <v>29</v>
       </c>
       <c r="F709">
-        <v>-4.413130513735916E-05</v>
+        <v>-4.413130513735829E-05</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -15618,7 +15618,7 @@
         <v>30</v>
       </c>
       <c r="F710">
-        <v>0.0001103714606802567</v>
+        <v>0.0001103714606802576</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -15638,7 +15638,7 @@
         <v>31</v>
       </c>
       <c r="F711">
-        <v>-0.0002135811886294402</v>
+        <v>-0.0002135811886294393</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -15658,7 +15658,7 @@
         <v>32</v>
       </c>
       <c r="F712">
-        <v>8.663058908076234E-06</v>
+        <v>8.663058908077101E-06</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -15678,7 +15678,7 @@
         <v>33</v>
       </c>
       <c r="F713">
-        <v>-2.383653613040066E-05</v>
+        <v>-2.383653613039979E-05</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -15698,7 +15698,7 @@
         <v>34</v>
       </c>
       <c r="F714">
-        <v>-1.452651358644415E-05</v>
+        <v>-1.452651358644329E-05</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15718,7 +15718,7 @@
         <v>35</v>
       </c>
       <c r="F715">
-        <v>-4.827744439251345E-06</v>
+        <v>-4.827744439249611E-06</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -15738,7 +15738,7 @@
         <v>36</v>
       </c>
       <c r="F716">
-        <v>-2.826129876761299E-07</v>
+        <v>-2.826129876743952E-07</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -15758,7 +15758,7 @@
         <v>37</v>
       </c>
       <c r="F717">
-        <v>5.04014105853854E-06</v>
+        <v>5.040141058539407E-06</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -15778,7 +15778,7 @@
         <v>38</v>
       </c>
       <c r="F718">
-        <v>8.938674814166353E-07</v>
+        <v>8.938674814175027E-07</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -15798,7 +15798,7 @@
         <v>39</v>
       </c>
       <c r="F719">
-        <v>-5.494358472669936E-06</v>
+        <v>-5.494358472669068E-06</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -15818,7 +15818,7 @@
         <v>40</v>
       </c>
       <c r="F720">
-        <v>-9.959294186467384E-05</v>
+        <v>-9.959294186467297E-05</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -15838,7 +15838,7 @@
         <v>41</v>
       </c>
       <c r="F721">
-        <v>-1.62175221897487E-08</v>
+        <v>-1.621752218801398E-08</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -15858,7 +15858,7 @@
         <v>42</v>
       </c>
       <c r="F722">
-        <v>1.086119419770049E-06</v>
+        <v>1.086119419770916E-06</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -15878,7 +15878,7 @@
         <v>43</v>
       </c>
       <c r="F723">
-        <v>1.022699309369095E-05</v>
+        <v>1.022699309369181E-05</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -15898,7 +15898,7 @@
         <v>44</v>
       </c>
       <c r="F724">
-        <v>2.826222020286834E-05</v>
+        <v>2.826222020287008E-05</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -15918,7 +15918,7 @@
         <v>45</v>
       </c>
       <c r="F725">
-        <v>-0.000208732496460794</v>
+        <v>-0.0002087324964607932</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -15938,7 +15938,7 @@
         <v>46</v>
       </c>
       <c r="F726">
-        <v>-3.799584812998278E-05</v>
+        <v>-3.799584812998191E-05</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -15958,7 +15958,7 @@
         <v>47</v>
       </c>
       <c r="F727">
-        <v>9.026959500969822E-05</v>
+        <v>9.026959500969996E-05</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -15978,7 +15978,7 @@
         <v>48</v>
       </c>
       <c r="F728">
-        <v>-3.415916381898851E-06</v>
+        <v>-3.415916381896249E-06</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -15998,7 +15998,7 @@
         <v>49</v>
       </c>
       <c r="F729">
-        <v>-2.822299115452613E-05</v>
+        <v>-2.82229911545244E-05</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -16018,7 +16018,7 @@
         <v>50</v>
       </c>
       <c r="F730">
-        <v>-6.080367525941772E-05</v>
+        <v>-6.080367525941686E-05</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -16038,7 +16038,7 @@
         <v>51</v>
       </c>
       <c r="F731">
-        <v>-4.557376960632846E-05</v>
+        <v>-4.557376960632759E-05</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -16058,7 +16058,7 @@
         <v>52</v>
       </c>
       <c r="F732">
-        <v>-6.057054740669747E-06</v>
+        <v>-6.057054740668012E-06</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -16078,7 +16078,7 @@
         <v>53</v>
       </c>
       <c r="F733">
-        <v>-0.0002047827802500266</v>
+        <v>-0.0002047827802500258</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -16098,7 +16098,7 @@
         <v>54</v>
       </c>
       <c r="F734">
-        <v>2.844756542281189E-05</v>
+        <v>2.844756542281276E-05</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -16118,7 +16118,7 @@
         <v>55</v>
       </c>
       <c r="F735">
-        <v>-3.003947522894467E-05</v>
+        <v>-3.00394752289438E-05</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -16138,7 +16138,7 @@
         <v>56</v>
       </c>
       <c r="F736">
-        <v>6.994959532589072E-05</v>
+        <v>6.994959532589159E-05</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -16158,7 +16158,7 @@
         <v>57</v>
       </c>
       <c r="F737">
-        <v>-1.160336374742346E-06</v>
+        <v>-1.160336374741479E-06</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -16178,7 +16178,7 @@
         <v>58</v>
       </c>
       <c r="F738">
-        <v>5.146685174924753E-06</v>
+        <v>5.146685174926488E-06</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -16198,7 +16198,7 @@
         <v>59</v>
       </c>
       <c r="F739">
-        <v>9.476619826538635E-07</v>
+        <v>9.476619826547308E-07</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -16218,7 +16218,7 @@
         <v>60</v>
       </c>
       <c r="F740">
-        <v>-2.47277913917451E-05</v>
+        <v>-2.472779139174337E-05</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -16238,7 +16238,7 @@
         <v>61</v>
       </c>
       <c r="F741">
-        <v>-0.0001033993423588406</v>
+        <v>-0.0001033993423588397</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -16258,7 +16258,7 @@
         <v>62</v>
       </c>
       <c r="F742">
-        <v>0.0001366574661793608</v>
+        <v>0.0001366574661793617</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -16278,7 +16278,7 @@
         <v>63</v>
       </c>
       <c r="F743">
-        <v>0.0004225272690743685</v>
+        <v>0.0004225272690743694</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -16298,7 +16298,7 @@
         <v>64</v>
       </c>
       <c r="F744">
-        <v>-0.0001452157944480566</v>
+        <v>-0.0001452157944480557</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -16318,7 +16318,7 @@
         <v>65</v>
       </c>
       <c r="F745">
-        <v>1.137153563544706E-06</v>
+        <v>1.137153563546441E-06</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -16338,7 +16338,7 @@
         <v>66</v>
       </c>
       <c r="F746">
-        <v>8.339101319794397E-05</v>
+        <v>8.339101319794484E-05</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -16358,7 +16358,7 @@
         <v>67</v>
       </c>
       <c r="F747">
-        <v>7.294229362004006E-05</v>
+        <v>7.294229362004093E-05</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -16378,7 +16378,7 @@
         <v>68</v>
       </c>
       <c r="F748">
-        <v>-1.8258357534621E-05</v>
+        <v>-1.825835753462013E-05</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -16398,7 +16398,7 @@
         <v>69</v>
       </c>
       <c r="F749">
-        <v>5.539468774093045E-07</v>
+        <v>5.539468774101719E-07</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -16418,7 +16418,7 @@
         <v>70</v>
       </c>
       <c r="F750">
-        <v>-5.727912719758789E-06</v>
+        <v>-5.727912719757922E-06</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -16438,7 +16438,7 @@
         <v>71</v>
       </c>
       <c r="F751">
-        <v>-0.0004505577242892951</v>
+        <v>-0.0004505577242892942</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -16458,7 +16458,7 @@
         <v>72</v>
       </c>
       <c r="F752">
-        <v>4.134677446350141E-07</v>
+        <v>4.134677446358814E-07</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -16478,7 +16478,7 @@
         <v>73</v>
       </c>
       <c r="F753">
-        <v>-5.130723495315286E-05</v>
+        <v>-5.130723495315112E-05</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -16498,7 +16498,7 @@
         <v>74</v>
       </c>
       <c r="F754">
-        <v>1.37256713454801E-05</v>
+        <v>1.372567134548097E-05</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -16518,7 +16518,7 @@
         <v>75</v>
       </c>
       <c r="F755">
-        <v>0.0001314527986569624</v>
+        <v>0.0001314527986569633</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -16538,7 +16538,7 @@
         <v>76</v>
       </c>
       <c r="F756">
-        <v>-3.988465735215926E-06</v>
+        <v>-3.988465735215059E-06</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -16558,7 +16558,7 @@
         <v>77</v>
       </c>
       <c r="F757">
-        <v>6.699693224168635E-05</v>
+        <v>6.699693224168721E-05</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -16598,7 +16598,7 @@
         <v>79</v>
       </c>
       <c r="F759">
-        <v>7.762066819006451E-05</v>
+        <v>7.762066819006538E-05</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -16618,7 +16618,7 @@
         <v>80</v>
       </c>
       <c r="F760">
-        <v>3.71730993845281E-06</v>
+        <v>3.717309938453678E-06</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -16638,7 +16638,7 @@
         <v>81</v>
       </c>
       <c r="F761">
-        <v>7.170887399987613E-07</v>
+        <v>7.170887399996287E-07</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -16658,7 +16658,7 @@
         <v>82</v>
       </c>
       <c r="F762">
-        <v>-3.081906945270885E-07</v>
+        <v>-3.081906945262211E-07</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -16678,7 +16678,7 @@
         <v>83</v>
       </c>
       <c r="F763">
-        <v>-5.72006990622086E-05</v>
+        <v>-5.720069906220773E-05</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -16698,7 +16698,7 @@
         <v>84</v>
       </c>
       <c r="F764">
-        <v>6.441563026838952E-06</v>
+        <v>6.441563026839819E-06</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -16718,7 +16718,7 @@
         <v>85</v>
       </c>
       <c r="F765">
-        <v>1.992631563452717E-06</v>
+        <v>1.992631563453584E-06</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -16738,7 +16738,7 @@
         <v>86</v>
       </c>
       <c r="F766">
-        <v>-0.0002799950840416243</v>
+        <v>-0.0002799950840416234</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -16758,7 +16758,7 @@
         <v>87</v>
       </c>
       <c r="F767">
-        <v>3.130588194192631E-06</v>
+        <v>3.130588194193498E-06</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -16778,7 +16778,7 @@
         <v>88</v>
       </c>
       <c r="F768">
-        <v>-3.943778713669244E-07</v>
+        <v>-3.94377871366057E-07</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -16798,7 +16798,7 @@
         <v>89</v>
       </c>
       <c r="F769">
-        <v>0.0002019131440819683</v>
+        <v>0.0002019131440819692</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -16818,7 +16818,7 @@
         <v>90</v>
       </c>
       <c r="F770">
-        <v>-1.094169975724563E-06</v>
+        <v>-1.094169975722828E-06</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -16838,7 +16838,7 @@
         <v>91</v>
       </c>
       <c r="F771">
-        <v>-0.0001987764692205525</v>
+        <v>-0.0001987764692205516</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -16858,7 +16858,7 @@
         <v>92</v>
       </c>
       <c r="F772">
-        <v>-3.518919786788671E-05</v>
+        <v>-3.518919786788584E-05</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -16878,7 +16878,7 @@
         <v>93</v>
       </c>
       <c r="F773">
-        <v>-4.684683993054928E-05</v>
+        <v>-4.684683993054842E-05</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16898,7 +16898,7 @@
         <v>94</v>
       </c>
       <c r="F774">
-        <v>0.0007700735047498804</v>
+        <v>0.0007700735047498812</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16918,7 +16918,7 @@
         <v>95</v>
       </c>
       <c r="F775">
-        <v>-3.18864878962339E-05</v>
+        <v>-3.188648789623216E-05</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16938,7 +16938,7 @@
         <v>96</v>
       </c>
       <c r="F776">
-        <v>7.194172151338187E-05</v>
+        <v>7.194172151338274E-05</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16958,7 +16958,7 @@
         <v>97</v>
       </c>
       <c r="F777">
-        <v>1.079723955096923E-05</v>
+        <v>1.07972395509701E-05</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -16978,7 +16978,7 @@
         <v>98</v>
       </c>
       <c r="F778">
-        <v>7.492063520513764E-05</v>
+        <v>7.492063520513851E-05</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -16998,7 +16998,7 @@
         <v>99</v>
       </c>
       <c r="F779">
-        <v>5.129819698169655E-05</v>
+        <v>5.129819698169742E-05</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -17038,7 +17038,7 @@
         <v>101</v>
       </c>
       <c r="F781">
-        <v>-4.360247891306568E-05</v>
+        <v>-4.360247891306481E-05</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -17058,7 +17058,7 @@
         <v>102</v>
       </c>
       <c r="F782">
-        <v>4.062313794619271E-05</v>
+        <v>4.062313794619358E-05</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -17078,7 +17078,7 @@
         <v>103</v>
       </c>
       <c r="F783">
-        <v>7.572527218614299E-05</v>
+        <v>7.572527218614386E-05</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -17098,7 +17098,7 @@
         <v>104</v>
       </c>
       <c r="F784">
-        <v>5.140750959718113E-05</v>
+        <v>5.1407509597182E-05</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -17138,7 +17138,7 @@
         <v>106</v>
       </c>
       <c r="F786">
-        <v>1.939373282607362E-06</v>
+        <v>1.93937328260823E-06</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -17158,7 +17158,7 @@
         <v>107</v>
       </c>
       <c r="F787">
-        <v>3.380403657410325E-06</v>
+        <v>3.380403657412059E-06</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -17178,7 +17178,7 @@
         <v>108</v>
       </c>
       <c r="F788">
-        <v>-3.088904336145948E-06</v>
+        <v>-3.088904336144213E-06</v>
       </c>
     </row>
     <row r="789" spans="1:6">
@@ -17198,7 +17198,7 @@
         <v>109</v>
       </c>
       <c r="F789">
-        <v>1.136556234095781E-06</v>
+        <v>1.136556234096649E-06</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -17218,7 +17218,7 @@
         <v>110</v>
       </c>
       <c r="F790">
-        <v>-1.394200600584802E-07</v>
+        <v>-1.394200600576129E-07</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -17238,7 +17238,7 @@
         <v>111</v>
       </c>
       <c r="F791">
-        <v>9.884494072489453E-06</v>
+        <v>9.88449407249032E-06</v>
       </c>
     </row>
     <row r="792" spans="1:6">
@@ -17258,7 +17258,7 @@
         <v>112</v>
       </c>
       <c r="F792">
-        <v>2.211545694202725E-06</v>
+        <v>2.211545694203593E-06</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -17278,7 +17278,7 @@
         <v>113</v>
       </c>
       <c r="F793">
-        <v>0.0004718799547638658</v>
+        <v>0.0004718799547638666</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -17298,7 +17298,7 @@
         <v>114</v>
       </c>
       <c r="F794">
-        <v>3.301747632994401E-06</v>
+        <v>3.301747632995268E-06</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -17318,7 +17318,7 @@
         <v>115</v>
       </c>
       <c r="F795">
-        <v>-3.244133650864151E-08</v>
+        <v>-3.244133650777414E-08</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -17338,7 +17338,7 @@
         <v>116</v>
       </c>
       <c r="F796">
-        <v>-4.460852087626553E-06</v>
+        <v>-4.460852087625686E-06</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -17358,7 +17358,7 @@
         <v>117</v>
       </c>
       <c r="F797">
-        <v>0.0005426144694203059</v>
+        <v>0.0005426144694203067</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -17378,7 +17378,7 @@
         <v>118</v>
       </c>
       <c r="F798">
-        <v>0.0001708384570282967</v>
+        <v>0.0001708384570282976</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -17398,7 +17398,7 @@
         <v>119</v>
       </c>
       <c r="F799">
-        <v>0.0006935414732317001</v>
+        <v>0.000693541473231701</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -17438,7 +17438,7 @@
         <v>121</v>
       </c>
       <c r="F801">
-        <v>0.0003241293658135221</v>
+        <v>0.000324129365813523</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -17458,7 +17458,7 @@
         <v>122</v>
       </c>
       <c r="F802">
-        <v>-1.237637477639539E-06</v>
+        <v>-1.237637477638671E-06</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -17498,7 +17498,7 @@
         <v>124</v>
       </c>
       <c r="F804">
-        <v>0.0006313020946895707</v>
+        <v>0.0006313020946895715</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -17538,7 +17538,7 @@
         <v>126</v>
       </c>
       <c r="F806">
-        <v>-3.886588793758187E-05</v>
+        <v>-3.886588793758101E-05</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -17558,7 +17558,7 @@
         <v>127</v>
       </c>
       <c r="F807">
-        <v>3.253407621393173E-06</v>
+        <v>3.25340762139404E-06</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17578,7 +17578,7 @@
         <v>128</v>
       </c>
       <c r="F808">
-        <v>5.171816406374877E-05</v>
+        <v>5.171816406374964E-05</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -17598,7 +17598,7 @@
         <v>129</v>
       </c>
       <c r="F809">
-        <v>2.902657759855983E-05</v>
+        <v>2.90265775985607E-05</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -17618,7 +17618,7 @@
         <v>130</v>
       </c>
       <c r="F810">
-        <v>-0.0001820441159112209</v>
+        <v>-0.00018204411591122</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -17638,7 +17638,7 @@
         <v>131</v>
       </c>
       <c r="F811">
-        <v>0.000138680005213397</v>
+        <v>0.0001386800052133978</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -17658,7 +17658,7 @@
         <v>132</v>
       </c>
       <c r="F812">
-        <v>-3.994542241343192E-06</v>
+        <v>-3.994542241342325E-06</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -17678,7 +17678,7 @@
         <v>133</v>
       </c>
       <c r="F813">
-        <v>-6.975584762257923E-06</v>
+        <v>-6.975584762255321E-06</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -17698,7 +17698,7 @@
         <v>134</v>
       </c>
       <c r="F814">
-        <v>0.0003303480793324107</v>
+        <v>0.0003303480793324116</v>
       </c>
     </row>
     <row r="815" spans="1:6">
@@ -17718,7 +17718,7 @@
         <v>135</v>
       </c>
       <c r="F815">
-        <v>-7.257118444309665E-05</v>
+        <v>-7.257118444309579E-05</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -17738,7 +17738,7 @@
         <v>136</v>
       </c>
       <c r="F816">
-        <v>3.071497997922737E-06</v>
+        <v>3.071497997923604E-06</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -17758,7 +17758,7 @@
         <v>137</v>
       </c>
       <c r="F817">
-        <v>1.196548632995988E-06</v>
+        <v>1.196548632996855E-06</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -17778,7 +17778,7 @@
         <v>138</v>
       </c>
       <c r="F818">
-        <v>-1.393955226369065E-06</v>
+        <v>-1.393955226368197E-06</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -17798,7 +17798,7 @@
         <v>139</v>
       </c>
       <c r="F819">
-        <v>-7.078447469435235E-05</v>
+        <v>-7.078447469435062E-05</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -17818,7 +17818,7 @@
         <v>140</v>
       </c>
       <c r="F820">
-        <v>-1.055862940985402E-05</v>
+        <v>-1.055862940985315E-05</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -17838,7 +17838,7 @@
         <v>141</v>
       </c>
       <c r="F821">
-        <v>-3.705227989880128E-05</v>
+        <v>-3.705227989880041E-05</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -17878,7 +17878,7 @@
         <v>143</v>
       </c>
       <c r="F823">
-        <v>6.483572674107277E-05</v>
+        <v>6.48357267410745E-05</v>
       </c>
     </row>
     <row r="824" spans="1:6">
@@ -17898,7 +17898,7 @@
         <v>144</v>
       </c>
       <c r="F824">
-        <v>9.04322710427747E-06</v>
+        <v>9.043227104278337E-06</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -17938,7 +17938,7 @@
         <v>146</v>
       </c>
       <c r="F826">
-        <v>0.0001089085722663649</v>
+        <v>0.0001089085722663658</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -17958,7 +17958,7 @@
         <v>147</v>
       </c>
       <c r="F827">
-        <v>-0.0001007158564702753</v>
+        <v>-0.0001007158564702744</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -17978,7 +17978,7 @@
         <v>148</v>
       </c>
       <c r="F828">
-        <v>5.143951145870386E-06</v>
+        <v>5.143951145869519E-06</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -17998,7 +17998,7 @@
         <v>149</v>
       </c>
       <c r="F829">
-        <v>-7.092475490741608E-06</v>
+        <v>-7.092475490740741E-06</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -18018,7 +18018,7 @@
         <v>150</v>
       </c>
       <c r="F830">
-        <v>-0.000116431714999996</v>
+        <v>-0.0001164317149999951</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -18038,7 +18038,7 @@
         <v>151</v>
       </c>
       <c r="F831">
-        <v>-1.092233929456815E-06</v>
+        <v>-1.092233929454213E-06</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -18058,7 +18058,7 @@
         <v>152</v>
       </c>
       <c r="F832">
-        <v>-0.0004054909979030021</v>
+        <v>-0.0004054909979030012</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -18078,7 +18078,7 @@
         <v>153</v>
       </c>
       <c r="F833">
-        <v>1.401163777853091E-06</v>
+        <v>1.401163777853959E-06</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -18118,7 +18118,7 @@
         <v>155</v>
       </c>
       <c r="F835">
-        <v>6.311599690264624E-05</v>
+        <v>6.311599690264711E-05</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -18158,7 +18158,7 @@
         <v>157</v>
       </c>
       <c r="F837">
-        <v>0.000199780134839839</v>
+        <v>0.0001997801348398399</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -18178,7 +18178,7 @@
         <v>5</v>
       </c>
       <c r="F838">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -20998,7 +20998,7 @@
         <v>159</v>
       </c>
       <c r="F979">
-        <v>-8.30713847725806E-05</v>
+        <v>-8.307138477258061E-05</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -21078,7 +21078,7 @@
         <v>163</v>
       </c>
       <c r="F983">
-        <v>-3.430993607007541E-05</v>
+        <v>-3.430993607007542E-05</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -21098,7 +21098,7 @@
         <v>164</v>
       </c>
       <c r="F984">
-        <v>-8.581321100498919E-07</v>
+        <v>-8.58132110049892E-07</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -21158,7 +21158,7 @@
         <v>167</v>
       </c>
       <c r="F987">
-        <v>-2.334077532312192E-06</v>
+        <v>-2.334077532312193E-06</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -21178,7 +21178,7 @@
         <v>168</v>
       </c>
       <c r="F988">
-        <v>-1.833808089267915E-05</v>
+        <v>-1.833808089267916E-05</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -21198,7 +21198,7 @@
         <v>169</v>
       </c>
       <c r="F989">
-        <v>-6.879681975356856E-05</v>
+        <v>-6.879681975356857E-05</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -21218,7 +21218,7 @@
         <v>170</v>
       </c>
       <c r="F990">
-        <v>-4.410712772649995E-05</v>
+        <v>-4.410712772649996E-05</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -21238,7 +21238,7 @@
         <v>171</v>
       </c>
       <c r="F991">
-        <v>1.274699010442003E-06</v>
+        <v>1.274699010442004E-06</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -21258,7 +21258,7 @@
         <v>172</v>
       </c>
       <c r="F992">
-        <v>-5.584497387036011E-05</v>
+        <v>-5.584497387036012E-05</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -21298,7 +21298,7 @@
         <v>174</v>
       </c>
       <c r="F994">
-        <v>-2.237117554343036E-06</v>
+        <v>-2.237117554343037E-06</v>
       </c>
     </row>
     <row r="995" spans="1:6">
@@ -21318,7 +21318,7 @@
         <v>175</v>
       </c>
       <c r="F995">
-        <v>-4.506900273818823E-05</v>
+        <v>-4.506900273818825E-05</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -21338,7 +21338,7 @@
         <v>176</v>
       </c>
       <c r="F996">
-        <v>6.499990342358695E-05</v>
+        <v>6.499990342358696E-05</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -21358,7 +21358,7 @@
         <v>177</v>
       </c>
       <c r="F997">
-        <v>-4.10152153970728E-05</v>
+        <v>-4.101521539707281E-05</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -21378,7 +21378,7 @@
         <v>178</v>
       </c>
       <c r="F998">
-        <v>1.324707219309279E-06</v>
+        <v>1.32470721930928E-06</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -21398,7 +21398,7 @@
         <v>179</v>
       </c>
       <c r="F999">
-        <v>9.600617513556347E-05</v>
+        <v>9.60061751355635E-05</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -21418,7 +21418,7 @@
         <v>180</v>
       </c>
       <c r="F1000">
-        <v>-5.21535459602449E-06</v>
+        <v>-5.215354596024492E-06</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -21438,7 +21438,7 @@
         <v>181</v>
       </c>
       <c r="F1001">
-        <v>-7.66798981100719E-05</v>
+        <v>-7.667989811007191E-05</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -21458,7 +21458,7 @@
         <v>182</v>
       </c>
       <c r="F1002">
-        <v>-9.593731354083129E-05</v>
+        <v>-9.593731354083131E-05</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -21498,7 +21498,7 @@
         <v>184</v>
       </c>
       <c r="F1004">
-        <v>4.788914365695607E-05</v>
+        <v>4.788914365695608E-05</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
@@ -21518,7 +21518,7 @@
         <v>185</v>
       </c>
       <c r="F1005">
-        <v>4.294358549198268E-06</v>
+        <v>4.294358549198269E-06</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -21538,7 +21538,7 @@
         <v>186</v>
       </c>
       <c r="F1006">
-        <v>-3.129904768848662E-05</v>
+        <v>-3.129904768848663E-05</v>
       </c>
     </row>
     <row r="1007" spans="1:6">
@@ -21578,7 +21578,7 @@
         <v>188</v>
       </c>
       <c r="F1008">
-        <v>6.394996548259881E-05</v>
+        <v>6.394996548259882E-05</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -21598,7 +21598,7 @@
         <v>189</v>
       </c>
       <c r="F1009">
-        <v>-5.115490216226073E-07</v>
+        <v>-5.115490216226074E-07</v>
       </c>
     </row>
     <row r="1010" spans="1:6">
@@ -21618,7 +21618,7 @@
         <v>190</v>
       </c>
       <c r="F1010">
-        <v>9.837794850378268E-07</v>
+        <v>9.83779485037827E-07</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -21658,7 +21658,7 @@
         <v>192</v>
       </c>
       <c r="F1012">
-        <v>0.0001226139457210131</v>
+        <v>0.0001226139457210132</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
@@ -21718,7 +21718,7 @@
         <v>195</v>
       </c>
       <c r="F1015">
-        <v>6.670436050028788E-07</v>
+        <v>6.670436050028789E-07</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -21738,7 +21738,7 @@
         <v>196</v>
       </c>
       <c r="F1016">
-        <v>-6.086549014676928E-07</v>
+        <v>-6.08654901467693E-07</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -21758,7 +21758,7 @@
         <v>197</v>
       </c>
       <c r="F1017">
-        <v>1.94632284349394E-06</v>
+        <v>1.946322843493941E-06</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -21838,7 +21838,7 @@
         <v>201</v>
       </c>
       <c r="F1021">
-        <v>-9.970564418144637E-05</v>
+        <v>-9.970564418144638E-05</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -21878,7 +21878,7 @@
         <v>203</v>
       </c>
       <c r="F1023">
-        <v>-5.426586014077249E-05</v>
+        <v>-5.42658601407725E-05</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21898,7 +21898,7 @@
         <v>204</v>
       </c>
       <c r="F1024">
-        <v>-5.870548786991552E-05</v>
+        <v>-5.870548786991553E-05</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21918,7 +21918,7 @@
         <v>205</v>
       </c>
       <c r="F1025">
-        <v>-3.797247158326379E-05</v>
+        <v>-3.79724715832638E-05</v>
       </c>
     </row>
     <row r="1026" spans="1:6">
@@ -21958,7 +21958,7 @@
         <v>207</v>
       </c>
       <c r="F1027">
-        <v>-3.469823414111383E-06</v>
+        <v>-3.469823414111384E-06</v>
       </c>
     </row>
     <row r="1028" spans="1:6">
@@ -21998,7 +21998,7 @@
         <v>209</v>
       </c>
       <c r="F1029">
-        <v>-5.536157368402501E-06</v>
+        <v>-5.536157368402502E-06</v>
       </c>
     </row>
     <row r="1030" spans="1:6">
@@ -22038,7 +22038,7 @@
         <v>211</v>
       </c>
       <c r="F1031">
-        <v>-1.941858382447372E-05</v>
+        <v>-1.941858382447373E-05</v>
       </c>
     </row>
     <row r="1032" spans="1:6">
@@ -22078,7 +22078,7 @@
         <v>213</v>
       </c>
       <c r="F1033">
-        <v>1.669776887144755E-06</v>
+        <v>1.669776887144756E-06</v>
       </c>
     </row>
     <row r="1034" spans="1:6">
@@ -22118,7 +22118,7 @@
         <v>215</v>
       </c>
       <c r="F1035">
-        <v>-2.147137003962182E-06</v>
+        <v>-2.147137003962183E-06</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -22138,7 +22138,7 @@
         <v>216</v>
       </c>
       <c r="F1036">
-        <v>1.902082872109406E-05</v>
+        <v>1.902082872109407E-05</v>
       </c>
     </row>
     <row r="1037" spans="1:6">
@@ -22198,7 +22198,7 @@
         <v>219</v>
       </c>
       <c r="F1039">
-        <v>1.076508325854156E-05</v>
+        <v>1.076508325854157E-05</v>
       </c>
     </row>
     <row r="1040" spans="1:6">
@@ -22218,7 +22218,7 @@
         <v>220</v>
       </c>
       <c r="F1040">
-        <v>-3.922983732198804E-05</v>
+        <v>-3.922983732198805E-05</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -22258,7 +22258,7 @@
         <v>222</v>
       </c>
       <c r="F1042">
-        <v>-0.0001977557500730229</v>
+        <v>-0.000197755750073023</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -22278,7 +22278,7 @@
         <v>223</v>
       </c>
       <c r="F1043">
-        <v>-7.460516525293226E-06</v>
+        <v>-7.460516525293227E-06</v>
       </c>
     </row>
     <row r="1044" spans="1:6">
@@ -22298,7 +22298,7 @@
         <v>224</v>
       </c>
       <c r="F1044">
-        <v>3.299061087089539E-05</v>
+        <v>3.29906108708954E-05</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -22318,7 +22318,7 @@
         <v>225</v>
       </c>
       <c r="F1045">
-        <v>5.79624137065103E-05</v>
+        <v>5.796241370651032E-05</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -22418,7 +22418,7 @@
         <v>230</v>
       </c>
       <c r="F1050">
-        <v>5.755836709606951E-05</v>
+        <v>5.755836709606952E-05</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -22438,7 +22438,7 @@
         <v>231</v>
       </c>
       <c r="F1051">
-        <v>6.367348628883453E-05</v>
+        <v>6.367348628883454E-05</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -22458,7 +22458,7 @@
         <v>232</v>
       </c>
       <c r="F1052">
-        <v>-9.720610216172917E-07</v>
+        <v>-9.720610216172919E-07</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -22498,7 +22498,7 @@
         <v>234</v>
       </c>
       <c r="F1054">
-        <v>7.551348979887559E-05</v>
+        <v>7.551348979887561E-05</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -22518,7 +22518,7 @@
         <v>235</v>
       </c>
       <c r="F1055">
-        <v>-9.152506491231255E-07</v>
+        <v>-9.152506491231257E-07</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22578,7 +22578,7 @@
         <v>238</v>
       </c>
       <c r="F1058">
-        <v>-6.524586535145749E-05</v>
+        <v>-6.52458653514575E-05</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -22598,7 +22598,7 @@
         <v>239</v>
       </c>
       <c r="F1059">
-        <v>7.309163782549755E-05</v>
+        <v>7.309163782549756E-05</v>
       </c>
     </row>
     <row r="1060" spans="1:6">
@@ -22618,7 +22618,7 @@
         <v>240</v>
       </c>
       <c r="F1060">
-        <v>6.069198872884317E-06</v>
+        <v>6.069198872884319E-06</v>
       </c>
     </row>
     <row r="1061" spans="1:6">
@@ -22638,7 +22638,7 @@
         <v>241</v>
       </c>
       <c r="F1061">
-        <v>-7.201261641134968E-05</v>
+        <v>-7.20126164113497E-05</v>
       </c>
     </row>
     <row r="1062" spans="1:6">
@@ -22658,7 +22658,7 @@
         <v>242</v>
       </c>
       <c r="F1062">
-        <v>3.889581065808881E-05</v>
+        <v>3.889581065808882E-05</v>
       </c>
     </row>
     <row r="1063" spans="1:6">
@@ -22678,7 +22678,7 @@
         <v>243</v>
       </c>
       <c r="F1063">
-        <v>-5.547067556156631E-05</v>
+        <v>-5.547067556156632E-05</v>
       </c>
     </row>
     <row r="1064" spans="1:6">
@@ -22698,7 +22698,7 @@
         <v>244</v>
       </c>
       <c r="F1064">
-        <v>1.295020960048772E-06</v>
+        <v>1.295020960048773E-06</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -22758,7 +22758,7 @@
         <v>247</v>
       </c>
       <c r="F1067">
-        <v>-4.701252973357574E-06</v>
+        <v>-4.701252973357575E-06</v>
       </c>
     </row>
     <row r="1068" spans="1:6">
@@ -22778,7 +22778,7 @@
         <v>248</v>
       </c>
       <c r="F1068">
-        <v>1.735137391349945E-05</v>
+        <v>1.735137391349946E-05</v>
       </c>
     </row>
     <row r="1069" spans="1:6">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="F1069">
-        <v>8.743424629788144E-05</v>
+        <v>8.743424629788147E-05</v>
       </c>
     </row>
     <row r="1070" spans="1:6">
@@ -22818,7 +22818,7 @@
         <v>250</v>
       </c>
       <c r="F1070">
-        <v>-2.155829755915961E-06</v>
+        <v>-2.155829755915962E-06</v>
       </c>
     </row>
     <row r="1071" spans="1:6">
@@ -22838,7 +22838,7 @@
         <v>251</v>
       </c>
       <c r="F1071">
-        <v>8.116633170644085E-05</v>
+        <v>8.116633170644087E-05</v>
       </c>
     </row>
     <row r="1072" spans="1:6">
@@ -22898,7 +22898,7 @@
         <v>254</v>
       </c>
       <c r="F1074">
-        <v>-1.684795639885742E-05</v>
+        <v>-1.684795639885743E-05</v>
       </c>
     </row>
     <row r="1075" spans="1:6">
@@ -22938,7 +22938,7 @@
         <v>256</v>
       </c>
       <c r="F1076">
-        <v>2.608011031508824E-05</v>
+        <v>2.608011031508825E-05</v>
       </c>
     </row>
     <row r="1077" spans="1:6">
@@ -22958,7 +22958,7 @@
         <v>257</v>
       </c>
       <c r="F1077">
-        <v>-2.383464635530064E-06</v>
+        <v>-2.383464635530065E-06</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -22978,7 +22978,7 @@
         <v>258</v>
       </c>
       <c r="F1078">
-        <v>-4.862827710614222E-06</v>
+        <v>-4.862827710614223E-06</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22998,7 +22998,7 @@
         <v>259</v>
       </c>
       <c r="F1079">
-        <v>-8.645354297636093E-05</v>
+        <v>-8.645354297636094E-05</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -23038,7 +23038,7 @@
         <v>261</v>
       </c>
       <c r="F1081">
-        <v>2.903826539529529E-05</v>
+        <v>2.90382653952953E-05</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -23058,7 +23058,7 @@
         <v>262</v>
       </c>
       <c r="F1082">
-        <v>4.368856456118858E-05</v>
+        <v>4.368856456118859E-05</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -23078,7 +23078,7 @@
         <v>263</v>
       </c>
       <c r="F1083">
-        <v>3.421887216417654E-05</v>
+        <v>3.421887216417655E-05</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -23138,7 +23138,7 @@
         <v>266</v>
       </c>
       <c r="F1086">
-        <v>4.197096813424034E-05</v>
+        <v>4.197096813424035E-05</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -23158,7 +23158,7 @@
         <v>267</v>
       </c>
       <c r="F1087">
-        <v>0.0001127102491040819</v>
+        <v>0.000112710249104082</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -23198,7 +23198,7 @@
         <v>269</v>
       </c>
       <c r="F1089">
-        <v>-0.0002242553467809499</v>
+        <v>-0.00022425534678095</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -23238,7 +23238,7 @@
         <v>271</v>
       </c>
       <c r="F1091">
-        <v>-2.592864712326112E-05</v>
+        <v>-2.592864712326113E-05</v>
       </c>
     </row>
     <row r="1092" spans="1:6">
@@ -23258,7 +23258,7 @@
         <v>272</v>
       </c>
       <c r="F1092">
-        <v>-7.984207402035632E-05</v>
+        <v>-7.984207402035633E-05</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -23318,7 +23318,7 @@
         <v>275</v>
       </c>
       <c r="F1095">
-        <v>0.000182414282631477</v>
+        <v>0.0001824142826314771</v>
       </c>
     </row>
     <row r="1096" spans="1:6">
@@ -23338,7 +23338,7 @@
         <v>276</v>
       </c>
       <c r="F1096">
-        <v>2.848096376118053E-06</v>
+        <v>2.848096376118054E-06</v>
       </c>
     </row>
     <row r="1097" spans="1:6">
@@ -23378,7 +23378,7 @@
         <v>278</v>
       </c>
       <c r="F1098">
-        <v>9.980670083251319E-07</v>
+        <v>9.980670083251321E-07</v>
       </c>
     </row>
     <row r="1099" spans="1:6">
@@ -23418,7 +23418,7 @@
         <v>280</v>
       </c>
       <c r="F1100">
-        <v>-9.671167206628754E-07</v>
+        <v>-9.671167206628756E-07</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -23458,7 +23458,7 @@
         <v>282</v>
       </c>
       <c r="F1102">
-        <v>8.783936535528877E-05</v>
+        <v>8.78393653552888E-05</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
@@ -23498,7 +23498,7 @@
         <v>284</v>
       </c>
       <c r="F1104">
-        <v>-3.007383736714807E-05</v>
+        <v>-3.007383736714808E-05</v>
       </c>
     </row>
     <row r="1105" spans="1:6">
@@ -23538,7 +23538,7 @@
         <v>286</v>
       </c>
       <c r="F1106">
-        <v>3.171802469696945E-06</v>
+        <v>3.171802469696946E-06</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -23598,7 +23598,7 @@
         <v>289</v>
       </c>
       <c r="F1109">
-        <v>-2.129298795168559E-05</v>
+        <v>-2.12929879516856E-05</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -23618,7 +23618,7 @@
         <v>290</v>
       </c>
       <c r="F1110">
-        <v>-2.408602028826993E-06</v>
+        <v>-2.408602028826994E-06</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -23658,7 +23658,7 @@
         <v>292</v>
       </c>
       <c r="F1112">
-        <v>-3.437090941852485E-06</v>
+        <v>-3.437090941852486E-06</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -23698,7 +23698,7 @@
         <v>294</v>
       </c>
       <c r="F1114">
-        <v>-3.666151978214581E-05</v>
+        <v>-3.666151978214582E-05</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -23758,7 +23758,7 @@
         <v>158</v>
       </c>
       <c r="F1117">
-        <v>8.040291425061991E-07</v>
+        <v>8.040291425079338E-07</v>
       </c>
     </row>
     <row r="1118" spans="1:6">
@@ -23778,7 +23778,7 @@
         <v>159</v>
       </c>
       <c r="F1118">
-        <v>-0.0002867040915051165</v>
+        <v>-0.0002867040915051156</v>
       </c>
     </row>
     <row r="1119" spans="1:6">
@@ -23798,7 +23798,7 @@
         <v>160</v>
       </c>
       <c r="F1119">
-        <v>6.420827805848992E-05</v>
+        <v>6.420827805849079E-05</v>
       </c>
     </row>
     <row r="1120" spans="1:6">
@@ -23818,7 +23818,7 @@
         <v>161</v>
       </c>
       <c r="F1120">
-        <v>-9.857753159418781E-08</v>
+        <v>-9.857753159332044E-08</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -23838,7 +23838,7 @@
         <v>162</v>
       </c>
       <c r="F1121">
-        <v>1.371241921409999E-06</v>
+        <v>1.371241921410866E-06</v>
       </c>
     </row>
     <row r="1122" spans="1:6">
@@ -23858,7 +23858,7 @@
         <v>163</v>
       </c>
       <c r="F1122">
-        <v>-5.131175688932472E-05</v>
+        <v>-5.131175688932385E-05</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -23878,7 +23878,7 @@
         <v>164</v>
       </c>
       <c r="F1123">
-        <v>-9.856018230785732E-07</v>
+        <v>-9.856018230777058E-07</v>
       </c>
     </row>
     <row r="1124" spans="1:6">
@@ -23898,7 +23898,7 @@
         <v>165</v>
       </c>
       <c r="F1124">
-        <v>-0.0001979716852191513</v>
+        <v>-0.0001979716852191504</v>
       </c>
     </row>
     <row r="1125" spans="1:6">
@@ -23918,7 +23918,7 @@
         <v>166</v>
       </c>
       <c r="F1125">
-        <v>-2.118686551885393E-07</v>
+        <v>-2.11868655187672E-07</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -23938,7 +23938,7 @@
         <v>167</v>
       </c>
       <c r="F1126">
-        <v>-4.932116131610431E-06</v>
+        <v>-4.932116131608696E-06</v>
       </c>
     </row>
     <row r="1127" spans="1:6">
@@ -23958,7 +23958,7 @@
         <v>168</v>
       </c>
       <c r="F1127">
-        <v>-2.254547348981041E-05</v>
+        <v>-2.254547348980868E-05</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -23978,7 +23978,7 @@
         <v>169</v>
       </c>
       <c r="F1128">
-        <v>4.945815143313562E-05</v>
+        <v>4.945815143313648E-05</v>
       </c>
     </row>
     <row r="1129" spans="1:6">
@@ -23998,7 +23998,7 @@
         <v>170</v>
       </c>
       <c r="F1129">
-        <v>5.297294579302472E-05</v>
+        <v>5.297294579302558E-05</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -24018,7 +24018,7 @@
         <v>171</v>
       </c>
       <c r="F1130">
-        <v>-7.722685289573289E-07</v>
+        <v>-7.722685289555942E-07</v>
       </c>
     </row>
     <row r="1131" spans="1:6">
@@ -24038,7 +24038,7 @@
         <v>172</v>
       </c>
       <c r="F1131">
-        <v>-4.335999762478636E-05</v>
+        <v>-4.335999762478549E-05</v>
       </c>
     </row>
     <row r="1132" spans="1:6">
@@ -24058,7 +24058,7 @@
         <v>173</v>
       </c>
       <c r="F1132">
-        <v>-2.619796814606543E-05</v>
+        <v>-2.619796814606456E-05</v>
       </c>
     </row>
     <row r="1133" spans="1:6">
@@ -24078,7 +24078,7 @@
         <v>174</v>
       </c>
       <c r="F1133">
-        <v>7.679452395286182E-07</v>
+        <v>7.679452395294856E-07</v>
       </c>
     </row>
     <row r="1134" spans="1:6">
@@ -24098,7 +24098,7 @@
         <v>175</v>
       </c>
       <c r="F1134">
-        <v>-0.0001475851771676135</v>
+        <v>-0.0001475851771676126</v>
       </c>
     </row>
     <row r="1135" spans="1:6">
@@ -24118,7 +24118,7 @@
         <v>176</v>
       </c>
       <c r="F1135">
-        <v>-2.686512197658947E-05</v>
+        <v>-2.68651219765886E-05</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -24138,7 +24138,7 @@
         <v>177</v>
       </c>
       <c r="F1136">
-        <v>-5.004845635257684E-05</v>
+        <v>-5.004845635257511E-05</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -24158,7 +24158,7 @@
         <v>178</v>
       </c>
       <c r="F1137">
-        <v>5.070205671472289E-07</v>
+        <v>5.070205671480962E-07</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
@@ -24198,7 +24198,7 @@
         <v>180</v>
       </c>
       <c r="F1139">
-        <v>-1.804426471666357E-06</v>
+        <v>-1.804426471665489E-06</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -24218,7 +24218,7 @@
         <v>181</v>
       </c>
       <c r="F1140">
-        <v>-0.0001447925139426171</v>
+        <v>-0.0001447925139426163</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -24238,7 +24238,7 @@
         <v>182</v>
       </c>
       <c r="F1141">
-        <v>-0.0001510134650713861</v>
+        <v>-0.0001510134650713852</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -24258,7 +24258,7 @@
         <v>183</v>
       </c>
       <c r="F1142">
-        <v>-1.685372171327491E-05</v>
+        <v>-1.685372171327405E-05</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -24278,7 +24278,7 @@
         <v>184</v>
       </c>
       <c r="F1143">
-        <v>7.803859894812103E-05</v>
+        <v>7.803859894812189E-05</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -24298,7 +24298,7 @@
         <v>185</v>
       </c>
       <c r="F1144">
-        <v>-2.912663403060664E-07</v>
+        <v>-2.91266340305199E-07</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -24318,7 +24318,7 @@
         <v>186</v>
       </c>
       <c r="F1145">
-        <v>-1.027103166796953E-05</v>
+        <v>-1.027103166796866E-05</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -24338,7 +24338,7 @@
         <v>187</v>
       </c>
       <c r="F1146">
-        <v>-0.0001484814867045159</v>
+        <v>-0.000148481486704515</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -24358,7 +24358,7 @@
         <v>188</v>
       </c>
       <c r="F1147">
-        <v>0.0002335739793368112</v>
+        <v>0.0002335739793368121</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -24378,7 +24378,7 @@
         <v>189</v>
       </c>
       <c r="F1148">
-        <v>-1.998226848397289E-07</v>
+        <v>-1.998226848379941E-07</v>
       </c>
     </row>
     <row r="1149" spans="1:6">
@@ -24398,7 +24398,7 @@
         <v>190</v>
       </c>
       <c r="F1149">
-        <v>2.300335349517471E-06</v>
+        <v>2.300335349518338E-06</v>
       </c>
     </row>
     <row r="1150" spans="1:6">
@@ -24418,7 +24418,7 @@
         <v>191</v>
       </c>
       <c r="F1150">
-        <v>6.988872521699295E-06</v>
+        <v>6.988872521700162E-06</v>
       </c>
     </row>
     <row r="1151" spans="1:6">
@@ -24438,7 +24438,7 @@
         <v>192</v>
       </c>
       <c r="F1151">
-        <v>0.0004463647638524065</v>
+        <v>0.0004463647638524074</v>
       </c>
     </row>
     <row r="1152" spans="1:6">
@@ -24458,7 +24458,7 @@
         <v>193</v>
       </c>
       <c r="F1152">
-        <v>9.294424638192546E-05</v>
+        <v>9.294424638192633E-05</v>
       </c>
     </row>
     <row r="1153" spans="1:6">
@@ -24498,7 +24498,7 @@
         <v>195</v>
       </c>
       <c r="F1154">
-        <v>6.320127093097094E-07</v>
+        <v>6.320127093105768E-07</v>
       </c>
     </row>
     <row r="1155" spans="1:6">
@@ -24518,7 +24518,7 @@
         <v>196</v>
       </c>
       <c r="F1155">
-        <v>8.036067982416031E-07</v>
+        <v>8.036067982424705E-07</v>
       </c>
     </row>
     <row r="1156" spans="1:6">
@@ -24538,7 +24538,7 @@
         <v>197</v>
       </c>
       <c r="F1156">
-        <v>-1.146666631351295E-08</v>
+        <v>-1.146666631177823E-08</v>
       </c>
     </row>
     <row r="1157" spans="1:6">
@@ -24558,7 +24558,7 @@
         <v>198</v>
       </c>
       <c r="F1157">
-        <v>-3.884808941399115E-06</v>
+        <v>-3.884808941398248E-06</v>
       </c>
     </row>
     <row r="1158" spans="1:6">
@@ -24578,7 +24578,7 @@
         <v>199</v>
       </c>
       <c r="F1158">
-        <v>2.171715395922653E-06</v>
+        <v>2.171715395923521E-06</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -24598,7 +24598,7 @@
         <v>200</v>
       </c>
       <c r="F1159">
-        <v>0.0003336446787467577</v>
+        <v>0.0003336446787467586</v>
       </c>
     </row>
     <row r="1160" spans="1:6">
@@ -24618,7 +24618,7 @@
         <v>201</v>
       </c>
       <c r="F1160">
-        <v>7.231037874870679E-06</v>
+        <v>7.231037874871546E-06</v>
       </c>
     </row>
     <row r="1161" spans="1:6">
@@ -24638,7 +24638,7 @@
         <v>202</v>
       </c>
       <c r="F1161">
-        <v>1.998291998856969E-05</v>
+        <v>1.998291998857142E-05</v>
       </c>
     </row>
     <row r="1162" spans="1:6">
@@ -24658,7 +24658,7 @@
         <v>203</v>
       </c>
       <c r="F1162">
-        <v>-8.23235268947748E-05</v>
+        <v>-8.232352689477394E-05</v>
       </c>
     </row>
     <row r="1163" spans="1:6">
@@ -24678,7 +24678,7 @@
         <v>204</v>
       </c>
       <c r="F1163">
-        <v>-0.0001287150470321019</v>
+        <v>-0.000128715047032101</v>
       </c>
     </row>
     <row r="1164" spans="1:6">
@@ -24698,7 +24698,7 @@
         <v>205</v>
       </c>
       <c r="F1164">
-        <v>-9.366901965261569E-05</v>
+        <v>-9.366901965261482E-05</v>
       </c>
     </row>
     <row r="1165" spans="1:6">
@@ -24718,7 +24718,7 @@
         <v>206</v>
       </c>
       <c r="F1165">
-        <v>1.563682553638174E-06</v>
+        <v>1.563682553639041E-06</v>
       </c>
     </row>
     <row r="1166" spans="1:6">
@@ -24738,7 +24738,7 @@
         <v>207</v>
       </c>
       <c r="F1166">
-        <v>-2.824357655794967E-06</v>
+        <v>-2.824357655794099E-06</v>
       </c>
     </row>
     <row r="1167" spans="1:6">
@@ -24758,7 +24758,7 @@
         <v>208</v>
       </c>
       <c r="F1167">
-        <v>-7.465522707400703E-06</v>
+        <v>-7.465522707399835E-06</v>
       </c>
     </row>
     <row r="1168" spans="1:6">
@@ -24778,7 +24778,7 @@
         <v>209</v>
       </c>
       <c r="F1168">
-        <v>-2.41523784250304E-06</v>
+        <v>-2.415237842501305E-06</v>
       </c>
     </row>
     <row r="1169" spans="1:6">
@@ -24798,7 +24798,7 @@
         <v>210</v>
       </c>
       <c r="F1169">
-        <v>-3.154063966242897E-06</v>
+        <v>-3.154063966242029E-06</v>
       </c>
     </row>
     <row r="1170" spans="1:6">
@@ -24818,7 +24818,7 @@
         <v>211</v>
       </c>
       <c r="F1170">
-        <v>-3.222312277958821E-05</v>
+        <v>-3.222312277958734E-05</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -24838,7 +24838,7 @@
         <v>212</v>
       </c>
       <c r="F1171">
-        <v>-4.299149072501448E-05</v>
+        <v>-4.299149072501361E-05</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -24858,7 +24858,7 @@
         <v>213</v>
       </c>
       <c r="F1172">
-        <v>-2.293778150232184E-08</v>
+        <v>-2.293778150145448E-08</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -24878,7 +24878,7 @@
         <v>214</v>
       </c>
       <c r="F1173">
-        <v>-4.282665671004847E-06</v>
+        <v>-4.282665671003112E-06</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -24898,7 +24898,7 @@
         <v>215</v>
       </c>
       <c r="F1174">
-        <v>3.638985094540914E-06</v>
+        <v>3.638985094542649E-06</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24918,7 +24918,7 @@
         <v>216</v>
       </c>
       <c r="F1175">
-        <v>2.872275813564727E-05</v>
+        <v>2.872275813564813E-05</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24938,7 +24938,7 @@
         <v>217</v>
       </c>
       <c r="F1176">
-        <v>-8.204206452949725E-07</v>
+        <v>-8.204206452941051E-07</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24958,7 +24958,7 @@
         <v>218</v>
       </c>
       <c r="F1177">
-        <v>-7.041760252459069E-05</v>
+        <v>-7.041760252458982E-05</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24978,7 +24978,7 @@
         <v>219</v>
       </c>
       <c r="F1178">
-        <v>7.700425762896101E-05</v>
+        <v>7.700425762896188E-05</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24998,7 +24998,7 @@
         <v>220</v>
       </c>
       <c r="F1179">
-        <v>2.01139690948959E-05</v>
+        <v>2.011396909489677E-05</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -25018,7 +25018,7 @@
         <v>221</v>
       </c>
       <c r="F1180">
-        <v>3.56365263524689E-06</v>
+        <v>3.563652635247758E-06</v>
       </c>
     </row>
     <row r="1181" spans="1:6">
@@ -25038,7 +25038,7 @@
         <v>222</v>
       </c>
       <c r="F1181">
-        <v>4.737045875572669E-05</v>
+        <v>4.737045875572755E-05</v>
       </c>
     </row>
     <row r="1182" spans="1:6">
@@ -25058,7 +25058,7 @@
         <v>223</v>
       </c>
       <c r="F1182">
-        <v>-5.014764205892377E-06</v>
+        <v>-5.01476420589151E-06</v>
       </c>
     </row>
     <row r="1183" spans="1:6">
@@ -25078,7 +25078,7 @@
         <v>224</v>
       </c>
       <c r="F1183">
-        <v>3.627060289265911E-05</v>
+        <v>3.627060289265998E-05</v>
       </c>
     </row>
     <row r="1184" spans="1:6">
@@ -25098,7 +25098,7 @@
         <v>225</v>
       </c>
       <c r="F1184">
-        <v>5.488201531116555E-05</v>
+        <v>5.488201531116642E-05</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -25118,7 +25118,7 @@
         <v>226</v>
       </c>
       <c r="F1185">
-        <v>2.213495364222773E-06</v>
+        <v>2.21349536422364E-06</v>
       </c>
     </row>
     <row r="1186" spans="1:6">
@@ -25138,7 +25138,7 @@
         <v>227</v>
       </c>
       <c r="F1186">
-        <v>6.700483344782709E-07</v>
+        <v>6.700483344791383E-07</v>
       </c>
     </row>
     <row r="1187" spans="1:6">
@@ -25178,7 +25178,7 @@
         <v>229</v>
       </c>
       <c r="F1188">
-        <v>2.052336205473227E-05</v>
+        <v>2.052336205473314E-05</v>
       </c>
     </row>
     <row r="1189" spans="1:6">
@@ -25198,7 +25198,7 @@
         <v>230</v>
       </c>
       <c r="F1189">
-        <v>6.12525172381112E-06</v>
+        <v>6.125251723811988E-06</v>
       </c>
     </row>
     <row r="1190" spans="1:6">
@@ -25218,7 +25218,7 @@
         <v>231</v>
       </c>
       <c r="F1190">
-        <v>9.662422813568137E-05</v>
+        <v>9.662422813568224E-05</v>
       </c>
     </row>
     <row r="1191" spans="1:6">
@@ -25238,7 +25238,7 @@
         <v>232</v>
       </c>
       <c r="F1191">
-        <v>8.460246726533366E-07</v>
+        <v>8.460246726542039E-07</v>
       </c>
     </row>
     <row r="1192" spans="1:6">
@@ -25258,7 +25258,7 @@
         <v>233</v>
       </c>
       <c r="F1192">
-        <v>9.906986592964073E-07</v>
+        <v>9.906986592972747E-07</v>
       </c>
     </row>
     <row r="1193" spans="1:6">
@@ -25278,7 +25278,7 @@
         <v>234</v>
       </c>
       <c r="F1193">
-        <v>0.0001207920394527481</v>
+        <v>0.000120792039452749</v>
       </c>
     </row>
     <row r="1194" spans="1:6">
@@ -25298,7 +25298,7 @@
         <v>235</v>
       </c>
       <c r="F1194">
-        <v>-2.184022619542217E-06</v>
+        <v>-2.18402261954135E-06</v>
       </c>
     </row>
     <row r="1195" spans="1:6">
@@ -25318,7 +25318,7 @@
         <v>236</v>
       </c>
       <c r="F1195">
-        <v>-9.715291024656181E-07</v>
+        <v>-9.715291024647507E-07</v>
       </c>
     </row>
     <row r="1196" spans="1:6">
@@ -25338,7 +25338,7 @@
         <v>237</v>
       </c>
       <c r="F1196">
-        <v>-7.310893377788282E-05</v>
+        <v>-7.310893377788195E-05</v>
       </c>
     </row>
     <row r="1197" spans="1:6">
@@ -25358,7 +25358,7 @@
         <v>238</v>
       </c>
       <c r="F1197">
-        <v>3.656754235948929E-05</v>
+        <v>3.656754235949015E-05</v>
       </c>
     </row>
     <row r="1198" spans="1:6">
@@ -25378,7 +25378,7 @@
         <v>239</v>
       </c>
       <c r="F1198">
-        <v>-3.41347672484088E-06</v>
+        <v>-3.413476724840013E-06</v>
       </c>
     </row>
     <row r="1199" spans="1:6">
@@ -25418,7 +25418,7 @@
         <v>241</v>
       </c>
       <c r="F1200">
-        <v>-0.0001026754296266355</v>
+        <v>-0.0001026754296266346</v>
       </c>
     </row>
     <row r="1201" spans="1:6">
@@ -25438,7 +25438,7 @@
         <v>242</v>
       </c>
       <c r="F1201">
-        <v>5.086669251469327E-05</v>
+        <v>5.086669251469413E-05</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -25458,7 +25458,7 @@
         <v>243</v>
       </c>
       <c r="F1202">
-        <v>5.896196167671022E-05</v>
+        <v>5.896196167671109E-05</v>
       </c>
     </row>
     <row r="1203" spans="1:6">
@@ -25478,7 +25478,7 @@
         <v>244</v>
       </c>
       <c r="F1203">
-        <v>2.334514355170104E-06</v>
+        <v>2.334514355170972E-06</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -25498,7 +25498,7 @@
         <v>245</v>
       </c>
       <c r="F1204">
-        <v>-3.627699322785501E-05</v>
+        <v>-3.627699322785328E-05</v>
       </c>
     </row>
     <row r="1205" spans="1:6">
@@ -25518,7 +25518,7 @@
         <v>246</v>
       </c>
       <c r="F1205">
-        <v>3.634789283072076E-05</v>
+        <v>3.634789283072162E-05</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -25538,7 +25538,7 @@
         <v>247</v>
       </c>
       <c r="F1206">
-        <v>-1.144495541444482E-06</v>
+        <v>-1.144495541443614E-06</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -25558,7 +25558,7 @@
         <v>248</v>
       </c>
       <c r="F1207">
-        <v>7.634232997114077E-06</v>
+        <v>7.634232997114944E-06</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -25578,7 +25578,7 @@
         <v>249</v>
       </c>
       <c r="F1208">
-        <v>5.157415117175001E-05</v>
+        <v>5.157415117175088E-05</v>
       </c>
     </row>
     <row r="1209" spans="1:6">
@@ -25598,7 +25598,7 @@
         <v>250</v>
       </c>
       <c r="F1209">
-        <v>-2.82006123693973E-06</v>
+        <v>-2.820061236938863E-06</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -25618,7 +25618,7 @@
         <v>251</v>
       </c>
       <c r="F1210">
-        <v>-7.121156395283827E-05</v>
+        <v>-7.12115639528374E-05</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -25678,7 +25678,7 @@
         <v>254</v>
       </c>
       <c r="F1213">
-        <v>-1.290964740625726E-05</v>
+        <v>-1.290964740625639E-05</v>
       </c>
     </row>
     <row r="1214" spans="1:6">
@@ -25698,7 +25698,7 @@
         <v>255</v>
       </c>
       <c r="F1214">
-        <v>3.91670436707646E-07</v>
+        <v>3.916704367085133E-07</v>
       </c>
     </row>
     <row r="1215" spans="1:6">
@@ -25718,7 +25718,7 @@
         <v>256</v>
       </c>
       <c r="F1215">
-        <v>4.584236944470913E-05</v>
+        <v>4.584236944471087E-05</v>
       </c>
     </row>
     <row r="1216" spans="1:6">
@@ -25758,7 +25758,7 @@
         <v>258</v>
       </c>
       <c r="F1217">
-        <v>-4.049944440275878E-06</v>
+        <v>-4.049944440275011E-06</v>
       </c>
     </row>
     <row r="1218" spans="1:6">
@@ -25778,7 +25778,7 @@
         <v>259</v>
       </c>
       <c r="F1218">
-        <v>-0.0003185687072734368</v>
+        <v>-0.000318568707273436</v>
       </c>
     </row>
     <row r="1219" spans="1:6">
@@ -25798,7 +25798,7 @@
         <v>260</v>
       </c>
       <c r="F1219">
-        <v>3.361943057287112E-07</v>
+        <v>3.361943057295785E-07</v>
       </c>
     </row>
     <row r="1220" spans="1:6">
@@ -25818,7 +25818,7 @@
         <v>261</v>
       </c>
       <c r="F1220">
-        <v>9.704792840665652E-06</v>
+        <v>9.704792840666519E-06</v>
       </c>
     </row>
     <row r="1221" spans="1:6">
@@ -25838,7 +25838,7 @@
         <v>262</v>
       </c>
       <c r="F1221">
-        <v>-6.528184830194989E-06</v>
+        <v>-6.528184830194121E-06</v>
       </c>
     </row>
     <row r="1222" spans="1:6">
@@ -25858,7 +25858,7 @@
         <v>263</v>
       </c>
       <c r="F1222">
-        <v>-2.748028723032186E-05</v>
+        <v>-2.748028723032099E-05</v>
       </c>
     </row>
     <row r="1223" spans="1:6">
@@ -25878,7 +25878,7 @@
         <v>264</v>
       </c>
       <c r="F1223">
-        <v>-1.748388744155123E-05</v>
+        <v>-1.748388744154949E-05</v>
       </c>
     </row>
     <row r="1224" spans="1:6">
@@ -25898,7 +25898,7 @@
         <v>265</v>
       </c>
       <c r="F1224">
-        <v>2.628339406444101E-06</v>
+        <v>2.628339406444968E-06</v>
       </c>
     </row>
     <row r="1225" spans="1:6">
@@ -25918,7 +25918,7 @@
         <v>266</v>
       </c>
       <c r="F1225">
-        <v>0.0001412553727610181</v>
+        <v>0.000141255372761019</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -25958,7 +25958,7 @@
         <v>268</v>
       </c>
       <c r="F1227">
-        <v>0.0002987496576806444</v>
+        <v>0.0002987496576806453</v>
       </c>
     </row>
     <row r="1228" spans="1:6">
@@ -25978,7 +25978,7 @@
         <v>269</v>
       </c>
       <c r="F1228">
-        <v>-3.120322229537703E-05</v>
+        <v>-3.120322229537616E-05</v>
       </c>
     </row>
     <row r="1229" spans="1:6">
@@ -25998,7 +25998,7 @@
         <v>270</v>
       </c>
       <c r="F1229">
-        <v>-8.750767106404517E-07</v>
+        <v>-8.750767106395843E-07</v>
       </c>
     </row>
     <row r="1230" spans="1:6">
@@ -26018,7 +26018,7 @@
         <v>271</v>
       </c>
       <c r="F1230">
-        <v>-4.044399146441949E-05</v>
+        <v>-4.044399146441863E-05</v>
       </c>
     </row>
     <row r="1231" spans="1:6">
@@ -26038,7 +26038,7 @@
         <v>272</v>
       </c>
       <c r="F1231">
-        <v>-3.082931352062224E-05</v>
+        <v>-3.082931352062137E-05</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -26058,7 +26058,7 @@
         <v>273</v>
       </c>
       <c r="F1232">
-        <v>2.923440833588545E-07</v>
+        <v>2.923440833597218E-07</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -26078,7 +26078,7 @@
         <v>274</v>
       </c>
       <c r="F1233">
-        <v>0.0005444836647749431</v>
+        <v>0.000544483664774944</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -26098,7 +26098,7 @@
         <v>275</v>
       </c>
       <c r="F1234">
-        <v>0.0003836578106473608</v>
+        <v>0.0003836578106473617</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -26138,7 +26138,7 @@
         <v>277</v>
       </c>
       <c r="F1236">
-        <v>4.554533849169227E-06</v>
+        <v>4.554533849170095E-06</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -26158,7 +26158,7 @@
         <v>278</v>
       </c>
       <c r="F1237">
-        <v>1.408898409726439E-06</v>
+        <v>1.408898409727306E-06</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -26178,7 +26178,7 @@
         <v>279</v>
       </c>
       <c r="F1238">
-        <v>-2.123953552444872E-05</v>
+        <v>-2.123953552444786E-05</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -26198,7 +26198,7 @@
         <v>280</v>
       </c>
       <c r="F1239">
-        <v>-2.17907508531269E-07</v>
+        <v>-2.179075085304016E-07</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -26218,7 +26218,7 @@
         <v>281</v>
       </c>
       <c r="F1240">
-        <v>-2.788465093056178E-07</v>
+        <v>-2.788465093047504E-07</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -26238,7 +26238,7 @@
         <v>282</v>
       </c>
       <c r="F1241">
-        <v>0.0002291770121563216</v>
+        <v>0.0002291770121563225</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -26258,7 +26258,7 @@
         <v>283</v>
       </c>
       <c r="F1242">
-        <v>0.000490371374536851</v>
+        <v>0.0004903713745368519</v>
       </c>
     </row>
     <row r="1243" spans="1:6">
@@ -26278,7 +26278,7 @@
         <v>284</v>
       </c>
       <c r="F1243">
-        <v>-3.31232524313314E-05</v>
+        <v>-3.312325243133053E-05</v>
       </c>
     </row>
     <row r="1244" spans="1:6">
@@ -26298,7 +26298,7 @@
         <v>285</v>
       </c>
       <c r="F1244">
-        <v>-1.995518292727001E-05</v>
+        <v>-1.995518292726827E-05</v>
       </c>
     </row>
     <row r="1245" spans="1:6">
@@ -26318,7 +26318,7 @@
         <v>286</v>
       </c>
       <c r="F1245">
-        <v>6.394051223367406E-06</v>
+        <v>6.394051223368273E-06</v>
       </c>
     </row>
     <row r="1246" spans="1:6">
@@ -26338,7 +26338,7 @@
         <v>287</v>
       </c>
       <c r="F1246">
-        <v>4.462642733129522E-05</v>
+        <v>4.462642733129608E-05</v>
       </c>
     </row>
     <row r="1247" spans="1:6">
@@ -26358,7 +26358,7 @@
         <v>288</v>
       </c>
       <c r="F1247">
-        <v>0.0001427635257905532</v>
+        <v>0.0001427635257905541</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -26378,7 +26378,7 @@
         <v>289</v>
       </c>
       <c r="F1248">
-        <v>-2.488066827051848E-05</v>
+        <v>-2.488066827051761E-05</v>
       </c>
     </row>
     <row r="1249" spans="1:6">
@@ -26398,7 +26398,7 @@
         <v>290</v>
       </c>
       <c r="F1249">
-        <v>2.390128423393999E-06</v>
+        <v>2.390128423395733E-06</v>
       </c>
     </row>
     <row r="1250" spans="1:6">
@@ -26418,7 +26418,7 @@
         <v>291</v>
       </c>
       <c r="F1250">
-        <v>9.805427274650093E-05</v>
+        <v>9.80542727465018E-05</v>
       </c>
     </row>
     <row r="1251" spans="1:6">
@@ -26438,7 +26438,7 @@
         <v>292</v>
       </c>
       <c r="F1251">
-        <v>-7.736374184998465E-07</v>
+        <v>-7.736374184981118E-07</v>
       </c>
     </row>
     <row r="1252" spans="1:6">
@@ -26458,7 +26458,7 @@
         <v>293</v>
       </c>
       <c r="F1252">
-        <v>5.354186770700937E-05</v>
+        <v>5.354186770701024E-05</v>
       </c>
     </row>
     <row r="1253" spans="1:6">
@@ -26478,7 +26478,7 @@
         <v>294</v>
       </c>
       <c r="F1253">
-        <v>-0.0001405457268230303</v>
+        <v>-0.0001405457268230294</v>
       </c>
     </row>
     <row r="1254" spans="1:6">
@@ -26498,7 +26498,7 @@
         <v>295</v>
       </c>
       <c r="F1254">
-        <v>6.382549146992725E-05</v>
+        <v>6.382549146992898E-05</v>
       </c>
     </row>
     <row r="1255" spans="1:6">
@@ -29458,7 +29458,7 @@
         <v>164</v>
       </c>
       <c r="F1402">
-        <v>-1.213672409800715E-06</v>
+        <v>-1.213672409800716E-06</v>
       </c>
     </row>
     <row r="1403" spans="1:6">
@@ -29498,7 +29498,7 @@
         <v>166</v>
       </c>
       <c r="F1404">
-        <v>4.475929033527195E-06</v>
+        <v>4.475929033527196E-06</v>
       </c>
     </row>
     <row r="1405" spans="1:6">
@@ -29538,7 +29538,7 @@
         <v>168</v>
       </c>
       <c r="F1406">
-        <v>-2.593589328203133E-05</v>
+        <v>-2.593589328203134E-05</v>
       </c>
     </row>
     <row r="1407" spans="1:6">
@@ -29558,7 +29558,7 @@
         <v>169</v>
       </c>
       <c r="F1407">
-        <v>-9.730063825730106E-05</v>
+        <v>-9.730063825730108E-05</v>
       </c>
     </row>
     <row r="1408" spans="1:6">
@@ -29578,7 +29578,7 @@
         <v>170</v>
       </c>
       <c r="F1408">
-        <v>-6.238154168837338E-05</v>
+        <v>-6.238154168837339E-05</v>
       </c>
     </row>
     <row r="1409" spans="1:6">
@@ -29618,7 +29618,7 @@
         <v>172</v>
       </c>
       <c r="F1410">
-        <v>-7.898259862174059E-05</v>
+        <v>-7.898259862174061E-05</v>
       </c>
     </row>
     <row r="1411" spans="1:6">
@@ -29658,7 +29658,7 @@
         <v>174</v>
       </c>
       <c r="F1412">
-        <v>-3.163997502702862E-06</v>
+        <v>-3.163997502702863E-06</v>
       </c>
     </row>
     <row r="1413" spans="1:6">
@@ -29718,7 +29718,7 @@
         <v>177</v>
       </c>
       <c r="F1415">
-        <v>-5.800859183158476E-05</v>
+        <v>-5.800859183158477E-05</v>
       </c>
     </row>
     <row r="1416" spans="1:6">
@@ -29758,7 +29758,7 @@
         <v>179</v>
       </c>
       <c r="F1417">
-        <v>0.0001357833421776448</v>
+        <v>0.0001357833421776449</v>
       </c>
     </row>
     <row r="1418" spans="1:6">
@@ -29778,7 +29778,7 @@
         <v>180</v>
       </c>
       <c r="F1418">
-        <v>-7.376174258476668E-06</v>
+        <v>-7.376174258476669E-06</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -29798,7 +29798,7 @@
         <v>181</v>
       </c>
       <c r="F1419">
-        <v>-0.0001084498244881123</v>
+        <v>-0.0001084498244881124</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -29838,7 +29838,7 @@
         <v>183</v>
       </c>
       <c r="F1421">
-        <v>-3.386688381370031E-05</v>
+        <v>-3.386688381370032E-05</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -29898,7 +29898,7 @@
         <v>186</v>
       </c>
       <c r="F1424">
-        <v>-4.426683279611168E-05</v>
+        <v>-4.426683279611169E-05</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -29938,7 +29938,7 @@
         <v>188</v>
       </c>
       <c r="F1426">
-        <v>9.044564095081557E-05</v>
+        <v>9.044564095081558E-05</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -29958,7 +29958,7 @@
         <v>189</v>
       </c>
       <c r="F1427">
-        <v>-7.234934184758703E-07</v>
+        <v>-7.234934184758704E-07</v>
       </c>
     </row>
     <row r="1428" spans="1:6">
@@ -29978,7 +29978,7 @@
         <v>190</v>
       </c>
       <c r="F1428">
-        <v>1.39137785934726E-06</v>
+        <v>1.391377859347261E-06</v>
       </c>
     </row>
     <row r="1429" spans="1:6">
@@ -29998,7 +29998,7 @@
         <v>191</v>
       </c>
       <c r="F1429">
-        <v>3.103785405654015E-05</v>
+        <v>3.103785405654016E-05</v>
       </c>
     </row>
     <row r="1430" spans="1:6">
@@ -30038,7 +30038,7 @@
         <v>193</v>
       </c>
       <c r="F1431">
-        <v>4.978707392515224E-05</v>
+        <v>4.978707392515225E-05</v>
       </c>
     </row>
     <row r="1432" spans="1:6">
@@ -30078,7 +30078,7 @@
         <v>195</v>
       </c>
       <c r="F1433">
-        <v>9.434123371504322E-07</v>
+        <v>9.434123371504323E-07</v>
       </c>
     </row>
     <row r="1434" spans="1:6">
@@ -30098,7 +30098,7 @@
         <v>196</v>
       </c>
       <c r="F1434">
-        <v>-8.608320937417937E-07</v>
+        <v>-8.608320937417938E-07</v>
       </c>
     </row>
     <row r="1435" spans="1:6">
@@ -30118,7 +30118,7 @@
         <v>197</v>
       </c>
       <c r="F1435">
-        <v>2.752721064797508E-06</v>
+        <v>2.752721064797509E-06</v>
       </c>
     </row>
     <row r="1436" spans="1:6">
@@ -30138,7 +30138,7 @@
         <v>198</v>
       </c>
       <c r="F1436">
-        <v>5.556362804200911E-06</v>
+        <v>5.556362804200912E-06</v>
       </c>
     </row>
     <row r="1437" spans="1:6">
@@ -30158,7 +30158,7 @@
         <v>199</v>
       </c>
       <c r="F1437">
-        <v>3.471531069461819E-06</v>
+        <v>3.47153106946182E-06</v>
       </c>
     </row>
     <row r="1438" spans="1:6">
@@ -30278,7 +30278,7 @@
         <v>205</v>
       </c>
       <c r="F1443">
-        <v>-5.370518193273236E-05</v>
+        <v>-5.370518193273237E-05</v>
       </c>
     </row>
     <row r="1444" spans="1:6">
@@ -30318,7 +30318,7 @@
         <v>207</v>
       </c>
       <c r="F1445">
-        <v>-4.907436623415322E-06</v>
+        <v>-4.907436623415323E-06</v>
       </c>
     </row>
     <row r="1446" spans="1:6">
@@ -30338,7 +30338,7 @@
         <v>208</v>
       </c>
       <c r="F1446">
-        <v>-1.574679759676E-05</v>
+        <v>-1.574679759676001E-05</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -30378,7 +30378,7 @@
         <v>210</v>
       </c>
       <c r="F1448">
-        <v>-7.676716935770153E-06</v>
+        <v>-7.676716935770154E-06</v>
       </c>
     </row>
     <row r="1449" spans="1:6">
@@ -30398,7 +30398,7 @@
         <v>211</v>
       </c>
       <c r="F1449">
-        <v>-2.746406893432292E-05</v>
+        <v>-2.746406893432293E-05</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -30418,7 +30418,7 @@
         <v>212</v>
       </c>
       <c r="F1450">
-        <v>-4.437350894805172E-05</v>
+        <v>-4.437350894805173E-05</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -30458,7 +30458,7 @@
         <v>214</v>
       </c>
       <c r="F1452">
-        <v>8.195829531136514E-06</v>
+        <v>8.195829531136515E-06</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -30678,7 +30678,7 @@
         <v>225</v>
       </c>
       <c r="F1463">
-        <v>8.197733367296601E-05</v>
+        <v>8.197733367296603E-05</v>
       </c>
     </row>
     <row r="1464" spans="1:6">
@@ -30798,7 +30798,7 @@
         <v>231</v>
       </c>
       <c r="F1469">
-        <v>9.005461121841672E-05</v>
+        <v>9.005461121841673E-05</v>
       </c>
     </row>
     <row r="1470" spans="1:6">
@@ -30818,7 +30818,7 @@
         <v>232</v>
       </c>
       <c r="F1470">
-        <v>-1.374804215764647E-06</v>
+        <v>-1.374804215764648E-06</v>
       </c>
     </row>
     <row r="1471" spans="1:6">
@@ -30838,7 +30838,7 @@
         <v>233</v>
       </c>
       <c r="F1471">
-        <v>6.440402722446845E-07</v>
+        <v>6.440402722446846E-07</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -30938,7 +30938,7 @@
         <v>238</v>
       </c>
       <c r="F1476">
-        <v>-9.227845654911161E-05</v>
+        <v>-9.227845654911163E-05</v>
       </c>
     </row>
     <row r="1477" spans="1:6">
@@ -30978,7 +30978,7 @@
         <v>240</v>
       </c>
       <c r="F1478">
-        <v>8.583782305017154E-06</v>
+        <v>8.583782305017155E-06</v>
       </c>
     </row>
     <row r="1479" spans="1:6">
@@ -31018,7 +31018,7 @@
         <v>242</v>
       </c>
       <c r="F1480">
-        <v>5.501107778126423E-05</v>
+        <v>5.501107778126424E-05</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -31078,7 +31078,7 @@
         <v>245</v>
       </c>
       <c r="F1483">
-        <v>-2.713090724891385E-05</v>
+        <v>-2.713090724891386E-05</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -31118,7 +31118,7 @@
         <v>247</v>
       </c>
       <c r="F1485">
-        <v>-6.649070648254766E-06</v>
+        <v>-6.649070648254767E-06</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -31138,7 +31138,7 @@
         <v>248</v>
       </c>
       <c r="F1486">
-        <v>2.454037501256745E-05</v>
+        <v>2.454037501256746E-05</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -31178,7 +31178,7 @@
         <v>250</v>
       </c>
       <c r="F1488">
-        <v>-3.04903063798707E-06</v>
+        <v>-3.049030637987071E-06</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -31278,7 +31278,7 @@
         <v>255</v>
       </c>
       <c r="F1493">
-        <v>8.837376225428411E-06</v>
+        <v>8.837376225428412E-06</v>
       </c>
     </row>
     <row r="1494" spans="1:6">
@@ -31318,7 +31318,7 @@
         <v>257</v>
       </c>
       <c r="F1495">
-        <v>-3.370978936693526E-06</v>
+        <v>-3.370978936693527E-06</v>
       </c>
     </row>
     <row r="1496" spans="1:6">
@@ -31398,7 +31398,7 @@
         <v>261</v>
       </c>
       <c r="F1499">
-        <v>4.106936580742997E-05</v>
+        <v>4.106936580742998E-05</v>
       </c>
     </row>
     <row r="1500" spans="1:6">
@@ -31418,7 +31418,7 @@
         <v>262</v>
       </c>
       <c r="F1500">
-        <v>6.178955991826139E-05</v>
+        <v>6.17895599182614E-05</v>
       </c>
     </row>
     <row r="1501" spans="1:6">
@@ -31438,7 +31438,7 @@
         <v>263</v>
       </c>
       <c r="F1501">
-        <v>4.839639555935528E-05</v>
+        <v>4.839639555935529E-05</v>
       </c>
     </row>
     <row r="1502" spans="1:6">
@@ -31458,7 +31458,7 @@
         <v>264</v>
       </c>
       <c r="F1502">
-        <v>3.150190640647644E-05</v>
+        <v>3.150190640647645E-05</v>
       </c>
     </row>
     <row r="1503" spans="1:6">
@@ -31498,7 +31498,7 @@
         <v>266</v>
       </c>
       <c r="F1504">
-        <v>5.936033093341643E-05</v>
+        <v>5.936033093341644E-05</v>
       </c>
     </row>
     <row r="1505" spans="1:6">
@@ -31578,7 +31578,7 @@
         <v>270</v>
       </c>
       <c r="F1508">
-        <v>-2.110098599031442E-06</v>
+        <v>-2.110098599031443E-06</v>
       </c>
     </row>
     <row r="1509" spans="1:6">
@@ -31638,7 +31638,7 @@
         <v>273</v>
       </c>
       <c r="F1511">
-        <v>2.602370271076014E-05</v>
+        <v>2.602370271076015E-05</v>
       </c>
     </row>
     <row r="1512" spans="1:6">
@@ -31678,7 +31678,7 @@
         <v>275</v>
       </c>
       <c r="F1513">
-        <v>0.0002579919564722287</v>
+        <v>0.0002579919564722288</v>
       </c>
     </row>
     <row r="1514" spans="1:6">
@@ -31698,7 +31698,7 @@
         <v>276</v>
       </c>
       <c r="F1514">
-        <v>4.028116360716197E-06</v>
+        <v>4.028116360716198E-06</v>
       </c>
     </row>
     <row r="1515" spans="1:6">
@@ -31718,7 +31718,7 @@
         <v>277</v>
       </c>
       <c r="F1515">
-        <v>3.305740920462342E-06</v>
+        <v>3.305740920462343E-06</v>
       </c>
     </row>
     <row r="1516" spans="1:6">
@@ -31758,7 +31758,7 @@
         <v>279</v>
       </c>
       <c r="F1517">
-        <v>-0.0001552912755562172</v>
+        <v>-0.0001552912755562173</v>
       </c>
     </row>
     <row r="1518" spans="1:6">
@@ -31858,7 +31858,7 @@
         <v>284</v>
       </c>
       <c r="F1522">
-        <v>-4.253399475661072E-05</v>
+        <v>-4.253399475661073E-05</v>
       </c>
     </row>
     <row r="1523" spans="1:6">
@@ -31878,7 +31878,7 @@
         <v>285</v>
       </c>
       <c r="F1523">
-        <v>-2.579738303011705E-05</v>
+        <v>-2.579738303011706E-05</v>
       </c>
     </row>
     <row r="1524" spans="1:6">
@@ -31898,7 +31898,7 @@
         <v>286</v>
       </c>
       <c r="F1524">
-        <v>4.485939987241754E-06</v>
+        <v>4.485939987241755E-06</v>
       </c>
     </row>
     <row r="1525" spans="1:6">
@@ -31978,7 +31978,7 @@
         <v>290</v>
       </c>
       <c r="F1528">
-        <v>-3.406531225602769E-06</v>
+        <v>-3.40653122560277E-06</v>
       </c>
     </row>
     <row r="1529" spans="1:6">
@@ -31998,7 +31998,7 @@
         <v>291</v>
       </c>
       <c r="F1529">
-        <v>4.836333888009595E-05</v>
+        <v>4.836333888009596E-05</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -32018,7 +32018,7 @@
         <v>292</v>
       </c>
       <c r="F1530">
-        <v>-4.861142471244648E-06</v>
+        <v>-4.861142471244649E-06</v>
       </c>
     </row>
     <row r="1531" spans="1:6">
@@ -32038,7 +32038,7 @@
         <v>293</v>
       </c>
       <c r="F1531">
-        <v>2.682494845001231E-05</v>
+        <v>2.682494845001232E-05</v>
       </c>
     </row>
     <row r="1532" spans="1:6">
@@ -32118,7 +32118,7 @@
         <v>158</v>
       </c>
       <c r="F1535">
-        <v>1.137153563544706E-06</v>
+        <v>1.137153563546441E-06</v>
       </c>
     </row>
     <row r="1536" spans="1:6">
@@ -32138,7 +32138,7 @@
         <v>159</v>
       </c>
       <c r="F1536">
-        <v>-0.0004054909979030021</v>
+        <v>-0.0004054909979030012</v>
       </c>
     </row>
     <row r="1537" spans="1:6">
@@ -32158,7 +32158,7 @@
         <v>160</v>
       </c>
       <c r="F1537">
-        <v>9.081097729331071E-05</v>
+        <v>9.081097729331158E-05</v>
       </c>
     </row>
     <row r="1538" spans="1:6">
@@ -32178,7 +32178,7 @@
         <v>161</v>
       </c>
       <c r="F1538">
-        <v>-1.394200600584802E-07</v>
+        <v>-1.394200600576129E-07</v>
       </c>
     </row>
     <row r="1539" spans="1:6">
@@ -32198,7 +32198,7 @@
         <v>162</v>
       </c>
       <c r="F1539">
-        <v>1.939373282607362E-06</v>
+        <v>1.93937328260823E-06</v>
       </c>
     </row>
     <row r="1540" spans="1:6">
@@ -32218,7 +32218,7 @@
         <v>163</v>
       </c>
       <c r="F1540">
-        <v>-7.257118444309665E-05</v>
+        <v>-7.257118444309579E-05</v>
       </c>
     </row>
     <row r="1541" spans="1:6">
@@ -32238,7 +32238,7 @@
         <v>164</v>
       </c>
       <c r="F1541">
-        <v>-1.393955226369065E-06</v>
+        <v>-1.393955226368197E-06</v>
       </c>
     </row>
     <row r="1542" spans="1:6">
@@ -32258,7 +32258,7 @@
         <v>165</v>
       </c>
       <c r="F1542">
-        <v>-0.0002799950840416243</v>
+        <v>-0.0002799950840416234</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -32278,7 +32278,7 @@
         <v>166</v>
       </c>
       <c r="F1543">
-        <v>-2.996498304772346E-07</v>
+        <v>-2.996498304763673E-07</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -32298,7 +32298,7 @@
         <v>167</v>
       </c>
       <c r="F1544">
-        <v>-6.975584762257923E-06</v>
+        <v>-6.975584762255321E-06</v>
       </c>
     </row>
     <row r="1545" spans="1:6">
@@ -32318,7 +32318,7 @@
         <v>168</v>
       </c>
       <c r="F1545">
-        <v>-3.18864878962339E-05</v>
+        <v>-3.188648789623216E-05</v>
       </c>
     </row>
     <row r="1546" spans="1:6">
@@ -32338,7 +32338,7 @@
         <v>169</v>
       </c>
       <c r="F1546">
-        <v>6.994959532589072E-05</v>
+        <v>6.994959532589159E-05</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -32358,7 +32358,7 @@
         <v>170</v>
       </c>
       <c r="F1547">
-        <v>7.492063520513764E-05</v>
+        <v>7.492063520513851E-05</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -32378,7 +32378,7 @@
         <v>171</v>
       </c>
       <c r="F1548">
-        <v>-1.092233929456815E-06</v>
+        <v>-1.092233929454213E-06</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -32398,7 +32398,7 @@
         <v>172</v>
       </c>
       <c r="F1549">
-        <v>-6.13248615101555E-05</v>
+        <v>-6.132486151015464E-05</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -32418,7 +32418,7 @@
         <v>173</v>
       </c>
       <c r="F1550">
-        <v>-3.705227989880128E-05</v>
+        <v>-3.705227989880041E-05</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -32438,7 +32438,7 @@
         <v>174</v>
       </c>
       <c r="F1551">
-        <v>1.086119419770049E-06</v>
+        <v>1.086119419770916E-06</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -32458,7 +32458,7 @@
         <v>175</v>
       </c>
       <c r="F1552">
-        <v>-0.000208732496460794</v>
+        <v>-0.0002087324964607932</v>
       </c>
     </row>
     <row r="1553" spans="1:6">
@@ -32478,7 +32478,7 @@
         <v>176</v>
       </c>
       <c r="F1553">
-        <v>-3.799584812998278E-05</v>
+        <v>-3.799584812998191E-05</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -32498,7 +32498,7 @@
         <v>177</v>
       </c>
       <c r="F1554">
-        <v>-7.078447469435235E-05</v>
+        <v>-7.078447469435062E-05</v>
       </c>
     </row>
     <row r="1555" spans="1:6">
@@ -32518,7 +32518,7 @@
         <v>178</v>
       </c>
       <c r="F1555">
-        <v>7.170887399987613E-07</v>
+        <v>7.170887399996287E-07</v>
       </c>
     </row>
     <row r="1556" spans="1:6">
@@ -32558,7 +32558,7 @@
         <v>180</v>
       </c>
       <c r="F1557">
-        <v>-2.552034352901016E-06</v>
+        <v>-2.552034352900148E-06</v>
       </c>
     </row>
     <row r="1558" spans="1:6">
@@ -32578,7 +32578,7 @@
         <v>181</v>
       </c>
       <c r="F1558">
-        <v>-0.0002047827802500266</v>
+        <v>-0.0002047827802500258</v>
       </c>
     </row>
     <row r="1559" spans="1:6">
@@ -32598,7 +32598,7 @@
         <v>182</v>
       </c>
       <c r="F1559">
-        <v>-0.0002135811886294402</v>
+        <v>-0.0002135811886294393</v>
       </c>
     </row>
     <row r="1560" spans="1:6">
@@ -32618,7 +32618,7 @@
         <v>183</v>
       </c>
       <c r="F1560">
-        <v>-2.383653613040066E-05</v>
+        <v>-2.383653613039979E-05</v>
       </c>
     </row>
     <row r="1561" spans="1:6">
@@ -32638,7 +32638,7 @@
         <v>184</v>
       </c>
       <c r="F1561">
-        <v>0.0001103714606802567</v>
+        <v>0.0001103714606802576</v>
       </c>
     </row>
     <row r="1562" spans="1:6">
@@ -32658,7 +32658,7 @@
         <v>185</v>
       </c>
       <c r="F1562">
-        <v>-4.119434723311513E-07</v>
+        <v>-4.119434723302839E-07</v>
       </c>
     </row>
     <row r="1563" spans="1:6">
@@ -32678,7 +32678,7 @@
         <v>186</v>
       </c>
       <c r="F1563">
-        <v>-1.452651358644415E-05</v>
+        <v>-1.452651358644329E-05</v>
       </c>
     </row>
     <row r="1564" spans="1:6">
@@ -32698,7 +32698,7 @@
         <v>187</v>
       </c>
       <c r="F1564">
-        <v>-0.0002100001639246257</v>
+        <v>-0.0002100001639246249</v>
       </c>
     </row>
     <row r="1565" spans="1:6">
@@ -32718,7 +32718,7 @@
         <v>188</v>
       </c>
       <c r="F1565">
-        <v>0.0003303480793324107</v>
+        <v>0.0003303480793324116</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -32738,7 +32738,7 @@
         <v>189</v>
       </c>
       <c r="F1566">
-        <v>-2.826129876761299E-07</v>
+        <v>-2.826129876743952E-07</v>
       </c>
     </row>
     <row r="1567" spans="1:6">
@@ -32758,7 +32758,7 @@
         <v>190</v>
       </c>
       <c r="F1567">
-        <v>3.253407621393173E-06</v>
+        <v>3.25340762139404E-06</v>
       </c>
     </row>
     <row r="1568" spans="1:6">
@@ -32778,7 +32778,7 @@
         <v>191</v>
       </c>
       <c r="F1568">
-        <v>9.884494072489453E-06</v>
+        <v>9.88449407249032E-06</v>
       </c>
     </row>
     <row r="1569" spans="1:6">
@@ -32798,7 +32798,7 @@
         <v>192</v>
       </c>
       <c r="F1569">
-        <v>0.0006313020946895707</v>
+        <v>0.0006313020946895715</v>
       </c>
     </row>
     <row r="1570" spans="1:6">
@@ -32818,7 +32818,7 @@
         <v>193</v>
       </c>
       <c r="F1570">
-        <v>0.0001314527986569624</v>
+        <v>0.0001314527986569633</v>
       </c>
     </row>
     <row r="1571" spans="1:6">
@@ -32858,7 +32858,7 @@
         <v>195</v>
       </c>
       <c r="F1572">
-        <v>8.938674814166353E-07</v>
+        <v>8.938674814175027E-07</v>
       </c>
     </row>
     <row r="1573" spans="1:6">
@@ -32878,7 +32878,7 @@
         <v>196</v>
       </c>
       <c r="F1573">
-        <v>1.136556234095781E-06</v>
+        <v>1.136556234096649E-06</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -32898,7 +32898,7 @@
         <v>197</v>
       </c>
       <c r="F1574">
-        <v>-1.62175221897487E-08</v>
+        <v>-1.621752218801398E-08</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -32918,7 +32918,7 @@
         <v>198</v>
       </c>
       <c r="F1575">
-        <v>-5.494358472669936E-06</v>
+        <v>-5.494358472669068E-06</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -32938,7 +32938,7 @@
         <v>199</v>
       </c>
       <c r="F1576">
-        <v>3.071497997922737E-06</v>
+        <v>3.071497997923604E-06</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -32958,7 +32958,7 @@
         <v>200</v>
       </c>
       <c r="F1577">
-        <v>0.0004718799547638658</v>
+        <v>0.0004718799547638666</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -32978,7 +32978,7 @@
         <v>201</v>
       </c>
       <c r="F1578">
-        <v>1.022699309369095E-05</v>
+        <v>1.022699309369181E-05</v>
       </c>
     </row>
     <row r="1579" spans="1:6">
@@ -32998,7 +32998,7 @@
         <v>202</v>
       </c>
       <c r="F1579">
-        <v>2.826222020286834E-05</v>
+        <v>2.826222020287008E-05</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -33018,7 +33018,7 @@
         <v>203</v>
       </c>
       <c r="F1580">
-        <v>-0.000116431714999996</v>
+        <v>-0.0001164317149999951</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -33038,7 +33038,7 @@
         <v>204</v>
       </c>
       <c r="F1581">
-        <v>-0.0001820441159112209</v>
+        <v>-0.00018204411591122</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -33078,7 +33078,7 @@
         <v>206</v>
       </c>
       <c r="F1583">
-        <v>2.211545694202725E-06</v>
+        <v>2.211545694203593E-06</v>
       </c>
     </row>
     <row r="1584" spans="1:6">
@@ -33098,7 +33098,7 @@
         <v>207</v>
       </c>
       <c r="F1584">
-        <v>-3.994542241343192E-06</v>
+        <v>-3.994542241342325E-06</v>
       </c>
     </row>
     <row r="1585" spans="1:6">
@@ -33118,7 +33118,7 @@
         <v>208</v>
       </c>
       <c r="F1585">
-        <v>-1.055862940985402E-05</v>
+        <v>-1.055862940985315E-05</v>
       </c>
     </row>
     <row r="1586" spans="1:6">
@@ -33138,7 +33138,7 @@
         <v>209</v>
       </c>
       <c r="F1586">
-        <v>-3.415916381898851E-06</v>
+        <v>-3.415916381896249E-06</v>
       </c>
     </row>
     <row r="1587" spans="1:6">
@@ -33158,7 +33158,7 @@
         <v>210</v>
       </c>
       <c r="F1587">
-        <v>-4.460852087626553E-06</v>
+        <v>-4.460852087625686E-06</v>
       </c>
     </row>
     <row r="1588" spans="1:6">
@@ -33178,7 +33178,7 @@
         <v>211</v>
       </c>
       <c r="F1588">
-        <v>-4.557376960632846E-05</v>
+        <v>-4.557376960632759E-05</v>
       </c>
     </row>
     <row r="1589" spans="1:6">
@@ -33198,7 +33198,7 @@
         <v>212</v>
       </c>
       <c r="F1589">
-        <v>-6.080367525941772E-05</v>
+        <v>-6.080367525941686E-05</v>
       </c>
     </row>
     <row r="1590" spans="1:6">
@@ -33218,7 +33218,7 @@
         <v>213</v>
       </c>
       <c r="F1590">
-        <v>-3.244133650864151E-08</v>
+        <v>-3.244133650777414E-08</v>
       </c>
     </row>
     <row r="1591" spans="1:6">
@@ -33238,7 +33238,7 @@
         <v>214</v>
       </c>
       <c r="F1591">
-        <v>-6.057054740669747E-06</v>
+        <v>-6.057054740668012E-06</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -33258,7 +33258,7 @@
         <v>215</v>
       </c>
       <c r="F1592">
-        <v>5.146685174924753E-06</v>
+        <v>5.146685174926488E-06</v>
       </c>
     </row>
     <row r="1593" spans="1:6">
@@ -33278,7 +33278,7 @@
         <v>216</v>
       </c>
       <c r="F1593">
-        <v>4.062313794619271E-05</v>
+        <v>4.062313794619358E-05</v>
       </c>
     </row>
     <row r="1594" spans="1:6">
@@ -33298,7 +33298,7 @@
         <v>217</v>
       </c>
       <c r="F1594">
-        <v>-1.160336374742346E-06</v>
+        <v>-1.160336374741479E-06</v>
       </c>
     </row>
     <row r="1595" spans="1:6">
@@ -33318,7 +33318,7 @@
         <v>218</v>
       </c>
       <c r="F1595">
-        <v>-9.959294186467384E-05</v>
+        <v>-9.959294186467297E-05</v>
       </c>
     </row>
     <row r="1596" spans="1:6">
@@ -33338,7 +33338,7 @@
         <v>219</v>
       </c>
       <c r="F1596">
-        <v>0.0001089085722663649</v>
+        <v>0.0001089085722663658</v>
       </c>
     </row>
     <row r="1597" spans="1:6">
@@ -33358,7 +33358,7 @@
         <v>220</v>
       </c>
       <c r="F1597">
-        <v>2.844756542281189E-05</v>
+        <v>2.844756542281276E-05</v>
       </c>
     </row>
     <row r="1598" spans="1:6">
@@ -33378,7 +33378,7 @@
         <v>221</v>
       </c>
       <c r="F1598">
-        <v>5.04014105853854E-06</v>
+        <v>5.040141058539407E-06</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -33398,7 +33398,7 @@
         <v>222</v>
       </c>
       <c r="F1599">
-        <v>6.699693224168635E-05</v>
+        <v>6.699693224168721E-05</v>
       </c>
     </row>
     <row r="1600" spans="1:6">
@@ -33418,7 +33418,7 @@
         <v>223</v>
       </c>
       <c r="F1600">
-        <v>-7.092475490741608E-06</v>
+        <v>-7.092475490740741E-06</v>
       </c>
     </row>
     <row r="1601" spans="1:6">
@@ -33438,7 +33438,7 @@
         <v>224</v>
       </c>
       <c r="F1601">
-        <v>5.129819698169655E-05</v>
+        <v>5.129819698169742E-05</v>
       </c>
     </row>
     <row r="1602" spans="1:6">
@@ -33458,7 +33458,7 @@
         <v>225</v>
       </c>
       <c r="F1602">
-        <v>7.762066819006451E-05</v>
+        <v>7.762066819006538E-05</v>
       </c>
     </row>
     <row r="1603" spans="1:6">
@@ -33478,7 +33478,7 @@
         <v>226</v>
       </c>
       <c r="F1603">
-        <v>3.130588194192631E-06</v>
+        <v>3.130588194193498E-06</v>
       </c>
     </row>
     <row r="1604" spans="1:6">
@@ -33498,7 +33498,7 @@
         <v>227</v>
       </c>
       <c r="F1604">
-        <v>9.476619826538635E-07</v>
+        <v>9.476619826547308E-07</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -33538,7 +33538,7 @@
         <v>229</v>
       </c>
       <c r="F1606">
-        <v>2.902657759855983E-05</v>
+        <v>2.90265775985607E-05</v>
       </c>
     </row>
     <row r="1607" spans="1:6">
@@ -33558,7 +33558,7 @@
         <v>230</v>
       </c>
       <c r="F1607">
-        <v>8.663058908076234E-06</v>
+        <v>8.663058908077101E-06</v>
       </c>
     </row>
     <row r="1608" spans="1:6">
@@ -33578,7 +33578,7 @@
         <v>231</v>
       </c>
       <c r="F1608">
-        <v>0.0001366574661793608</v>
+        <v>0.0001366574661793617</v>
       </c>
     </row>
     <row r="1609" spans="1:6">
@@ -33598,7 +33598,7 @@
         <v>232</v>
       </c>
       <c r="F1609">
-        <v>1.196548632995988E-06</v>
+        <v>1.196548632996855E-06</v>
       </c>
     </row>
     <row r="1610" spans="1:6">
@@ -33618,7 +33618,7 @@
         <v>233</v>
       </c>
       <c r="F1610">
-        <v>1.401163777853091E-06</v>
+        <v>1.401163777853959E-06</v>
       </c>
     </row>
     <row r="1611" spans="1:6">
@@ -33638,7 +33638,7 @@
         <v>234</v>
       </c>
       <c r="F1611">
-        <v>0.0001708384570282967</v>
+        <v>0.0001708384570282976</v>
       </c>
     </row>
     <row r="1612" spans="1:6">
@@ -33658,7 +33658,7 @@
         <v>235</v>
       </c>
       <c r="F1612">
-        <v>-3.088904336145948E-06</v>
+        <v>-3.088904336144213E-06</v>
       </c>
     </row>
     <row r="1613" spans="1:6">
@@ -33678,7 +33678,7 @@
         <v>236</v>
       </c>
       <c r="F1613">
-        <v>-1.374051912487496E-06</v>
+        <v>-1.374051912486629E-06</v>
       </c>
     </row>
     <row r="1614" spans="1:6">
@@ -33698,7 +33698,7 @@
         <v>237</v>
       </c>
       <c r="F1614">
-        <v>-0.0001033993423588406</v>
+        <v>-0.0001033993423588397</v>
       </c>
     </row>
     <row r="1615" spans="1:6">
@@ -33718,7 +33718,7 @@
         <v>238</v>
       </c>
       <c r="F1615">
-        <v>5.171816406374877E-05</v>
+        <v>5.171816406374964E-05</v>
       </c>
     </row>
     <row r="1616" spans="1:6">
@@ -33738,7 +33738,7 @@
         <v>239</v>
       </c>
       <c r="F1616">
-        <v>-4.827744439251345E-06</v>
+        <v>-4.827744439249611E-06</v>
       </c>
     </row>
     <row r="1617" spans="1:6">
@@ -33778,7 +33778,7 @@
         <v>241</v>
       </c>
       <c r="F1618">
-        <v>-0.0001452157944480566</v>
+        <v>-0.0001452157944480557</v>
       </c>
     </row>
     <row r="1619" spans="1:6">
@@ -33798,7 +33798,7 @@
         <v>242</v>
       </c>
       <c r="F1619">
-        <v>7.194172151338187E-05</v>
+        <v>7.194172151338274E-05</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -33818,7 +33818,7 @@
         <v>243</v>
       </c>
       <c r="F1620">
-        <v>8.339101319794397E-05</v>
+        <v>8.339101319794484E-05</v>
       </c>
     </row>
     <row r="1621" spans="1:6">
@@ -33838,7 +33838,7 @@
         <v>244</v>
       </c>
       <c r="F1621">
-        <v>3.301747632994401E-06</v>
+        <v>3.301747632995268E-06</v>
       </c>
     </row>
     <row r="1622" spans="1:6">
@@ -33858,7 +33858,7 @@
         <v>245</v>
       </c>
       <c r="F1622">
-        <v>-5.130723495315286E-05</v>
+        <v>-5.130723495315112E-05</v>
       </c>
     </row>
     <row r="1623" spans="1:6">
@@ -33878,7 +33878,7 @@
         <v>246</v>
       </c>
       <c r="F1623">
-        <v>5.140750959718113E-05</v>
+        <v>5.1407509597182E-05</v>
       </c>
     </row>
     <row r="1624" spans="1:6">
@@ -33898,7 +33898,7 @@
         <v>247</v>
       </c>
       <c r="F1624">
-        <v>-1.618681605692132E-06</v>
+        <v>-1.618681605691265E-06</v>
       </c>
     </row>
     <row r="1625" spans="1:6">
@@ -33918,7 +33918,7 @@
         <v>248</v>
       </c>
       <c r="F1625">
-        <v>1.079723955096923E-05</v>
+        <v>1.07972395509701E-05</v>
       </c>
     </row>
     <row r="1626" spans="1:6">
@@ -33938,7 +33938,7 @@
         <v>249</v>
       </c>
       <c r="F1626">
-        <v>7.294229362004006E-05</v>
+        <v>7.294229362004093E-05</v>
       </c>
     </row>
     <row r="1627" spans="1:6">
@@ -33958,7 +33958,7 @@
         <v>250</v>
       </c>
       <c r="F1627">
-        <v>-3.988465735215926E-06</v>
+        <v>-3.988465735215059E-06</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -33978,7 +33978,7 @@
         <v>251</v>
       </c>
       <c r="F1628">
-        <v>-0.0001007158564702753</v>
+        <v>-0.0001007158564702744</v>
       </c>
     </row>
     <row r="1629" spans="1:6">
@@ -34038,7 +34038,7 @@
         <v>254</v>
       </c>
       <c r="F1631">
-        <v>-1.8258357534621E-05</v>
+        <v>-1.825835753462013E-05</v>
       </c>
     </row>
     <row r="1632" spans="1:6">
@@ -34058,7 +34058,7 @@
         <v>255</v>
       </c>
       <c r="F1632">
-        <v>5.539468774093045E-07</v>
+        <v>5.539468774101719E-07</v>
       </c>
     </row>
     <row r="1633" spans="1:6">
@@ -34078,7 +34078,7 @@
         <v>256</v>
       </c>
       <c r="F1633">
-        <v>6.483572674107277E-05</v>
+        <v>6.48357267410745E-05</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -34118,7 +34118,7 @@
         <v>258</v>
       </c>
       <c r="F1635">
-        <v>-5.727912719758789E-06</v>
+        <v>-5.727912719757922E-06</v>
       </c>
     </row>
     <row r="1636" spans="1:6">
@@ -34138,7 +34138,7 @@
         <v>259</v>
       </c>
       <c r="F1636">
-        <v>-0.0004505577242892951</v>
+        <v>-0.0004505577242892942</v>
       </c>
     </row>
     <row r="1637" spans="1:6">
@@ -34158,7 +34158,7 @@
         <v>260</v>
       </c>
       <c r="F1637">
-        <v>4.754859402383502E-07</v>
+        <v>4.754859402392175E-07</v>
       </c>
     </row>
     <row r="1638" spans="1:6">
@@ -34178,7 +34178,7 @@
         <v>261</v>
       </c>
       <c r="F1638">
-        <v>1.37256713454801E-05</v>
+        <v>1.372567134548097E-05</v>
       </c>
     </row>
     <row r="1639" spans="1:6">
@@ -34198,7 +34198,7 @@
         <v>262</v>
       </c>
       <c r="F1639">
-        <v>-9.232934791388904E-06</v>
+        <v>-9.232934791387169E-06</v>
       </c>
     </row>
     <row r="1640" spans="1:6">
@@ -34218,7 +34218,7 @@
         <v>263</v>
       </c>
       <c r="F1640">
-        <v>-3.886588793758187E-05</v>
+        <v>-3.886588793758101E-05</v>
       </c>
     </row>
     <row r="1641" spans="1:6">
@@ -34238,7 +34238,7 @@
         <v>264</v>
       </c>
       <c r="F1641">
-        <v>-2.47277913917451E-05</v>
+        <v>-2.472779139174337E-05</v>
       </c>
     </row>
     <row r="1642" spans="1:6">
@@ -34258,7 +34258,7 @@
         <v>265</v>
       </c>
       <c r="F1642">
-        <v>3.71730993845281E-06</v>
+        <v>3.717309938453678E-06</v>
       </c>
     </row>
     <row r="1643" spans="1:6">
@@ -34278,7 +34278,7 @@
         <v>266</v>
       </c>
       <c r="F1643">
-        <v>0.000199780134839839</v>
+        <v>0.0001997801348398399</v>
       </c>
     </row>
     <row r="1644" spans="1:6">
@@ -34318,7 +34318,7 @@
         <v>268</v>
       </c>
       <c r="F1645">
-        <v>0.0004225272690743685</v>
+        <v>0.0004225272690743694</v>
       </c>
     </row>
     <row r="1646" spans="1:6">
@@ -34338,7 +34338,7 @@
         <v>269</v>
       </c>
       <c r="F1646">
-        <v>-4.413130513735916E-05</v>
+        <v>-4.413130513735829E-05</v>
       </c>
     </row>
     <row r="1647" spans="1:6">
@@ -34358,7 +34358,7 @@
         <v>270</v>
       </c>
       <c r="F1647">
-        <v>-1.237637477639539E-06</v>
+        <v>-1.237637477638671E-06</v>
       </c>
     </row>
     <row r="1648" spans="1:6">
@@ -34378,7 +34378,7 @@
         <v>271</v>
       </c>
       <c r="F1648">
-        <v>-5.72006990622086E-05</v>
+        <v>-5.720069906220773E-05</v>
       </c>
     </row>
     <row r="1649" spans="1:6">
@@ -34398,7 +34398,7 @@
         <v>272</v>
       </c>
       <c r="F1649">
-        <v>-4.360247891306568E-05</v>
+        <v>-4.360247891306481E-05</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -34418,7 +34418,7 @@
         <v>273</v>
       </c>
       <c r="F1650">
-        <v>4.134677446350141E-07</v>
+        <v>4.134677446358814E-07</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -34438,7 +34438,7 @@
         <v>274</v>
       </c>
       <c r="F1651">
-        <v>0.0007700735047498804</v>
+        <v>0.0007700735047498812</v>
       </c>
     </row>
     <row r="1652" spans="1:6">
@@ -34458,7 +34458,7 @@
         <v>275</v>
       </c>
       <c r="F1652">
-        <v>0.0005426144694203059</v>
+        <v>0.0005426144694203067</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -34498,7 +34498,7 @@
         <v>277</v>
       </c>
       <c r="F1654">
-        <v>6.441563026838952E-06</v>
+        <v>6.441563026839819E-06</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -34518,7 +34518,7 @@
         <v>278</v>
       </c>
       <c r="F1655">
-        <v>1.992631563452717E-06</v>
+        <v>1.992631563453584E-06</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -34538,7 +34538,7 @@
         <v>279</v>
       </c>
       <c r="F1656">
-        <v>-3.003947522894467E-05</v>
+        <v>-3.00394752289438E-05</v>
       </c>
     </row>
     <row r="1657" spans="1:6">
@@ -34558,7 +34558,7 @@
         <v>280</v>
       </c>
       <c r="F1657">
-        <v>-3.081906945270885E-07</v>
+        <v>-3.081906945262211E-07</v>
       </c>
     </row>
     <row r="1658" spans="1:6">
@@ -34578,7 +34578,7 @@
         <v>281</v>
       </c>
       <c r="F1658">
-        <v>-3.943778713669244E-07</v>
+        <v>-3.94377871366057E-07</v>
       </c>
     </row>
     <row r="1659" spans="1:6">
@@ -34598,7 +34598,7 @@
         <v>282</v>
       </c>
       <c r="F1659">
-        <v>0.0003241293658135221</v>
+        <v>0.000324129365813523</v>
       </c>
     </row>
     <row r="1660" spans="1:6">
@@ -34618,7 +34618,7 @@
         <v>283</v>
       </c>
       <c r="F1660">
-        <v>0.0006935414732317001</v>
+        <v>0.000693541473231701</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -34638,7 +34638,7 @@
         <v>284</v>
       </c>
       <c r="F1661">
-        <v>-4.684683993054928E-05</v>
+        <v>-4.684683993054842E-05</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -34658,7 +34658,7 @@
         <v>285</v>
       </c>
       <c r="F1662">
-        <v>-2.822299115452613E-05</v>
+        <v>-2.82229911545244E-05</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -34678,7 +34678,7 @@
         <v>286</v>
       </c>
       <c r="F1663">
-        <v>9.04322710427747E-06</v>
+        <v>9.043227104278337E-06</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -34698,7 +34698,7 @@
         <v>287</v>
       </c>
       <c r="F1664">
-        <v>6.311599690264624E-05</v>
+        <v>6.311599690264711E-05</v>
       </c>
     </row>
     <row r="1665" spans="1:6">
@@ -34718,7 +34718,7 @@
         <v>288</v>
       </c>
       <c r="F1665">
-        <v>0.0002019131440819683</v>
+        <v>0.0002019131440819692</v>
       </c>
     </row>
     <row r="1666" spans="1:6">
@@ -34738,7 +34738,7 @@
         <v>289</v>
       </c>
       <c r="F1666">
-        <v>-3.518919786788671E-05</v>
+        <v>-3.518919786788584E-05</v>
       </c>
     </row>
     <row r="1667" spans="1:6">
@@ -34758,7 +34758,7 @@
         <v>290</v>
       </c>
       <c r="F1667">
-        <v>3.380403657410325E-06</v>
+        <v>3.380403657412059E-06</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -34778,7 +34778,7 @@
         <v>291</v>
       </c>
       <c r="F1668">
-        <v>0.000138680005213397</v>
+        <v>0.0001386800052133978</v>
       </c>
     </row>
     <row r="1669" spans="1:6">
@@ -34798,7 +34798,7 @@
         <v>292</v>
       </c>
       <c r="F1669">
-        <v>-1.094169975724563E-06</v>
+        <v>-1.094169975722828E-06</v>
       </c>
     </row>
     <row r="1670" spans="1:6">
@@ -34818,7 +34818,7 @@
         <v>293</v>
       </c>
       <c r="F1670">
-        <v>7.572527218614299E-05</v>
+        <v>7.572527218614386E-05</v>
       </c>
     </row>
     <row r="1671" spans="1:6">
@@ -34838,7 +34838,7 @@
         <v>294</v>
       </c>
       <c r="F1671">
-        <v>-0.0001987764692205525</v>
+        <v>-0.0001987764692205516</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -34858,7 +34858,7 @@
         <v>295</v>
       </c>
       <c r="F1672">
-        <v>9.026959500969822E-05</v>
+        <v>9.026959500969996E-05</v>
       </c>
     </row>
     <row r="1673" spans="1:6">
@@ -34878,7 +34878,7 @@
         <v>296</v>
       </c>
       <c r="F1673">
-        <v>5.143951145870386E-06</v>
+        <v>5.143951145869519E-06</v>
       </c>
     </row>
     <row r="1674" spans="1:6">
@@ -34898,7 +34898,7 @@
         <v>5</v>
       </c>
       <c r="F1674">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1675" spans="1:6">
@@ -34918,7 +34918,7 @@
         <v>297</v>
       </c>
       <c r="F1675">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1676" spans="1:6">
@@ -34958,7 +34958,7 @@
         <v>297</v>
       </c>
       <c r="F1677">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1678" spans="1:6">
@@ -35018,7 +35018,7 @@
         <v>297</v>
       </c>
       <c r="F1680">
-        <v>3.65504606683729E-05</v>
+        <v>3.655046066837291E-05</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -35058,7 +35058,7 @@
         <v>5</v>
       </c>
       <c r="F1682">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -35258,7 +35258,7 @@
         <v>298</v>
       </c>
       <c r="F1692">
-        <v>-0.0003964810025083706</v>
+        <v>-0.0003964810025083707</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -35298,7 +35298,7 @@
         <v>300</v>
       </c>
       <c r="F1694">
-        <v>7.61456986995995E-05</v>
+        <v>7.614569869959952E-05</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -35318,7 +35318,7 @@
         <v>301</v>
       </c>
       <c r="F1695">
-        <v>0.0002680964464805023</v>
+        <v>0.0002680964464805024</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -35378,7 +35378,7 @@
         <v>304</v>
       </c>
       <c r="F1698">
-        <v>0.0002903040128418266</v>
+        <v>0.0002903040128418267</v>
       </c>
     </row>
     <row r="1699" spans="1:6">
@@ -35438,7 +35438,7 @@
         <v>298</v>
       </c>
       <c r="F1701">
-        <v>8.253960198266116E-07</v>
+        <v>8.253960198283464E-07</v>
       </c>
     </row>
     <row r="1702" spans="1:6">
@@ -35458,7 +35458,7 @@
         <v>299</v>
       </c>
       <c r="F1702">
-        <v>2.923440833588545E-07</v>
+        <v>2.923440833597218E-07</v>
       </c>
     </row>
     <row r="1703" spans="1:6">
@@ -35478,7 +35478,7 @@
         <v>300</v>
       </c>
       <c r="F1703">
-        <v>0.00102951627738718</v>
+        <v>0.001029516277387181</v>
       </c>
     </row>
     <row r="1704" spans="1:6">
@@ -35518,7 +35518,7 @@
         <v>302</v>
       </c>
       <c r="F1705">
-        <v>0.0008653014085821145</v>
+        <v>0.0008653014085821154</v>
       </c>
     </row>
     <row r="1706" spans="1:6">
@@ -35538,7 +35538,7 @@
         <v>303</v>
       </c>
       <c r="F1706">
-        <v>0.0002307194412212573</v>
+        <v>0.0002307194412212582</v>
       </c>
     </row>
     <row r="1707" spans="1:6">
@@ -35558,7 +35558,7 @@
         <v>304</v>
       </c>
       <c r="F1707">
-        <v>4.961427155351656E-05</v>
+        <v>4.961427155351743E-05</v>
       </c>
     </row>
     <row r="1708" spans="1:6">
@@ -35578,7 +35578,7 @@
         <v>305</v>
       </c>
       <c r="F1708">
-        <v>-4.299149072501448E-05</v>
+        <v>-4.299149072501361E-05</v>
       </c>
     </row>
     <row r="1709" spans="1:6">
@@ -35598,7 +35598,7 @@
         <v>306</v>
       </c>
       <c r="F1709">
-        <v>9.906986592964073E-07</v>
+        <v>9.906986592972747E-07</v>
       </c>
     </row>
     <row r="1710" spans="1:6">
@@ -35818,7 +35818,7 @@
         <v>298</v>
       </c>
       <c r="F1720">
-        <v>-0.000560750551248526</v>
+        <v>-0.0005607505512485262</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -35838,7 +35838,7 @@
         <v>299</v>
       </c>
       <c r="F1721">
-        <v>2.602370271076014E-05</v>
+        <v>2.602370271076015E-05</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -35898,7 +35898,7 @@
         <v>302</v>
       </c>
       <c r="F1724">
-        <v>-4.564260299075642E-05</v>
+        <v>-4.564260299075643E-05</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -35918,7 +35918,7 @@
         <v>303</v>
       </c>
       <c r="F1725">
-        <v>-0.0002368012047853544</v>
+        <v>-0.0002368012047853545</v>
       </c>
     </row>
     <row r="1726" spans="1:6">
@@ -35958,7 +35958,7 @@
         <v>305</v>
       </c>
       <c r="F1727">
-        <v>-4.437350894805172E-05</v>
+        <v>-4.437350894805173E-05</v>
       </c>
     </row>
     <row r="1728" spans="1:6">
@@ -35978,7 +35978,7 @@
         <v>306</v>
       </c>
       <c r="F1728">
-        <v>6.440402722446845E-07</v>
+        <v>6.440402722446846E-07</v>
       </c>
     </row>
     <row r="1729" spans="1:6">
@@ -35998,7 +35998,7 @@
         <v>298</v>
       </c>
       <c r="F1729">
-        <v>1.167373140675311E-06</v>
+        <v>1.167373140677046E-06</v>
       </c>
     </row>
     <row r="1730" spans="1:6">
@@ -36018,7 +36018,7 @@
         <v>299</v>
       </c>
       <c r="F1730">
-        <v>4.134677446350141E-07</v>
+        <v>4.134677446358814E-07</v>
       </c>
     </row>
     <row r="1731" spans="1:6">
@@ -36038,7 +36038,7 @@
         <v>300</v>
       </c>
       <c r="F1731">
-        <v>0.001456064266413379</v>
+        <v>0.00145606426641338</v>
       </c>
     </row>
     <row r="1732" spans="1:6">
@@ -36078,7 +36078,7 @@
         <v>302</v>
       </c>
       <c r="F1733">
-        <v>0.001223812083778976</v>
+        <v>0.001223812083778977</v>
       </c>
     </row>
     <row r="1734" spans="1:6">
@@ -36098,7 +36098,7 @@
         <v>303</v>
       </c>
       <c r="F1734">
-        <v>0.0003263108522982526</v>
+        <v>0.0003263108522982535</v>
       </c>
     </row>
     <row r="1735" spans="1:6">
@@ -36118,7 +36118,7 @@
         <v>304</v>
       </c>
       <c r="F1735">
-        <v>7.017039895333005E-05</v>
+        <v>7.017039895333092E-05</v>
       </c>
     </row>
     <row r="1736" spans="1:6">
@@ -36138,7 +36138,7 @@
         <v>305</v>
       </c>
       <c r="F1736">
-        <v>-6.080367525941772E-05</v>
+        <v>-6.080367525941686E-05</v>
       </c>
     </row>
     <row r="1737" spans="1:6">
@@ -36158,7 +36158,7 @@
         <v>306</v>
       </c>
       <c r="F1737">
-        <v>1.401163777853091E-06</v>
+        <v>1.401163777853959E-06</v>
       </c>
     </row>
     <row r="1738" spans="1:6">
@@ -36178,7 +36178,7 @@
         <v>5</v>
       </c>
       <c r="F1738">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1739" spans="1:6">
@@ -36918,7 +36918,7 @@
         <v>309</v>
       </c>
       <c r="F1775">
-        <v>-5.486445735778354E-06</v>
+        <v>-5.486445735778355E-06</v>
       </c>
     </row>
     <row r="1776" spans="1:6">
@@ -36958,7 +36958,7 @@
         <v>311</v>
       </c>
       <c r="F1777">
-        <v>5.037181815919626E-06</v>
+        <v>5.037181815919627E-06</v>
       </c>
     </row>
     <row r="1778" spans="1:6">
@@ -36978,7 +36978,7 @@
         <v>298</v>
       </c>
       <c r="F1778">
-        <v>-0.0003964810025083706</v>
+        <v>-0.0003964810025083707</v>
       </c>
     </row>
     <row r="1779" spans="1:6">
@@ -37038,7 +37038,7 @@
         <v>314</v>
       </c>
       <c r="F1781">
-        <v>-2.963935248917971E-07</v>
+        <v>-2.963935248917972E-07</v>
       </c>
     </row>
     <row r="1782" spans="1:6">
@@ -37078,7 +37078,7 @@
         <v>316</v>
       </c>
       <c r="F1783">
-        <v>9.283619916645352E-05</v>
+        <v>9.283619916645354E-05</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -37098,7 +37098,7 @@
         <v>317</v>
       </c>
       <c r="F1784">
-        <v>1.076508325854156E-05</v>
+        <v>1.076508325854157E-05</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -37158,7 +37158,7 @@
         <v>320</v>
       </c>
       <c r="F1787">
-        <v>7.958924833099589E-06</v>
+        <v>7.958924833099591E-06</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -37198,7 +37198,7 @@
         <v>322</v>
       </c>
       <c r="F1789">
-        <v>-8.739345039482123E-06</v>
+        <v>-8.739345039482124E-06</v>
       </c>
     </row>
     <row r="1790" spans="1:6">
@@ -37218,7 +37218,7 @@
         <v>323</v>
       </c>
       <c r="F1790">
-        <v>5.501927454670702E-06</v>
+        <v>5.501927454670703E-06</v>
       </c>
     </row>
     <row r="1791" spans="1:6">
@@ -37258,7 +37258,7 @@
         <v>325</v>
       </c>
       <c r="F1792">
-        <v>-3.922983732198804E-05</v>
+        <v>-3.922983732198805E-05</v>
       </c>
     </row>
     <row r="1793" spans="1:6">
@@ -37278,7 +37278,7 @@
         <v>326</v>
       </c>
       <c r="F1793">
-        <v>-7.066047623044321E-06</v>
+        <v>-7.066047623044323E-06</v>
       </c>
     </row>
     <row r="1794" spans="1:6">
@@ -37318,7 +37318,7 @@
         <v>327</v>
       </c>
       <c r="F1795">
-        <v>0.0001617594898547842</v>
+        <v>0.0001617594898547843</v>
       </c>
     </row>
     <row r="1796" spans="1:6">
@@ -37338,7 +37338,7 @@
         <v>328</v>
       </c>
       <c r="F1796">
-        <v>-2.383464635530064E-06</v>
+        <v>-2.383464635530065E-06</v>
       </c>
     </row>
     <row r="1797" spans="1:6">
@@ -37378,7 +37378,7 @@
         <v>330</v>
       </c>
       <c r="F1798">
-        <v>0.0003402303854218892</v>
+        <v>0.0003402303854218893</v>
       </c>
     </row>
     <row r="1799" spans="1:6">
@@ -37418,7 +37418,7 @@
         <v>332</v>
       </c>
       <c r="F1800">
-        <v>9.379445337083036E-05</v>
+        <v>9.379445337083038E-05</v>
       </c>
     </row>
     <row r="1801" spans="1:6">
@@ -37458,7 +37458,7 @@
         <v>333</v>
       </c>
       <c r="F1802">
-        <v>-1.490983556772114E-05</v>
+        <v>-1.490983556772115E-05</v>
       </c>
     </row>
     <row r="1803" spans="1:6">
@@ -37478,7 +37478,7 @@
         <v>334</v>
       </c>
       <c r="F1803">
-        <v>-0.0001240566841490275</v>
+        <v>-0.0001240566841490276</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
@@ -37498,7 +37498,7 @@
         <v>335</v>
       </c>
       <c r="F1804">
-        <v>-0.0004182205005228253</v>
+        <v>-0.0004182205005228254</v>
       </c>
     </row>
     <row r="1805" spans="1:6">
@@ -37558,7 +37558,7 @@
         <v>307</v>
       </c>
       <c r="F1807">
-        <v>0.0005005526395895493</v>
+        <v>0.0005005526395895515</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
@@ -37578,7 +37578,7 @@
         <v>308</v>
       </c>
       <c r="F1808">
-        <v>0.0003913777386315067</v>
+        <v>0.0003913777386315076</v>
       </c>
     </row>
     <row r="1809" spans="1:6">
@@ -37598,7 +37598,7 @@
         <v>309</v>
       </c>
       <c r="F1809">
-        <v>-6.429794153780567E-06</v>
+        <v>-6.4297941537797E-06</v>
       </c>
     </row>
     <row r="1810" spans="1:6">
@@ -37618,7 +37618,7 @@
         <v>310</v>
       </c>
       <c r="F1810">
-        <v>6.166889745226438E-06</v>
+        <v>6.166889745227305E-06</v>
       </c>
     </row>
     <row r="1811" spans="1:6">
@@ -37638,7 +37638,7 @@
         <v>311</v>
       </c>
       <c r="F1811">
-        <v>-1.499638388857433E-05</v>
+        <v>-1.499638388857347E-05</v>
       </c>
     </row>
     <row r="1812" spans="1:6">
@@ -37658,7 +37658,7 @@
         <v>298</v>
       </c>
       <c r="F1812">
-        <v>8.253960198266116E-07</v>
+        <v>8.253960198283464E-07</v>
       </c>
     </row>
     <row r="1813" spans="1:6">
@@ -37678,7 +37678,7 @@
         <v>312</v>
       </c>
       <c r="F1813">
-        <v>-9.72519070066985E-05</v>
+        <v>-9.725190700669763E-05</v>
       </c>
     </row>
     <row r="1814" spans="1:6">
@@ -37698,7 +37698,7 @@
         <v>313</v>
       </c>
       <c r="F1814">
-        <v>-1.278294289179353E-06</v>
+        <v>-1.278294289178486E-06</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -37718,7 +37718,7 @@
         <v>314</v>
       </c>
       <c r="F1815">
-        <v>2.428390922437282E-07</v>
+        <v>2.428390922445955E-07</v>
       </c>
     </row>
     <row r="1816" spans="1:6">
@@ -37738,7 +37738,7 @@
         <v>315</v>
       </c>
       <c r="F1816">
-        <v>9.642603815200167E-05</v>
+        <v>9.642603815200341E-05</v>
       </c>
     </row>
     <row r="1817" spans="1:6">
@@ -37758,7 +37758,7 @@
         <v>316</v>
       </c>
       <c r="F1817">
-        <v>-8.497110955517188E-05</v>
+        <v>-8.497110955517102E-05</v>
       </c>
     </row>
     <row r="1818" spans="1:6">
@@ -37778,7 +37778,7 @@
         <v>317</v>
       </c>
       <c r="F1818">
-        <v>7.700425762896101E-05</v>
+        <v>7.700425762896188E-05</v>
       </c>
     </row>
     <row r="1819" spans="1:6">
@@ -37798,7 +37798,7 @@
         <v>318</v>
       </c>
       <c r="F1819">
-        <v>2.923440833588545E-07</v>
+        <v>2.923440833597218E-07</v>
       </c>
     </row>
     <row r="1820" spans="1:6">
@@ -37818,7 +37818,7 @@
         <v>319</v>
       </c>
       <c r="F1820">
-        <v>-4.299149072501448E-05</v>
+        <v>-4.299149072501361E-05</v>
       </c>
     </row>
     <row r="1821" spans="1:6">
@@ -37838,7 +37838,7 @@
         <v>320</v>
       </c>
       <c r="F1821">
-        <v>2.767897389007769E-05</v>
+        <v>2.767897389007856E-05</v>
       </c>
     </row>
     <row r="1822" spans="1:6">
@@ -37858,7 +37858,7 @@
         <v>321</v>
       </c>
       <c r="F1822">
-        <v>0.0001217122383862113</v>
+        <v>0.0001217122383862131</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -37878,7 +37878,7 @@
         <v>322</v>
       </c>
       <c r="F1823">
-        <v>0.0001241031030028272</v>
+        <v>0.000124103103002828</v>
       </c>
     </row>
     <row r="1824" spans="1:6">
@@ -37898,7 +37898,7 @@
         <v>323</v>
       </c>
       <c r="F1824">
-        <v>1.077247091936604E-05</v>
+        <v>1.077247091936691E-05</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -37918,7 +37918,7 @@
         <v>324</v>
       </c>
       <c r="F1825">
-        <v>-1.685372171327491E-05</v>
+        <v>-1.685372171327405E-05</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -37938,7 +37938,7 @@
         <v>325</v>
       </c>
       <c r="F1826">
-        <v>2.01139690948959E-05</v>
+        <v>2.011396909489677E-05</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -37958,7 +37958,7 @@
         <v>326</v>
       </c>
       <c r="F1827">
-        <v>-2.363398123693752E-06</v>
+        <v>-2.363398123692885E-06</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -37978,7 +37978,7 @@
         <v>302</v>
       </c>
       <c r="F1828">
-        <v>-7.041760252459069E-05</v>
+        <v>-7.041760252458982E-05</v>
       </c>
     </row>
     <row r="1829" spans="1:6">
@@ -37998,7 +37998,7 @@
         <v>327</v>
       </c>
       <c r="F1829">
-        <v>-0.0001597270934922471</v>
+        <v>-0.0001597270934922462</v>
       </c>
     </row>
     <row r="1830" spans="1:6">
@@ -38038,7 +38038,7 @@
         <v>329</v>
       </c>
       <c r="F1831">
-        <v>-0.0002135837866641156</v>
+        <v>-0.0002135837866641148</v>
       </c>
     </row>
     <row r="1832" spans="1:6">
@@ -38058,7 +38058,7 @@
         <v>330</v>
       </c>
       <c r="F1832">
-        <v>0.0007403299253123802</v>
+        <v>0.000740329925312381</v>
       </c>
     </row>
     <row r="1833" spans="1:6">
@@ -38078,7 +38078,7 @@
         <v>331</v>
       </c>
       <c r="F1833">
-        <v>0.0003336446787467577</v>
+        <v>0.0003336446787467586</v>
       </c>
     </row>
     <row r="1834" spans="1:6">
@@ -38118,7 +38118,7 @@
         <v>306</v>
       </c>
       <c r="F1835">
-        <v>9.906986592964073E-07</v>
+        <v>9.906986592972747E-07</v>
       </c>
     </row>
     <row r="1836" spans="1:6">
@@ -38138,7 +38138,7 @@
         <v>333</v>
       </c>
       <c r="F1836">
-        <v>6.801033860381629E-05</v>
+        <v>6.801033860381715E-05</v>
       </c>
     </row>
     <row r="1837" spans="1:6">
@@ -38158,7 +38158,7 @@
         <v>334</v>
       </c>
       <c r="F1837">
-        <v>8.30331727941962E-05</v>
+        <v>8.303317279419707E-05</v>
       </c>
     </row>
     <row r="1838" spans="1:6">
@@ -38178,7 +38178,7 @@
         <v>335</v>
       </c>
       <c r="F1838">
-        <v>-0.0007298194225236979</v>
+        <v>-0.0007298194225236971</v>
       </c>
     </row>
     <row r="1839" spans="1:6">
@@ -38198,7 +38198,7 @@
         <v>336</v>
       </c>
       <c r="F1839">
-        <v>0.0003506871434045631</v>
+        <v>0.0003506871434045648</v>
       </c>
     </row>
     <row r="1840" spans="1:6">
@@ -38218,7 +38218,7 @@
         <v>337</v>
       </c>
       <c r="F1840">
-        <v>-5.465002394756946E-05</v>
+        <v>-5.465002394756772E-05</v>
       </c>
     </row>
     <row r="1841" spans="1:6">
@@ -38978,7 +38978,7 @@
         <v>309</v>
       </c>
       <c r="F1878">
-        <v>-7.75958356458172E-06</v>
+        <v>-7.759583564581721E-06</v>
       </c>
     </row>
     <row r="1879" spans="1:6">
@@ -38998,7 +38998,7 @@
         <v>310</v>
       </c>
       <c r="F1879">
-        <v>7.33385728117854E-06</v>
+        <v>7.333857281178541E-06</v>
       </c>
     </row>
     <row r="1880" spans="1:6">
@@ -39018,7 +39018,7 @@
         <v>311</v>
       </c>
       <c r="F1880">
-        <v>7.124181138934513E-06</v>
+        <v>7.124181138934514E-06</v>
       </c>
     </row>
     <row r="1881" spans="1:6">
@@ -39038,7 +39038,7 @@
         <v>298</v>
       </c>
       <c r="F1881">
-        <v>-0.000560750551248526</v>
+        <v>-0.0005607505512485262</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -39058,7 +39058,7 @@
         <v>312</v>
       </c>
       <c r="F1882">
-        <v>-1.01693609230825E-05</v>
+        <v>-1.016936092308251E-05</v>
       </c>
     </row>
     <row r="1883" spans="1:6">
@@ -39178,7 +39178,7 @@
         <v>318</v>
       </c>
       <c r="F1888">
-        <v>2.602370271076014E-05</v>
+        <v>2.602370271076015E-05</v>
       </c>
     </row>
     <row r="1889" spans="1:6">
@@ -39198,7 +39198,7 @@
         <v>319</v>
       </c>
       <c r="F1889">
-        <v>-4.437350894805172E-05</v>
+        <v>-4.437350894805173E-05</v>
       </c>
     </row>
     <row r="1890" spans="1:6">
@@ -39238,7 +39238,7 @@
         <v>321</v>
       </c>
       <c r="F1891">
-        <v>0.0001594745987415806</v>
+        <v>0.0001594745987415807</v>
       </c>
     </row>
     <row r="1892" spans="1:6">
@@ -39278,7 +39278,7 @@
         <v>323</v>
       </c>
       <c r="F1893">
-        <v>7.781479651274993E-06</v>
+        <v>7.781479651274994E-06</v>
       </c>
     </row>
     <row r="1894" spans="1:6">
@@ -39298,7 +39298,7 @@
         <v>324</v>
       </c>
       <c r="F1894">
-        <v>-3.386688381370031E-05</v>
+        <v>-3.386688381370032E-05</v>
       </c>
     </row>
     <row r="1895" spans="1:6">
@@ -39398,7 +39398,7 @@
         <v>328</v>
       </c>
       <c r="F1899">
-        <v>-3.370978936693526E-06</v>
+        <v>-3.370978936693527E-06</v>
       </c>
     </row>
     <row r="1900" spans="1:6">
@@ -39498,7 +39498,7 @@
         <v>306</v>
       </c>
       <c r="F1904">
-        <v>6.440402722446845E-07</v>
+        <v>6.440402722446846E-07</v>
       </c>
     </row>
     <row r="1905" spans="1:6">
@@ -39578,7 +39578,7 @@
         <v>336</v>
       </c>
       <c r="F1908">
-        <v>-2.406862767006395E-06</v>
+        <v>-2.406862767006396E-06</v>
       </c>
     </row>
     <row r="1909" spans="1:6">
@@ -39618,7 +39618,7 @@
         <v>307</v>
       </c>
       <c r="F1910">
-        <v>0.0007079410282030312</v>
+        <v>0.0007079410282030347</v>
       </c>
     </row>
     <row r="1911" spans="1:6">
@@ -39638,7 +39638,7 @@
         <v>308</v>
       </c>
       <c r="F1911">
-        <v>0.0005535329090058626</v>
+        <v>0.0005535329090058634</v>
       </c>
     </row>
     <row r="1912" spans="1:6">
@@ -39658,7 +39658,7 @@
         <v>309</v>
       </c>
       <c r="F1912">
-        <v>-9.093779004129381E-06</v>
+        <v>-9.093779004128513E-06</v>
       </c>
     </row>
     <row r="1913" spans="1:6">
@@ -39678,7 +39678,7 @@
         <v>310</v>
       </c>
       <c r="F1913">
-        <v>8.721948346192103E-06</v>
+        <v>8.72194834619297E-06</v>
       </c>
     </row>
     <row r="1914" spans="1:6">
@@ -39698,7 +39698,7 @@
         <v>311</v>
       </c>
       <c r="F1914">
-        <v>-2.120966825409215E-05</v>
+        <v>-2.120966825409128E-05</v>
       </c>
     </row>
     <row r="1915" spans="1:6">
@@ -39718,7 +39718,7 @@
         <v>298</v>
       </c>
       <c r="F1915">
-        <v>1.167373140675311E-06</v>
+        <v>1.167373140677046E-06</v>
       </c>
     </row>
     <row r="1916" spans="1:6">
@@ -39738,7 +39738,7 @@
         <v>312</v>
       </c>
       <c r="F1916">
-        <v>-0.0001375452042316327</v>
+        <v>-0.0001375452042316318</v>
       </c>
     </row>
     <row r="1917" spans="1:6">
@@ -39758,7 +39758,7 @@
         <v>313</v>
       </c>
       <c r="F1917">
-        <v>-1.807915695279522E-06</v>
+        <v>-1.807915695278654E-06</v>
       </c>
     </row>
     <row r="1918" spans="1:6">
@@ -39778,7 +39778,7 @@
         <v>314</v>
       </c>
       <c r="F1918">
-        <v>3.434519030651867E-07</v>
+        <v>3.434519030660541E-07</v>
       </c>
     </row>
     <row r="1919" spans="1:6">
@@ -39798,7 +39798,7 @@
         <v>315</v>
       </c>
       <c r="F1919">
-        <v>0.0001363771623516937</v>
+        <v>0.0001363771623516955</v>
       </c>
     </row>
     <row r="1920" spans="1:6">
@@ -39818,7 +39818,7 @@
         <v>316</v>
       </c>
       <c r="F1920">
-        <v>-0.0001201762410350431</v>
+        <v>-0.0001201762410350422</v>
       </c>
     </row>
     <row r="1921" spans="1:6">
@@ -39838,7 +39838,7 @@
         <v>317</v>
       </c>
       <c r="F1921">
-        <v>0.0001089085722663649</v>
+        <v>0.0001089085722663658</v>
       </c>
     </row>
     <row r="1922" spans="1:6">
@@ -39858,7 +39858,7 @@
         <v>318</v>
       </c>
       <c r="F1922">
-        <v>4.134677446350141E-07</v>
+        <v>4.134677446358814E-07</v>
       </c>
     </row>
     <row r="1923" spans="1:6">
@@ -39878,7 +39878,7 @@
         <v>319</v>
       </c>
       <c r="F1923">
-        <v>-6.080367525941772E-05</v>
+        <v>-6.080367525941686E-05</v>
       </c>
     </row>
     <row r="1924" spans="1:6">
@@ -39898,7 +39898,7 @@
         <v>320</v>
       </c>
       <c r="F1924">
-        <v>3.914689422358092E-05</v>
+        <v>3.914689422358179E-05</v>
       </c>
     </row>
     <row r="1925" spans="1:6">
@@ -39918,7 +39918,7 @@
         <v>321</v>
       </c>
       <c r="F1925">
-        <v>0.0001721399117157428</v>
+        <v>0.0001721399117157445</v>
       </c>
     </row>
     <row r="1926" spans="1:6">
@@ -39938,7 +39938,7 @@
         <v>322</v>
       </c>
       <c r="F1926">
-        <v>0.0001755213565850962</v>
+        <v>0.0001755213565850971</v>
       </c>
     </row>
     <row r="1927" spans="1:6">
@@ -39958,7 +39958,7 @@
         <v>323</v>
       </c>
       <c r="F1927">
-        <v>1.523570856642922E-05</v>
+        <v>1.523570856643008E-05</v>
       </c>
     </row>
     <row r="1928" spans="1:6">
@@ -39978,7 +39978,7 @@
         <v>324</v>
       </c>
       <c r="F1928">
-        <v>-2.383653613040066E-05</v>
+        <v>-2.383653613039979E-05</v>
       </c>
     </row>
     <row r="1929" spans="1:6">
@@ -39998,7 +39998,7 @@
         <v>325</v>
       </c>
       <c r="F1929">
-        <v>2.844756542281189E-05</v>
+        <v>2.844756542281276E-05</v>
       </c>
     </row>
     <row r="1930" spans="1:6">
@@ -40018,7 +40018,7 @@
         <v>326</v>
       </c>
       <c r="F1930">
-        <v>-3.342598490965049E-06</v>
+        <v>-3.342598490964181E-06</v>
       </c>
     </row>
     <row r="1931" spans="1:6">
@@ -40038,7 +40038,7 @@
         <v>302</v>
       </c>
       <c r="F1931">
-        <v>-9.959294186467384E-05</v>
+        <v>-9.959294186467297E-05</v>
       </c>
     </row>
     <row r="1932" spans="1:6">
@@ -40058,7 +40058,7 @@
         <v>327</v>
       </c>
       <c r="F1932">
-        <v>-0.0002259050374632046</v>
+        <v>-0.0002259050374632037</v>
       </c>
     </row>
     <row r="1933" spans="1:6">
@@ -40098,7 +40098,7 @@
         <v>329</v>
       </c>
       <c r="F1934">
-        <v>-0.0003020755732353704</v>
+        <v>-0.0003020755732353695</v>
       </c>
     </row>
     <row r="1935" spans="1:6">
@@ -40118,7 +40118,7 @@
         <v>330</v>
       </c>
       <c r="F1935">
-        <v>0.00104706256062277</v>
+        <v>0.001047062560622771</v>
       </c>
     </row>
     <row r="1936" spans="1:6">
@@ -40138,7 +40138,7 @@
         <v>331</v>
       </c>
       <c r="F1936">
-        <v>0.0004718799547638658</v>
+        <v>0.0004718799547638666</v>
       </c>
     </row>
     <row r="1937" spans="1:6">
@@ -40178,7 +40178,7 @@
         <v>306</v>
       </c>
       <c r="F1938">
-        <v>1.401163777853091E-06</v>
+        <v>1.401163777853959E-06</v>
       </c>
     </row>
     <row r="1939" spans="1:6">
@@ -40198,7 +40198,7 @@
         <v>333</v>
       </c>
       <c r="F1939">
-        <v>9.618830315049915E-05</v>
+        <v>9.618830315050002E-05</v>
       </c>
     </row>
     <row r="1940" spans="1:6">
@@ -40218,7 +40218,7 @@
         <v>334</v>
       </c>
       <c r="F1940">
-        <v>0.0001174353805647385</v>
+        <v>0.0001174353805647402</v>
       </c>
     </row>
     <row r="1941" spans="1:6">
@@ -40238,7 +40238,7 @@
         <v>335</v>
       </c>
       <c r="F1941">
-        <v>-0.001032197358518846</v>
+        <v>-0.001032197358518845</v>
       </c>
     </row>
     <row r="1942" spans="1:6">
@@ -40258,7 +40258,7 @@
         <v>336</v>
       </c>
       <c r="F1942">
-        <v>0.0004959834335964888</v>
+        <v>0.0004959834335964914</v>
       </c>
     </row>
     <row r="1943" spans="1:6">
@@ -40278,7 +40278,7 @@
         <v>337</v>
       </c>
       <c r="F1943">
-        <v>-7.729255843398879E-05</v>
+        <v>-7.729255843398706E-05</v>
       </c>
     </row>
     <row r="1944" spans="1:6">
@@ -40298,7 +40298,7 @@
         <v>5</v>
       </c>
       <c r="F1944">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1945" spans="1:6">
@@ -40438,7 +40438,7 @@
         <v>339</v>
       </c>
       <c r="F1951">
-        <v>-7.046121994748198E-05</v>
+        <v>-7.0461219947482E-05</v>
       </c>
     </row>
     <row r="1952" spans="1:6">
@@ -40458,7 +40458,7 @@
         <v>340</v>
       </c>
       <c r="F1952">
-        <v>-3.192209642362084E-06</v>
+        <v>-3.192209642362085E-06</v>
       </c>
     </row>
     <row r="1953" spans="1:6">
@@ -40478,7 +40478,7 @@
         <v>341</v>
       </c>
       <c r="F1953">
-        <v>1.076508325854156E-05</v>
+        <v>1.076508325854157E-05</v>
       </c>
     </row>
     <row r="1954" spans="1:6">
@@ -40498,7 +40498,7 @@
         <v>342</v>
       </c>
       <c r="F1954">
-        <v>6.183102954394583E-05</v>
+        <v>6.183102954394585E-05</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -40518,7 +40518,7 @@
         <v>338</v>
       </c>
       <c r="F1955">
-        <v>-0.0001380917078427297</v>
+        <v>-0.0001380917078427288</v>
       </c>
     </row>
     <row r="1956" spans="1:6">
@@ -40538,7 +40538,7 @@
         <v>339</v>
       </c>
       <c r="F1956">
-        <v>3.420733626523145E-05</v>
+        <v>3.420733626523231E-05</v>
       </c>
     </row>
     <row r="1957" spans="1:6">
@@ -40558,7 +40558,7 @@
         <v>340</v>
       </c>
       <c r="F1957">
-        <v>-5.9285639873825E-06</v>
+        <v>-5.928563987381633E-06</v>
       </c>
     </row>
     <row r="1958" spans="1:6">
@@ -40578,7 +40578,7 @@
         <v>341</v>
       </c>
       <c r="F1958">
-        <v>7.700425762896101E-05</v>
+        <v>7.700425762896188E-05</v>
       </c>
     </row>
     <row r="1959" spans="1:6">
@@ -40738,7 +40738,7 @@
         <v>338</v>
       </c>
       <c r="F1966">
-        <v>3.804584371977663E-05</v>
+        <v>3.804584371977664E-05</v>
       </c>
     </row>
     <row r="1967" spans="1:6">
@@ -40758,7 +40758,7 @@
         <v>339</v>
       </c>
       <c r="F1967">
-        <v>-9.965463080758828E-05</v>
+        <v>-9.96546308075883E-05</v>
       </c>
     </row>
     <row r="1968" spans="1:6">
@@ -40778,7 +40778,7 @@
         <v>340</v>
       </c>
       <c r="F1968">
-        <v>-4.514802235997693E-06</v>
+        <v>-4.514802235997694E-06</v>
       </c>
     </row>
     <row r="1969" spans="1:6">
@@ -40818,7 +40818,7 @@
         <v>342</v>
       </c>
       <c r="F1970">
-        <v>8.744878993363502E-05</v>
+        <v>8.744878993363503E-05</v>
       </c>
     </row>
     <row r="1971" spans="1:6">
@@ -40838,7 +40838,7 @@
         <v>338</v>
       </c>
       <c r="F1971">
-        <v>-0.0001953057039448597</v>
+        <v>-0.0001953057039448588</v>
       </c>
     </row>
     <row r="1972" spans="1:6">
@@ -40858,7 +40858,7 @@
         <v>339</v>
       </c>
       <c r="F1972">
-        <v>4.838008012015074E-05</v>
+        <v>4.838008012015161E-05</v>
       </c>
     </row>
     <row r="1973" spans="1:6">
@@ -40878,7 +40878,7 @@
         <v>340</v>
       </c>
       <c r="F1973">
-        <v>-8.384879736996961E-06</v>
+        <v>-8.384879736996094E-06</v>
       </c>
     </row>
     <row r="1974" spans="1:6">
@@ -40898,7 +40898,7 @@
         <v>341</v>
       </c>
       <c r="F1974">
-        <v>0.0001089085722663649</v>
+        <v>0.0001089085722663658</v>
       </c>
     </row>
     <row r="1975" spans="1:6">
@@ -40938,7 +40938,7 @@
         <v>5</v>
       </c>
       <c r="F1976">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="1977" spans="1:6">
@@ -41038,7 +41038,7 @@
         <v>343</v>
       </c>
       <c r="F1981">
-        <v>1.036840494519775E-05</v>
+        <v>1.036840494519776E-05</v>
       </c>
     </row>
     <row r="1982" spans="1:6">
@@ -41058,7 +41058,7 @@
         <v>344</v>
       </c>
       <c r="F1982">
-        <v>5.579819073292151E-05</v>
+        <v>5.579819073292153E-05</v>
       </c>
     </row>
     <row r="1983" spans="1:6">
@@ -41078,7 +41078,7 @@
         <v>345</v>
       </c>
       <c r="F1983">
-        <v>7.459082732559202E-06</v>
+        <v>7.459082732559203E-06</v>
       </c>
     </row>
     <row r="1984" spans="1:6">
@@ -41118,7 +41118,7 @@
         <v>343</v>
       </c>
       <c r="F1985">
-        <v>0.003010483544425019</v>
+        <v>0.00301048354442502</v>
       </c>
     </row>
     <row r="1986" spans="1:6">
@@ -41138,7 +41138,7 @@
         <v>344</v>
       </c>
       <c r="F1986">
-        <v>-5.738738340026108E-05</v>
+        <v>-5.738738340026021E-05</v>
       </c>
     </row>
     <row r="1987" spans="1:6">
@@ -41158,7 +41158,7 @@
         <v>345</v>
       </c>
       <c r="F1987">
-        <v>-5.242691509524042E-07</v>
+        <v>-5.242691509515368E-07</v>
       </c>
     </row>
     <row r="1988" spans="1:6">
@@ -41178,7 +41178,7 @@
         <v>346</v>
       </c>
       <c r="F1988">
-        <v>-6.471924820588594E-05</v>
+        <v>-6.471924820588507E-05</v>
       </c>
     </row>
     <row r="1989" spans="1:6">
@@ -41358,7 +41358,7 @@
         <v>346</v>
       </c>
       <c r="F1997">
-        <v>-6.757972335970795E-05</v>
+        <v>-6.757972335970796E-05</v>
       </c>
     </row>
     <row r="1998" spans="1:6">
@@ -41378,7 +41378,7 @@
         <v>343</v>
       </c>
       <c r="F1998">
-        <v>0.004257783592103648</v>
+        <v>0.004257783592103649</v>
       </c>
     </row>
     <row r="1999" spans="1:6">
@@ -41398,7 +41398,7 @@
         <v>344</v>
       </c>
       <c r="F1999">
-        <v>-8.116405747770391E-05</v>
+        <v>-8.116405747770304E-05</v>
       </c>
     </row>
     <row r="2000" spans="1:6">
@@ -41438,7 +41438,7 @@
         <v>346</v>
       </c>
       <c r="F2001">
-        <v>-9.153365199906279E-05</v>
+        <v>-9.153365199906192E-05</v>
       </c>
     </row>
     <row r="2002" spans="1:6">
@@ -41458,7 +41458,7 @@
         <v>5</v>
       </c>
       <c r="F2002">
-        <v>0.004309177092176014</v>
+        <v>0.004309177092176015</v>
       </c>
     </row>
     <row r="2003" spans="1:6">
@@ -41478,7 +41478,7 @@
         <v>347</v>
       </c>
       <c r="F2003">
-        <v>0.003893010038767736</v>
+        <v>0.003893010038767737</v>
       </c>
     </row>
     <row r="2004" spans="1:6">
@@ -41538,7 +41538,7 @@
         <v>348</v>
       </c>
       <c r="F2006">
-        <v>-0.0002746992181310374</v>
+        <v>-0.0002746992181310375</v>
       </c>
     </row>
     <row r="2007" spans="1:6">
@@ -41558,7 +41558,7 @@
         <v>347</v>
       </c>
       <c r="F2007">
-        <v>0.003330435946726364</v>
+        <v>0.003330435946726365</v>
       </c>
     </row>
     <row r="2008" spans="1:6">
@@ -41618,7 +41618,7 @@
         <v>347</v>
       </c>
       <c r="F2010">
-        <v>0.005505957439181377</v>
+        <v>0.005505957439181378</v>
       </c>
     </row>
     <row r="2011" spans="1:6">
@@ -41658,7 +41658,7 @@
         <v>347</v>
       </c>
       <c r="F2012">
-        <v>0.000425062739995719</v>
+        <v>0.0004250627399957191</v>
       </c>
     </row>
     <row r="2013" spans="1:6">
@@ -41698,7 +41698,7 @@
         <v>347</v>
       </c>
       <c r="F2014">
-        <v>0.004710298302338678</v>
+        <v>0.00471029830233868</v>
       </c>
     </row>
     <row r="2015" spans="1:6">
@@ -41718,7 +41718,7 @@
         <v>348</v>
       </c>
       <c r="F2015">
-        <v>0.0005885929039065119</v>
+        <v>0.000588592903906511</v>
       </c>
     </row>
   </sheetData>
